--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R804"/>
+  <dimension ref="A1:R808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57017,20 +57017,20 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>420</v>
+        <v>2920</v>
       </c>
       <c r="K787" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L787" t="n">
         <v>5500</v>
       </c>
       <c r="M787" t="n">
-        <v>5500</v>
+        <v>4974</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="Q787" t="n">
         <v>20</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>410</v>
+        <v>1100</v>
       </c>
       <c r="K788" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L788" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M788" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q788" t="n">
         <v>20</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57161,20 +57161,20 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="K789" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L789" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M789" t="n">
-        <v>6000</v>
+        <v>4247</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="Q789" t="n">
         <v>20</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>670</v>
+        <v>380</v>
       </c>
       <c r="K790" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L790" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M790" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57255,11 +57255,11 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q790" t="n">
         <v>20</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="K791" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L791" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M791" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q791" t="n">
         <v>20</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="K792" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L792" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M792" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q792" t="n">
         <v>20</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57453,7 +57453,7 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>2500</v>
+        <v>680</v>
       </c>
       <c r="K793" t="n">
         <v>6000</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57525,7 +57525,7 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>1600</v>
+        <v>670</v>
       </c>
       <c r="K794" t="n">
         <v>6000</v>
@@ -57543,7 +57543,7 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P794" t="n">
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57597,7 +57597,7 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>1100</v>
+        <v>330</v>
       </c>
       <c r="K795" t="n">
         <v>5000</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57669,7 +57669,7 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K796" t="n">
         <v>5000</v>
@@ -57687,7 +57687,7 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P796" t="n">
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>240</v>
+        <v>2500</v>
       </c>
       <c r="K797" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L797" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M797" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57763,7 +57763,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q797" t="n">
         <v>20</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>370</v>
+        <v>1600</v>
       </c>
       <c r="K798" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L798" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M798" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="Q798" t="n">
         <v>20</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>2550</v>
+        <v>1100</v>
       </c>
       <c r="K799" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L799" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M799" t="n">
-        <v>4641</v>
+        <v>5000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="Q799" t="n">
         <v>20</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,11 +57953,11 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>1480</v>
+        <v>500</v>
       </c>
       <c r="K800" t="n">
         <v>5000</v>
@@ -57975,7 +57975,7 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P800" t="n">
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>920</v>
+        <v>240</v>
       </c>
       <c r="K801" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L801" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M801" t="n">
-        <v>3701</v>
+        <v>3000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="Q801" t="n">
         <v>20</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>560</v>
+        <v>370</v>
       </c>
       <c r="K802" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L802" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M802" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q802" t="n">
         <v>20</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>2800</v>
+        <v>2550</v>
       </c>
       <c r="K803" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L803" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M803" t="n">
-        <v>4170</v>
+        <v>4641</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="Q803" t="n">
         <v>20</v>
@@ -58221,58 +58221,346 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E804" t="n">
+        <v>13</v>
+      </c>
+      <c r="F804" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G804" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J804" t="n">
+        <v>1480</v>
+      </c>
+      <c r="K804" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L804" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M804" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N804" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O804" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P804" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q804" t="n">
+        <v>20</v>
+      </c>
+      <c r="R804" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>6</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D805" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E805" t="n">
+        <v>13</v>
+      </c>
+      <c r="F805" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J805" t="n">
+        <v>920</v>
+      </c>
+      <c r="K805" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L805" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M805" t="n">
+        <v>3701</v>
+      </c>
+      <c r="N805" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O805" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P805" t="n">
+        <v>185</v>
+      </c>
+      <c r="Q805" t="n">
+        <v>20</v>
+      </c>
+      <c r="R805" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>6</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D806" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E806" t="n">
+        <v>13</v>
+      </c>
+      <c r="F806" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J806" t="n">
+        <v>560</v>
+      </c>
+      <c r="K806" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L806" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M806" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N806" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O806" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P806" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q806" t="n">
+        <v>20</v>
+      </c>
+      <c r="R806" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>6</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D807" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E804" t="n">
-        <v>13</v>
-      </c>
-      <c r="F804" t="n">
-        <v>100114013</v>
-      </c>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>Zanahoria</t>
-        </is>
-      </c>
-      <c r="H804" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I804" t="inlineStr">
+      <c r="E807" t="n">
+        <v>13</v>
+      </c>
+      <c r="F807" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I807" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J807" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K807" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L807" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M807" t="n">
+        <v>4170</v>
+      </c>
+      <c r="N807" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O807" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P807" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q807" t="n">
+        <v>20</v>
+      </c>
+      <c r="R807" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>6</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D808" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E808" t="n">
+        <v>13</v>
+      </c>
+      <c r="F808" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I808" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J804" t="n">
+      <c r="J808" t="n">
         <v>600</v>
       </c>
-      <c r="K804" t="n">
+      <c r="K808" t="n">
         <v>3500</v>
       </c>
-      <c r="L804" t="n">
+      <c r="L808" t="n">
         <v>4000</v>
       </c>
-      <c r="M804" t="n">
+      <c r="M808" t="n">
         <v>3767</v>
       </c>
-      <c r="N804" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O804" t="inlineStr">
+      <c r="N808" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O808" t="inlineStr">
         <is>
           <t>Chillán</t>
         </is>
       </c>
-      <c r="P804" t="n">
+      <c r="P808" t="n">
         <v>188</v>
       </c>
-      <c r="Q804" t="n">
-        <v>20</v>
-      </c>
-      <c r="R804" t="inlineStr">
+      <c r="Q808" t="n">
+        <v>20</v>
+      </c>
+      <c r="R808" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R808"/>
+  <dimension ref="A1:R812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53057,20 +53057,20 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>430</v>
+        <v>2200</v>
       </c>
       <c r="K732" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L732" t="n">
         <v>5500</v>
       </c>
       <c r="M732" t="n">
-        <v>5500</v>
+        <v>5182</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="Q732" t="n">
         <v>20</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53129,20 +53129,20 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>410</v>
+        <v>1640</v>
       </c>
       <c r="K733" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L733" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M733" t="n">
-        <v>5500</v>
+        <v>4771</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="Q733" t="n">
         <v>20</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53201,20 +53201,20 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>590</v>
+        <v>360</v>
       </c>
       <c r="K734" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L734" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M734" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q734" t="n">
         <v>20</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53273,20 +53273,20 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>610</v>
+        <v>440</v>
       </c>
       <c r="K735" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L735" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M735" t="n">
-        <v>6000</v>
+        <v>3773</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="Q735" t="n">
         <v>20</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="K736" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L736" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M736" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q736" t="n">
         <v>20</v>
@@ -53417,20 +53417,20 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="K737" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L737" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M737" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q737" t="n">
         <v>20</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53493,16 +53493,16 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>2100</v>
+        <v>590</v>
       </c>
       <c r="K738" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L738" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M738" t="n">
-        <v>4714</v>
+        <v>6000</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="Q738" t="n">
         <v>20</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53565,16 +53565,16 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>1900</v>
+        <v>610</v>
       </c>
       <c r="K739" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L739" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M739" t="n">
-        <v>4711</v>
+        <v>6000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="Q739" t="n">
         <v>20</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53637,16 +53637,16 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="K740" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L740" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M740" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q740" t="n">
         <v>20</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53709,29 +53709,29 @@
         </is>
       </c>
       <c r="J741" t="n">
+        <v>350</v>
+      </c>
+      <c r="K741" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L741" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M741" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N741" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O741" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P741" t="n">
         <v>250</v>
-      </c>
-      <c r="K741" t="n">
-        <v>4000</v>
-      </c>
-      <c r="L741" t="n">
-        <v>4000</v>
-      </c>
-      <c r="M741" t="n">
-        <v>4000</v>
-      </c>
-      <c r="N741" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O741" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="P741" t="n">
-        <v>200</v>
       </c>
       <c r="Q741" t="n">
         <v>20</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53777,20 +53777,20 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="K742" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L742" t="n">
         <v>5000</v>
       </c>
       <c r="M742" t="n">
-        <v>5000</v>
+        <v>4714</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Q742" t="n">
         <v>20</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53853,16 +53853,16 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K743" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L743" t="n">
         <v>5000</v>
       </c>
       <c r="M743" t="n">
-        <v>5000</v>
+        <v>4711</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Q743" t="n">
         <v>20</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53921,20 +53921,20 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="K744" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L744" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M744" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q744" t="n">
         <v>20</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53997,7 +53997,7 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="K745" t="n">
         <v>4000</v>
@@ -54015,7 +54015,7 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P745" t="n">
@@ -54065,20 +54065,20 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K746" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L746" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M746" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q746" t="n">
         <v>20</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54137,20 +54137,20 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>270</v>
+        <v>1600</v>
       </c>
       <c r="K747" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L747" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M747" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q747" t="n">
         <v>20</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54213,16 +54213,16 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="K748" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L748" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M748" t="n">
-        <v>5750</v>
+        <v>5000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="Q748" t="n">
         <v>20</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54285,16 +54285,16 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>630</v>
+        <v>750</v>
       </c>
       <c r="K749" t="n">
         <v>4000</v>
       </c>
       <c r="L749" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M749" t="n">
-        <v>4262</v>
+        <v>4000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="Q749" t="n">
         <v>20</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54353,20 +54353,20 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>2640</v>
+        <v>900</v>
       </c>
       <c r="K750" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L750" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M750" t="n">
-        <v>4735</v>
+        <v>4000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54375,11 +54375,11 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="Q750" t="n">
         <v>20</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54425,20 +54425,20 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>1600</v>
+        <v>270</v>
       </c>
       <c r="K751" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L751" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M751" t="n">
-        <v>4281</v>
+        <v>3500</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54447,11 +54447,11 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="Q751" t="n">
         <v>20</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54497,20 +54497,20 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>380</v>
+        <v>1600</v>
       </c>
       <c r="K752" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L752" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M752" t="n">
-        <v>4000</v>
+        <v>5750</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q752" t="n">
         <v>20</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54573,16 +54573,16 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="K753" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L753" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M753" t="n">
-        <v>3500</v>
+        <v>4262</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Q753" t="n">
         <v>20</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>550</v>
+        <v>2640</v>
       </c>
       <c r="K754" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L754" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M754" t="n">
-        <v>3273</v>
+        <v>4735</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54663,11 +54663,11 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="Q754" t="n">
         <v>20</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54717,16 +54717,16 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>11580</v>
+        <v>1600</v>
       </c>
       <c r="K755" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L755" t="n">
         <v>4500</v>
       </c>
-      <c r="L755" t="n">
-        <v>5500</v>
-      </c>
       <c r="M755" t="n">
-        <v>4929</v>
+        <v>4281</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="Q755" t="n">
         <v>20</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54785,20 +54785,20 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>1420</v>
+        <v>380</v>
       </c>
       <c r="K756" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L756" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M756" t="n">
-        <v>5155</v>
+        <v>4000</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54807,11 +54807,11 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="Q756" t="n">
         <v>20</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54857,20 +54857,20 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>5800</v>
+        <v>600</v>
       </c>
       <c r="K757" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L757" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M757" t="n">
-        <v>4784</v>
+        <v>3500</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54879,11 +54879,11 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="Q757" t="n">
         <v>20</v>
@@ -54929,20 +54929,20 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>1740</v>
+        <v>550</v>
       </c>
       <c r="K758" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L758" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M758" t="n">
-        <v>4000</v>
+        <v>3273</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="Q758" t="n">
         <v>20</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>370</v>
+        <v>11580</v>
       </c>
       <c r="K759" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L759" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M759" t="n">
-        <v>4000</v>
+        <v>4929</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="Q759" t="n">
         <v>20</v>
@@ -55073,20 +55073,20 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>1250</v>
+        <v>1420</v>
       </c>
       <c r="K760" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L760" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M760" t="n">
-        <v>4000</v>
+        <v>5155</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55095,11 +55095,11 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="Q760" t="n">
         <v>20</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55145,20 +55145,20 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>700</v>
+        <v>5800</v>
       </c>
       <c r="K761" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L761" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M761" t="n">
-        <v>3500</v>
+        <v>4784</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55171,7 +55171,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="Q761" t="n">
         <v>20</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>2800</v>
+        <v>1740</v>
       </c>
       <c r="K762" t="n">
         <v>4000</v>
       </c>
       <c r="L762" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M762" t="n">
-        <v>4429</v>
+        <v>4000</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55243,7 +55243,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="Q762" t="n">
         <v>20</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55289,20 +55289,20 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>2000</v>
+        <v>370</v>
       </c>
       <c r="K763" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L763" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M763" t="n">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="Q763" t="n">
         <v>20</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55365,7 +55365,7 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="K764" t="n">
         <v>4000</v>
@@ -55383,7 +55383,7 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P764" t="n">
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="K765" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L765" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M765" t="n">
-        <v>4826</v>
+        <v>3500</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="Q765" t="n">
         <v>20</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55509,7 +55509,7 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K766" t="n">
         <v>4000</v>
@@ -55518,7 +55518,7 @@
         <v>5000</v>
       </c>
       <c r="M766" t="n">
-        <v>4462</v>
+        <v>4429</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55527,11 +55527,11 @@
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q766" t="n">
         <v>20</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55577,20 +55577,20 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="K767" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L767" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M767" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="Q767" t="n">
         <v>20</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55653,16 +55653,16 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K768" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L768" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M768" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q768" t="n">
         <v>20</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55721,20 +55721,20 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>130</v>
+        <v>2300</v>
       </c>
       <c r="K769" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L769" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M769" t="n">
-        <v>3000</v>
+        <v>4826</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="Q769" t="n">
         <v>20</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55797,16 +55797,16 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K770" t="n">
         <v>4000</v>
       </c>
       <c r="L770" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M770" t="n">
-        <v>4180</v>
+        <v>4462</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="Q770" t="n">
         <v>20</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>3100</v>
+        <v>700</v>
       </c>
       <c r="K771" t="n">
         <v>4000</v>
       </c>
       <c r="L771" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M771" t="n">
-        <v>4210</v>
+        <v>4000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q771" t="n">
         <v>20</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55941,16 +55941,16 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K772" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L772" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M772" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q772" t="n">
         <v>20</v>
@@ -56009,20 +56009,20 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="K773" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L773" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M773" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q773" t="n">
         <v>20</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56081,20 +56081,20 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K774" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L774" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M774" t="n">
-        <v>3500</v>
+        <v>4180</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="Q774" t="n">
         <v>20</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56157,16 +56157,16 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K775" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L775" t="n">
         <v>4500</v>
       </c>
-      <c r="L775" t="n">
-        <v>5000</v>
-      </c>
       <c r="M775" t="n">
-        <v>4752</v>
+        <v>4210</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56175,11 +56175,11 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="Q775" t="n">
         <v>20</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="K776" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L776" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M776" t="n">
-        <v>4775</v>
+        <v>3500</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="Q776" t="n">
         <v>20</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56301,16 +56301,16 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K777" t="n">
         <v>3500</v>
       </c>
       <c r="L777" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M777" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="Q777" t="n">
         <v>20</v>
@@ -56369,20 +56369,20 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K778" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L778" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M778" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q778" t="n">
         <v>20</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56445,16 +56445,16 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>1970</v>
+        <v>3300</v>
       </c>
       <c r="K779" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L779" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M779" t="n">
-        <v>4365</v>
+        <v>4752</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="Q779" t="n">
         <v>20</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>590</v>
+        <v>2800</v>
       </c>
       <c r="K780" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L780" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M780" t="n">
-        <v>3500</v>
+        <v>4775</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="Q780" t="n">
         <v>20</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56585,20 +56585,20 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="K781" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="L781" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="M781" t="n">
-        <v>300</v>
+        <v>3750</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="Q781" t="n">
         <v>20</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56657,20 +56657,20 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="K782" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L782" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M782" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q782" t="n">
         <v>20</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>1700</v>
+        <v>1970</v>
       </c>
       <c r="K783" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L783" t="n">
         <v>4500</v>
       </c>
-      <c r="L783" t="n">
-        <v>5000</v>
-      </c>
       <c r="M783" t="n">
-        <v>4735</v>
+        <v>4365</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="Q783" t="n">
         <v>20</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>1600</v>
+        <v>590</v>
       </c>
       <c r="K784" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L784" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M784" t="n">
-        <v>4688</v>
+        <v>3500</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="Q784" t="n">
         <v>20</v>
@@ -56873,20 +56873,20 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J785" t="n">
+        <v>120</v>
+      </c>
+      <c r="K785" t="n">
         <v>300</v>
       </c>
-      <c r="K785" t="n">
-        <v>4000</v>
-      </c>
       <c r="L785" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="M785" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="Q785" t="n">
         <v>20</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K786" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L786" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M786" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q786" t="n">
         <v>20</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57021,16 +57021,16 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>2920</v>
+        <v>1700</v>
       </c>
       <c r="K787" t="n">
         <v>4500</v>
       </c>
       <c r="L787" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M787" t="n">
-        <v>4974</v>
+        <v>4735</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Q787" t="n">
         <v>20</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57093,16 +57093,16 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K788" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L788" t="n">
         <v>5000</v>
       </c>
       <c r="M788" t="n">
-        <v>5000</v>
+        <v>4688</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="Q788" t="n">
         <v>20</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57165,16 +57165,16 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>770</v>
+        <v>300</v>
       </c>
       <c r="K789" t="n">
         <v>4000</v>
       </c>
       <c r="L789" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M789" t="n">
-        <v>4247</v>
+        <v>4000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="Q789" t="n">
         <v>20</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57237,7 +57237,7 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="K790" t="n">
         <v>4000</v>
@@ -57255,7 +57255,7 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P790" t="n">
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>420</v>
+        <v>2920</v>
       </c>
       <c r="K791" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L791" t="n">
         <v>5500</v>
       </c>
       <c r="M791" t="n">
-        <v>5500</v>
+        <v>4974</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="Q791" t="n">
         <v>20</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>410</v>
+        <v>1100</v>
       </c>
       <c r="K792" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L792" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M792" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q792" t="n">
         <v>20</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="K793" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L793" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M793" t="n">
-        <v>6000</v>
+        <v>4247</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="Q793" t="n">
         <v>20</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>670</v>
+        <v>380</v>
       </c>
       <c r="K794" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L794" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M794" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q794" t="n">
         <v>20</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="K795" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L795" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M795" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57619,7 +57619,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q795" t="n">
         <v>20</v>
@@ -57665,20 +57665,20 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="K796" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L796" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M796" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q796" t="n">
         <v>20</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57741,7 +57741,7 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>2500</v>
+        <v>680</v>
       </c>
       <c r="K797" t="n">
         <v>6000</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57813,7 +57813,7 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>1600</v>
+        <v>670</v>
       </c>
       <c r="K798" t="n">
         <v>6000</v>
@@ -57831,7 +57831,7 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P798" t="n">
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57885,7 +57885,7 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>1100</v>
+        <v>330</v>
       </c>
       <c r="K799" t="n">
         <v>5000</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57957,7 +57957,7 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K800" t="n">
         <v>5000</v>
@@ -57975,7 +57975,7 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P800" t="n">
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>240</v>
+        <v>2500</v>
       </c>
       <c r="K801" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L801" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M801" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q801" t="n">
         <v>20</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>370</v>
+        <v>1600</v>
       </c>
       <c r="K802" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L802" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M802" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="Q802" t="n">
         <v>20</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>2550</v>
+        <v>1100</v>
       </c>
       <c r="K803" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L803" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="M803" t="n">
-        <v>4641</v>
+        <v>5000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="Q803" t="n">
         <v>20</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58241,11 +58241,11 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>1480</v>
+        <v>500</v>
       </c>
       <c r="K804" t="n">
         <v>5000</v>
@@ -58263,7 +58263,7 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P804" t="n">
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>920</v>
+        <v>240</v>
       </c>
       <c r="K805" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L805" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M805" t="n">
-        <v>3701</v>
+        <v>3000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="Q805" t="n">
         <v>20</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>560</v>
+        <v>370</v>
       </c>
       <c r="K806" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L806" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M806" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q806" t="n">
         <v>20</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58461,16 +58461,16 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>2800</v>
+        <v>2550</v>
       </c>
       <c r="K807" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L807" t="n">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="M807" t="n">
-        <v>4170</v>
+        <v>4641</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="Q807" t="n">
         <v>20</v>
@@ -58509,58 +58509,346 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E808" t="n">
+        <v>13</v>
+      </c>
+      <c r="F808" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J808" t="n">
+        <v>1480</v>
+      </c>
+      <c r="K808" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L808" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M808" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N808" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O808" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P808" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q808" t="n">
+        <v>20</v>
+      </c>
+      <c r="R808" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>6</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D809" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E809" t="n">
+        <v>13</v>
+      </c>
+      <c r="F809" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J809" t="n">
+        <v>920</v>
+      </c>
+      <c r="K809" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L809" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M809" t="n">
+        <v>3701</v>
+      </c>
+      <c r="N809" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O809" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P809" t="n">
+        <v>185</v>
+      </c>
+      <c r="Q809" t="n">
+        <v>20</v>
+      </c>
+      <c r="R809" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>6</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D810" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E810" t="n">
+        <v>13</v>
+      </c>
+      <c r="F810" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J810" t="n">
+        <v>560</v>
+      </c>
+      <c r="K810" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L810" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M810" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N810" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O810" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P810" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q810" t="n">
+        <v>20</v>
+      </c>
+      <c r="R810" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>6</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D811" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E808" t="n">
-        <v>13</v>
-      </c>
-      <c r="F808" t="n">
-        <v>100114013</v>
-      </c>
-      <c r="G808" t="inlineStr">
-        <is>
-          <t>Zanahoria</t>
-        </is>
-      </c>
-      <c r="H808" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I808" t="inlineStr">
+      <c r="E811" t="n">
+        <v>13</v>
+      </c>
+      <c r="F811" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J811" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K811" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L811" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M811" t="n">
+        <v>4170</v>
+      </c>
+      <c r="N811" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O811" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P811" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q811" t="n">
+        <v>20</v>
+      </c>
+      <c r="R811" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>6</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D812" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E812" t="n">
+        <v>13</v>
+      </c>
+      <c r="F812" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G812" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I812" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J808" t="n">
+      <c r="J812" t="n">
         <v>600</v>
       </c>
-      <c r="K808" t="n">
+      <c r="K812" t="n">
         <v>3500</v>
       </c>
-      <c r="L808" t="n">
+      <c r="L812" t="n">
         <v>4000</v>
       </c>
-      <c r="M808" t="n">
+      <c r="M812" t="n">
         <v>3767</v>
       </c>
-      <c r="N808" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O808" t="inlineStr">
+      <c r="N812" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O812" t="inlineStr">
         <is>
           <t>Chillán</t>
         </is>
       </c>
-      <c r="P808" t="n">
+      <c r="P812" t="n">
         <v>188</v>
       </c>
-      <c r="Q808" t="n">
-        <v>20</v>
-      </c>
-      <c r="R808" t="inlineStr">
+      <c r="Q812" t="n">
+        <v>20</v>
+      </c>
+      <c r="R812" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R840"/>
+  <dimension ref="A1:R842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="K775" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L775" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M775" t="n">
-        <v>3000</v>
+        <v>5155</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56175,11 +56175,11 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="Q775" t="n">
         <v>20</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="K776" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L776" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M776" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q776" t="n">
         <v>20</v>
@@ -56297,20 +56297,20 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="K777" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L777" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M777" t="n">
-        <v>4731</v>
+        <v>3000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56323,7 +56323,7 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="Q777" t="n">
         <v>20</v>
@@ -56369,20 +56369,20 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K778" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L778" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M778" t="n">
-        <v>4842</v>
+        <v>3000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="Q778" t="n">
         <v>20</v>
@@ -56441,20 +56441,20 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="K779" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L779" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M779" t="n">
-        <v>3769</v>
+        <v>4731</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="Q779" t="n">
         <v>20</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K780" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L780" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M780" t="n">
-        <v>3750</v>
+        <v>4842</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56539,7 +56539,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="Q780" t="n">
         <v>20</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56585,20 +56585,20 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="K781" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L781" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M781" t="n">
-        <v>5000</v>
+        <v>3769</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="Q781" t="n">
         <v>20</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56657,20 +56657,20 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K782" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L782" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M782" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="Q782" t="n">
         <v>20</v>
@@ -56729,20 +56729,20 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K783" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L783" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M783" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q783" t="n">
         <v>20</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>790</v>
+        <v>250</v>
       </c>
       <c r="K784" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L784" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M784" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56827,7 +56827,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q784" t="n">
         <v>20</v>
@@ -56873,20 +56873,20 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K785" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L785" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M785" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q785" t="n">
         <v>20</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>430</v>
+        <v>790</v>
       </c>
       <c r="K786" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L786" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M786" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q786" t="n">
         <v>20</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57017,20 +57017,20 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K787" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L787" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M787" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q787" t="n">
         <v>20</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K788" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L788" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M788" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q788" t="n">
         <v>20</v>
@@ -57161,20 +57161,20 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>610</v>
+        <v>430</v>
       </c>
       <c r="K789" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L789" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M789" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q789" t="n">
         <v>20</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>650</v>
+        <v>420</v>
       </c>
       <c r="K790" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L790" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M790" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q790" t="n">
         <v>20</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K791" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L791" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M791" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q791" t="n">
         <v>20</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="K792" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L792" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M792" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q792" t="n">
         <v>20</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K793" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L793" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M793" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q793" t="n">
         <v>20</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>2700</v>
+        <v>350</v>
       </c>
       <c r="K794" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L794" t="n">
         <v>5000</v>
       </c>
       <c r="M794" t="n">
-        <v>4759</v>
+        <v>5000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q794" t="n">
         <v>20</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K795" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L795" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M795" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57619,7 +57619,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q795" t="n">
         <v>20</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57665,20 +57665,20 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>350</v>
+        <v>2700</v>
       </c>
       <c r="K796" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L796" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M796" t="n">
-        <v>3500</v>
+        <v>4759</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="Q796" t="n">
         <v>20</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K797" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L797" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M797" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q797" t="n">
         <v>20</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="K798" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L798" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M798" t="n">
-        <v>4325</v>
+        <v>3500</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="Q798" t="n">
         <v>20</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="K799" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L799" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M799" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q799" t="n">
         <v>20</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>640</v>
+        <v>2000</v>
       </c>
       <c r="K800" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L800" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M800" t="n">
-        <v>3938</v>
+        <v>4325</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Q800" t="n">
         <v>20</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="K801" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L801" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M801" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q801" t="n">
         <v>20</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>2700</v>
+        <v>640</v>
       </c>
       <c r="K802" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="L802" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M802" t="n">
-        <v>6000</v>
+        <v>3938</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="Q802" t="n">
         <v>20</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="K803" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L803" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M803" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q803" t="n">
         <v>20</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>1100</v>
+        <v>2700</v>
       </c>
       <c r="K804" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L804" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M804" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q804" t="n">
         <v>20</v>
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K805" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L805" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M805" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q805" t="n">
         <v>20</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="K806" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L806" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M806" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q806" t="n">
         <v>20</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58457,11 +58457,11 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K807" t="n">
         <v>5000</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>600</v>
+        <v>2200</v>
       </c>
       <c r="K808" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L808" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M808" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="Q808" t="n">
         <v>20</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K809" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L809" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M809" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q809" t="n">
         <v>20</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K810" t="n">
         <v>4500</v>
       </c>
       <c r="L810" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M810" t="n">
-        <v>4735</v>
+        <v>4500</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="Q810" t="n">
         <v>20</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K811" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L811" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M811" t="n">
-        <v>5462</v>
+        <v>4000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="Q811" t="n">
         <v>20</v>
@@ -58821,16 +58821,16 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K812" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L812" t="n">
         <v>5000</v>
       </c>
       <c r="M812" t="n">
-        <v>4533</v>
+        <v>4735</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="Q812" t="n">
         <v>20</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>770</v>
+        <v>1300</v>
       </c>
       <c r="K813" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L813" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M813" t="n">
-        <v>4000</v>
+        <v>5462</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="Q813" t="n">
         <v>20</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K814" t="n">
         <v>4000</v>
       </c>
       <c r="L814" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M814" t="n">
-        <v>4000</v>
+        <v>4533</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="Q814" t="n">
         <v>20</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>2300</v>
+        <v>770</v>
       </c>
       <c r="K815" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L815" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M815" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q815" t="n">
         <v>20</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K816" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L816" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M816" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q816" t="n">
         <v>20</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="K817" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L817" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M817" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q817" t="n">
         <v>20</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K818" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L818" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M818" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q818" t="n">
         <v>20</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59321,20 +59321,20 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="K819" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L819" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M819" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q819" t="n">
         <v>20</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="K820" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L820" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M820" t="n">
-        <v>4180</v>
+        <v>5000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="Q820" t="n">
         <v>20</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>3100</v>
+        <v>130</v>
       </c>
       <c r="K821" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L821" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M821" t="n">
-        <v>4210</v>
+        <v>3000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="Q821" t="n">
         <v>20</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="K822" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L822" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M822" t="n">
-        <v>3500</v>
+        <v>4180</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="Q822" t="n">
         <v>20</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>500</v>
+        <v>3100</v>
       </c>
       <c r="K823" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L823" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M823" t="n">
-        <v>3500</v>
+        <v>4210</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="Q823" t="n">
         <v>20</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59681,20 +59681,20 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="K824" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L824" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M824" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q824" t="n">
         <v>20</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>4250</v>
+        <v>500</v>
       </c>
       <c r="K825" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L825" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M825" t="n">
-        <v>4841</v>
+        <v>3500</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="Q825" t="n">
         <v>20</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="K826" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L826" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M826" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q826" t="n">
         <v>20</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>1700</v>
+        <v>4250</v>
       </c>
       <c r="K827" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L827" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M827" t="n">
-        <v>4000</v>
+        <v>4841</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="Q827" t="n">
         <v>20</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K828" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L828" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M828" t="n">
-        <v>3150</v>
+        <v>4000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="Q828" t="n">
         <v>20</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="K829" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L829" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M829" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q829" t="n">
         <v>20</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="K830" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L830" t="n">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="M830" t="n">
-        <v>4741</v>
+        <v>3150</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="Q830" t="n">
         <v>20</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K831" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L831" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M831" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q831" t="n">
         <v>20</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="K832" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L832" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M832" t="n">
-        <v>3731</v>
+        <v>4741</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="Q832" t="n">
         <v>20</v>
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K833" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L833" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M833" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q833" t="n">
         <v>20</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>2900</v>
+        <v>1300</v>
       </c>
       <c r="K834" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L834" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M834" t="n">
-        <v>6776</v>
+        <v>3731</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>339</v>
+        <v>187</v>
       </c>
       <c r="Q834" t="n">
         <v>20</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60477,16 +60477,16 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K835" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L835" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M835" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q835" t="n">
         <v>20</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>500</v>
+        <v>2900</v>
       </c>
       <c r="K836" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L836" t="n">
-        <v>3300</v>
+        <v>7000</v>
       </c>
       <c r="M836" t="n">
-        <v>3138</v>
+        <v>6776</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="Q836" t="n">
         <v>20</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>1540</v>
+        <v>560</v>
       </c>
       <c r="K837" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L837" t="n">
         <v>5000</v>
       </c>
       <c r="M837" t="n">
-        <v>4682</v>
+        <v>5000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="Q837" t="n">
         <v>20</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="K838" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L838" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="M838" t="n">
-        <v>3921</v>
+        <v>3138</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="Q838" t="n">
         <v>20</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,7 +60765,7 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>3600</v>
+        <v>1540</v>
       </c>
       <c r="K839" t="n">
         <v>4500</v>
@@ -60774,7 +60774,7 @@
         <v>5000</v>
       </c>
       <c r="M839" t="n">
-        <v>4667</v>
+        <v>4682</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q839" t="n">
         <v>20</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60837,34 +60837,178 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="K840" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="L840" t="n">
         <v>4000</v>
       </c>
       <c r="M840" t="n">
+        <v>3921</v>
+      </c>
+      <c r="N840" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O840" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P840" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q840" t="n">
+        <v>20</v>
+      </c>
+      <c r="R840" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>6</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D841" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E841" t="n">
+        <v>13</v>
+      </c>
+      <c r="F841" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G841" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J841" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K841" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L841" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M841" t="n">
+        <v>4667</v>
+      </c>
+      <c r="N841" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O841" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P841" t="n">
+        <v>233</v>
+      </c>
+      <c r="Q841" t="n">
+        <v>20</v>
+      </c>
+      <c r="R841" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>6</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D842" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E842" t="n">
+        <v>13</v>
+      </c>
+      <c r="F842" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J842" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K842" t="n">
         <v>4000</v>
       </c>
-      <c r="N840" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O840" t="inlineStr">
+      <c r="L842" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M842" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N842" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O842" t="inlineStr">
         <is>
           <t>Chillán</t>
         </is>
       </c>
-      <c r="P840" t="n">
+      <c r="P842" t="n">
         <v>200</v>
       </c>
-      <c r="Q840" t="n">
-        <v>20</v>
-      </c>
-      <c r="R840" t="inlineStr">
+      <c r="Q842" t="n">
+        <v>20</v>
+      </c>
+      <c r="R842" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R847"/>
+  <dimension ref="A1:R849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47517,16 +47517,16 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>2400</v>
+        <v>550</v>
       </c>
       <c r="K655" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L655" t="n">
         <v>8000</v>
       </c>
       <c r="M655" t="n">
-        <v>8000</v>
+        <v>7418</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="Q655" t="n">
         <v>20</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>1200</v>
+        <v>460</v>
       </c>
       <c r="K656" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L656" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M656" t="n">
-        <v>8000</v>
+        <v>5435</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="Q656" t="n">
         <v>20</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="K657" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L657" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M657" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q657" t="n">
         <v>20</v>
@@ -47729,33 +47729,33 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K658" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L658" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M658" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N658" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O658" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P658" t="n">
         <v>400</v>
-      </c>
-      <c r="K658" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L658" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M658" t="n">
-        <v>7000</v>
-      </c>
-      <c r="N658" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O658" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P658" t="n">
-        <v>350</v>
       </c>
       <c r="Q658" t="n">
         <v>20</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="K659" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L659" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M659" t="n">
-        <v>5536</v>
+        <v>7000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="Q659" t="n">
         <v>20</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>2700</v>
+        <v>400</v>
       </c>
       <c r="K660" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L660" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M660" t="n">
-        <v>5333</v>
+        <v>7000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47895,11 +47895,11 @@
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="Q660" t="n">
         <v>20</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="K661" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L661" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M661" t="n">
-        <v>4500</v>
+        <v>5536</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="Q661" t="n">
         <v>20</v>
@@ -48017,20 +48017,20 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="K662" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L662" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M662" t="n">
-        <v>4500</v>
+        <v>5333</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="Q662" t="n">
         <v>20</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K663" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L663" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M663" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q663" t="n">
         <v>20</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K664" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L664" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M664" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q664" t="n">
         <v>20</v>
@@ -48233,11 +48233,11 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K665" t="n">
         <v>5000</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="K666" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L666" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M666" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q666" t="n">
         <v>20</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="K667" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L667" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M667" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q667" t="n">
         <v>20</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>2200</v>
+        <v>750</v>
       </c>
       <c r="K668" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L668" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M668" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q668" t="n">
         <v>20</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48521,20 +48521,20 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K669" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L669" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M669" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48543,11 +48543,11 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q669" t="n">
         <v>20</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="K670" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L670" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M670" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q670" t="n">
         <v>20</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K671" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L671" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M671" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q671" t="n">
         <v>20</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48737,11 +48737,11 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="K672" t="n">
         <v>5000</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48809,11 +48809,11 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K673" t="n">
         <v>5000</v>
@@ -48831,7 +48831,7 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P673" t="n">
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K674" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L674" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M674" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q674" t="n">
         <v>20</v>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="K675" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L675" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M675" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q675" t="n">
         <v>20</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
       <c r="K676" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L676" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M676" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="Q676" t="n">
         <v>20</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K677" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L677" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M677" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="Q677" t="n">
         <v>20</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>610</v>
+        <v>430</v>
       </c>
       <c r="K678" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L678" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M678" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q678" t="n">
         <v>20</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>660</v>
+        <v>440</v>
       </c>
       <c r="K679" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L679" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M679" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q679" t="n">
         <v>20</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K680" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L680" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M680" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q680" t="n">
         <v>20</v>
@@ -49385,20 +49385,20 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>350</v>
+        <v>660</v>
       </c>
       <c r="K681" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L681" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M681" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q681" t="n">
         <v>20</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49457,20 +49457,20 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K682" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L682" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M682" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q682" t="n">
         <v>20</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="K683" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L683" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M683" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q683" t="n">
         <v>20</v>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="K684" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L684" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M684" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q684" t="n">
         <v>20</v>
@@ -49673,20 +49673,20 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="K685" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L685" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M685" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q685" t="n">
         <v>20</v>
@@ -49745,20 +49745,20 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="K686" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L686" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M686" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q686" t="n">
         <v>20</v>
@@ -49817,20 +49817,20 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K687" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L687" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M687" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q687" t="n">
         <v>20</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49889,20 +49889,20 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>2550</v>
+        <v>350</v>
       </c>
       <c r="K688" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L688" t="n">
         <v>5000</v>
       </c>
       <c r="M688" t="n">
-        <v>4745</v>
+        <v>5000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49911,11 +49911,11 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="Q688" t="n">
         <v>20</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49961,20 +49961,20 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>3200</v>
+        <v>340</v>
       </c>
       <c r="K689" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L689" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M689" t="n">
-        <v>4297</v>
+        <v>5000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="Q689" t="n">
         <v>20</v>
@@ -50033,20 +50033,20 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>870</v>
+        <v>2550</v>
       </c>
       <c r="K690" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L690" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M690" t="n">
-        <v>4000</v>
+        <v>4745</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="Q690" t="n">
         <v>20</v>
@@ -50105,20 +50105,20 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>600</v>
+        <v>3200</v>
       </c>
       <c r="K691" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L691" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M691" t="n">
-        <v>3500</v>
+        <v>4297</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="Q691" t="n">
         <v>20</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50177,20 +50177,20 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>2500</v>
+        <v>870</v>
       </c>
       <c r="K692" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L692" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M692" t="n">
-        <v>5220</v>
+        <v>4000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50199,11 +50199,11 @@
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="Q692" t="n">
         <v>20</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50253,16 +50253,16 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="K693" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L693" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M693" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q693" t="n">
         <v>20</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50321,20 +50321,20 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="K694" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L694" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M694" t="n">
-        <v>3500</v>
+        <v>5220</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="Q694" t="n">
         <v>20</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50393,20 +50393,20 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>2000</v>
+        <v>380</v>
       </c>
       <c r="K695" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L695" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M695" t="n">
-        <v>4825</v>
+        <v>4000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="Q695" t="n">
         <v>20</v>
@@ -50465,20 +50465,20 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="K696" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L696" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M696" t="n">
-        <v>4833</v>
+        <v>3500</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="Q696" t="n">
         <v>20</v>
@@ -50537,20 +50537,20 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>1150</v>
+        <v>2000</v>
       </c>
       <c r="K697" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L697" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M697" t="n">
-        <v>3783</v>
+        <v>4825</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="Q697" t="n">
         <v>20</v>
@@ -50609,20 +50609,20 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K698" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L698" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M698" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="Q698" t="n">
         <v>20</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50681,20 +50681,20 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>200</v>
+        <v>1150</v>
       </c>
       <c r="K699" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L699" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M699" t="n">
-        <v>3000</v>
+        <v>3783</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="Q699" t="n">
         <v>20</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50753,20 +50753,20 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="K700" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L700" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M700" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q700" t="n">
         <v>20</v>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>2200</v>
+        <v>200</v>
       </c>
       <c r="K701" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L701" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M701" t="n">
-        <v>5205</v>
+        <v>3000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="Q701" t="n">
         <v>20</v>
@@ -50897,20 +50897,20 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>3400</v>
+        <v>150</v>
       </c>
       <c r="K702" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L702" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M702" t="n">
-        <v>5176</v>
+        <v>3000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="Q702" t="n">
         <v>20</v>
@@ -50969,20 +50969,20 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="K703" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L703" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M703" t="n">
-        <v>4000</v>
+        <v>5205</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="Q703" t="n">
         <v>20</v>
@@ -51041,20 +51041,20 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>350</v>
+        <v>3400</v>
       </c>
       <c r="K704" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L704" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M704" t="n">
-        <v>4000</v>
+        <v>5176</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="Q704" t="n">
         <v>20</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K705" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L705" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M705" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q705" t="n">
         <v>20</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51185,20 +51185,20 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>3300</v>
+        <v>350</v>
       </c>
       <c r="K706" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L706" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M706" t="n">
-        <v>4752</v>
+        <v>4000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51207,11 +51207,11 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="Q706" t="n">
         <v>20</v>
@@ -51257,20 +51257,20 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="K707" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L707" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M707" t="n">
-        <v>4775</v>
+        <v>3500</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="Q707" t="n">
         <v>20</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>1200</v>
+        <v>3300</v>
       </c>
       <c r="K708" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L708" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M708" t="n">
-        <v>3750</v>
+        <v>4752</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="Q708" t="n">
         <v>20</v>
@@ -51401,20 +51401,20 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="K709" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L709" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M709" t="n">
-        <v>4000</v>
+        <v>4775</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="Q709" t="n">
         <v>20</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51473,20 +51473,20 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="K710" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L710" t="n">
         <v>4000</v>
       </c>
-      <c r="L710" t="n">
-        <v>4500</v>
-      </c>
       <c r="M710" t="n">
-        <v>4289</v>
+        <v>3750</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="Q710" t="n">
         <v>20</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51549,16 +51549,16 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K711" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L711" t="n">
         <v>4000</v>
       </c>
       <c r="M711" t="n">
-        <v>3850</v>
+        <v>4000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q711" t="n">
         <v>20</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51617,20 +51617,20 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K712" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L712" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M712" t="n">
-        <v>3000</v>
+        <v>4289</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="Q712" t="n">
         <v>20</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="K713" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L713" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M713" t="n">
-        <v>4810</v>
+        <v>3850</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="Q713" t="n">
         <v>20</v>
@@ -51761,20 +51761,20 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K714" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L714" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M714" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q714" t="n">
         <v>20</v>
@@ -51833,20 +51833,20 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="K715" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L715" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M715" t="n">
-        <v>4000</v>
+        <v>4810</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="Q715" t="n">
         <v>20</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="K716" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L716" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M716" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q716" t="n">
         <v>20</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51977,20 +51977,20 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="K717" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L717" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M717" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q717" t="n">
         <v>20</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K718" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L718" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M718" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q718" t="n">
         <v>20</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52125,16 +52125,16 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K719" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L719" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M719" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q719" t="n">
         <v>20</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="K720" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L720" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M720" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q720" t="n">
         <v>20</v>
@@ -52265,20 +52265,20 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K721" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L721" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M721" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q721" t="n">
         <v>20</v>
@@ -52337,20 +52337,20 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="K722" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L722" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M722" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q722" t="n">
         <v>20</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52409,20 +52409,20 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="K723" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L723" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M723" t="n">
-        <v>3271</v>
+        <v>4000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52435,7 +52435,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="Q723" t="n">
         <v>20</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K724" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L724" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M724" t="n">
-        <v>3286</v>
+        <v>4000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="Q724" t="n">
         <v>20</v>
@@ -52553,20 +52553,20 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>2570</v>
+        <v>830</v>
       </c>
       <c r="K725" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L725" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M725" t="n">
-        <v>4222</v>
+        <v>3271</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="Q725" t="n">
         <v>20</v>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>3300</v>
+        <v>700</v>
       </c>
       <c r="K726" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L726" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M726" t="n">
-        <v>4439</v>
+        <v>3286</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="Q726" t="n">
         <v>20</v>
@@ -52697,20 +52697,20 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>790</v>
+        <v>2570</v>
       </c>
       <c r="K727" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L727" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M727" t="n">
-        <v>3778</v>
+        <v>4222</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="Q727" t="n">
         <v>20</v>
@@ -52769,20 +52769,20 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>1250</v>
+        <v>3300</v>
       </c>
       <c r="K728" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L728" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M728" t="n">
-        <v>3800</v>
+        <v>4439</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="Q728" t="n">
         <v>20</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52841,20 +52841,20 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>2100</v>
+        <v>790</v>
       </c>
       <c r="K729" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L729" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M729" t="n">
-        <v>4714</v>
+        <v>3778</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52867,7 +52867,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="Q729" t="n">
         <v>20</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52913,20 +52913,20 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>1900</v>
+        <v>1250</v>
       </c>
       <c r="K730" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L730" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M730" t="n">
-        <v>4711</v>
+        <v>3800</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="Q730" t="n">
         <v>20</v>
@@ -52985,20 +52985,20 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="K731" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L731" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M731" t="n">
-        <v>4000</v>
+        <v>4714</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q731" t="n">
         <v>20</v>
@@ -53057,20 +53057,20 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>250</v>
+        <v>1900</v>
       </c>
       <c r="K732" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L732" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M732" t="n">
-        <v>4000</v>
+        <v>4711</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q732" t="n">
         <v>20</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53129,20 +53129,20 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K733" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L733" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M733" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q733" t="n">
         <v>20</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53201,20 +53201,20 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K734" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L734" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M734" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q734" t="n">
         <v>20</v>
@@ -53273,20 +53273,20 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>1900</v>
+        <v>150</v>
       </c>
       <c r="K735" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L735" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M735" t="n">
-        <v>4816</v>
+        <v>3500</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="Q735" t="n">
         <v>20</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>2900</v>
+        <v>220</v>
       </c>
       <c r="K736" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L736" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M736" t="n">
-        <v>4690</v>
+        <v>3500</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="Q736" t="n">
         <v>20</v>
@@ -53417,20 +53417,20 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>250</v>
+        <v>1900</v>
       </c>
       <c r="K737" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L737" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M737" t="n">
-        <v>4000</v>
+        <v>4816</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="Q737" t="n">
         <v>20</v>
@@ -53489,20 +53489,20 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>350</v>
+        <v>2900</v>
       </c>
       <c r="K738" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L738" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M738" t="n">
-        <v>4000</v>
+        <v>4690</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="Q738" t="n">
         <v>20</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53561,20 +53561,20 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K739" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L739" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M739" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q739" t="n">
         <v>20</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53633,20 +53633,20 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>3170</v>
+        <v>350</v>
       </c>
       <c r="K740" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L740" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M740" t="n">
-        <v>4705</v>
+        <v>4000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53655,11 +53655,11 @@
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="Q740" t="n">
         <v>20</v>
@@ -53705,20 +53705,20 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K741" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L741" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M741" t="n">
-        <v>4704</v>
+        <v>3500</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="Q741" t="n">
         <v>20</v>
@@ -53777,20 +53777,20 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>600</v>
+        <v>3170</v>
       </c>
       <c r="K742" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L742" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M742" t="n">
-        <v>4000</v>
+        <v>4705</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q742" t="n">
         <v>20</v>
@@ -53849,20 +53849,20 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="K743" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L743" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M743" t="n">
-        <v>4000</v>
+        <v>4704</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q743" t="n">
         <v>20</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53921,20 +53921,20 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="K744" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L744" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M744" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q744" t="n">
         <v>20</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53993,20 +53993,20 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>970</v>
+        <v>800</v>
       </c>
       <c r="K745" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L745" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M745" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54015,11 +54015,11 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q745" t="n">
         <v>20</v>
@@ -54065,20 +54065,20 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>340</v>
+        <v>880</v>
       </c>
       <c r="K746" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L746" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M746" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q746" t="n">
         <v>20</v>
@@ -54137,20 +54137,20 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>430</v>
+        <v>970</v>
       </c>
       <c r="K747" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L747" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M747" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q747" t="n">
         <v>20</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54209,20 +54209,20 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J748" t="n">
         <v>340</v>
       </c>
       <c r="K748" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L748" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M748" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54235,7 +54235,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q748" t="n">
         <v>20</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54281,20 +54281,20 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>2870</v>
+        <v>430</v>
       </c>
       <c r="K749" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L749" t="n">
         <v>5000</v>
       </c>
       <c r="M749" t="n">
-        <v>4721</v>
+        <v>5000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q749" t="n">
         <v>20</v>
@@ -54353,20 +54353,20 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>860</v>
+        <v>340</v>
       </c>
       <c r="K750" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L750" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M750" t="n">
-        <v>3721</v>
+        <v>3000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="Q750" t="n">
         <v>20</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54425,20 +54425,20 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>430</v>
+        <v>2870</v>
       </c>
       <c r="K751" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L751" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M751" t="n">
-        <v>5500</v>
+        <v>4721</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="Q751" t="n">
         <v>20</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54497,20 +54497,20 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>420</v>
+        <v>860</v>
       </c>
       <c r="K752" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L752" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M752" t="n">
-        <v>5500</v>
+        <v>3721</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="Q752" t="n">
         <v>20</v>
@@ -54569,20 +54569,20 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="K753" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L753" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M753" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q753" t="n">
         <v>20</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>590</v>
+        <v>420</v>
       </c>
       <c r="K754" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L754" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M754" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q754" t="n">
         <v>20</v>
@@ -54713,20 +54713,20 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>340</v>
+        <v>550</v>
       </c>
       <c r="K755" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L755" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M755" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q755" t="n">
         <v>20</v>
@@ -54785,20 +54785,20 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>330</v>
+        <v>590</v>
       </c>
       <c r="K756" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L756" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M756" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q756" t="n">
         <v>20</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54857,20 +54857,20 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K757" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L757" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M757" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54879,11 +54879,11 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q757" t="n">
         <v>20</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54929,20 +54929,20 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>2000</v>
+        <v>330</v>
       </c>
       <c r="K758" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="L758" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M758" t="n">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="Q758" t="n">
         <v>20</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>1300</v>
+        <v>450</v>
       </c>
       <c r="K759" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L759" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M759" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q759" t="n">
         <v>20</v>
@@ -55073,20 +55073,20 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="K760" t="n">
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="L760" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M760" t="n">
-        <v>3727</v>
+        <v>1900</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55099,7 +55099,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="Q760" t="n">
         <v>20</v>
@@ -55145,20 +55145,20 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K761" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L761" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M761" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55171,7 +55171,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q761" t="n">
         <v>20</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K762" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L762" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M762" t="n">
-        <v>3000</v>
+        <v>3727</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55243,7 +55243,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="Q762" t="n">
         <v>20</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55289,20 +55289,20 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="K763" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L763" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M763" t="n">
-        <v>4833</v>
+        <v>3500</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="Q763" t="n">
         <v>20</v>
@@ -55361,20 +55361,20 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K764" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L764" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M764" t="n">
-        <v>3786</v>
+        <v>3000</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55387,7 +55387,7 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="Q764" t="n">
         <v>20</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K765" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L765" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M765" t="n">
-        <v>3000</v>
+        <v>4833</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="Q765" t="n">
         <v>20</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55505,20 +55505,20 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>3300</v>
+        <v>1400</v>
       </c>
       <c r="K766" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L766" t="n">
         <v>4000</v>
       </c>
-      <c r="L766" t="n">
-        <v>5000</v>
-      </c>
       <c r="M766" t="n">
-        <v>4485</v>
+        <v>3786</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="Q766" t="n">
         <v>20</v>
@@ -55577,20 +55577,20 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K767" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L767" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M767" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q767" t="n">
         <v>20</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="K768" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L768" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M768" t="n">
-        <v>3731</v>
+        <v>4485</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55675,7 +55675,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="Q768" t="n">
         <v>20</v>
@@ -55721,20 +55721,20 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K769" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L769" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M769" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55747,7 +55747,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q769" t="n">
         <v>20</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55793,20 +55793,20 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>790</v>
+        <v>1300</v>
       </c>
       <c r="K770" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L770" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M770" t="n">
-        <v>6000</v>
+        <v>3731</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="Q770" t="n">
         <v>20</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="K771" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L771" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M771" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q771" t="n">
         <v>20</v>
@@ -55941,7 +55941,7 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>610</v>
+        <v>790</v>
       </c>
       <c r="K772" t="n">
         <v>6000</v>
@@ -55959,7 +55959,7 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P772" t="n">
@@ -56009,20 +56009,20 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>340</v>
+        <v>880</v>
       </c>
       <c r="K773" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L773" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M773" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q773" t="n">
         <v>20</v>
@@ -56081,20 +56081,20 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K774" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L774" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M774" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q774" t="n">
         <v>20</v>
@@ -56175,7 +56175,7 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P775" t="n">
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>2300</v>
+        <v>340</v>
       </c>
       <c r="K776" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L776" t="n">
         <v>5000</v>
       </c>
       <c r="M776" t="n">
-        <v>4826</v>
+        <v>5000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q776" t="n">
         <v>20</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56297,20 +56297,20 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>2600</v>
+        <v>340</v>
       </c>
       <c r="K777" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L777" t="n">
         <v>5000</v>
       </c>
       <c r="M777" t="n">
-        <v>4462</v>
+        <v>5000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="Q777" t="n">
         <v>20</v>
@@ -56369,20 +56369,20 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="K778" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L778" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M778" t="n">
-        <v>4000</v>
+        <v>4826</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="Q778" t="n">
         <v>20</v>
@@ -56441,20 +56441,20 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="K779" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L779" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M779" t="n">
-        <v>3000</v>
+        <v>4462</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="Q779" t="n">
         <v>20</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="K780" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L780" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M780" t="n">
-        <v>5155</v>
+        <v>4000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="Q780" t="n">
         <v>20</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56589,16 +56589,16 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>680</v>
+        <v>1300</v>
       </c>
       <c r="K781" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L781" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M781" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q781" t="n">
         <v>20</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56657,20 +56657,20 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="K782" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L782" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M782" t="n">
-        <v>3000</v>
+        <v>5155</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="Q782" t="n">
         <v>20</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56729,20 +56729,20 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="K783" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L783" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M783" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q783" t="n">
         <v>20</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="K784" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L784" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M784" t="n">
-        <v>4731</v>
+        <v>3000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56827,7 +56827,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="Q784" t="n">
         <v>20</v>
@@ -56873,20 +56873,20 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K785" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L785" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M785" t="n">
-        <v>4842</v>
+        <v>3000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="Q785" t="n">
         <v>20</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="K786" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L786" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M786" t="n">
-        <v>3769</v>
+        <v>4731</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="Q786" t="n">
         <v>20</v>
@@ -57017,20 +57017,20 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K787" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L787" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M787" t="n">
-        <v>3750</v>
+        <v>4842</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="Q787" t="n">
         <v>20</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="K788" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L788" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M788" t="n">
-        <v>5000</v>
+        <v>3769</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="Q788" t="n">
         <v>20</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57161,20 +57161,20 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>250</v>
+        <v>1600</v>
       </c>
       <c r="K789" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L789" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M789" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57183,11 +57183,11 @@
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="Q789" t="n">
         <v>20</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="K790" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L790" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M790" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q790" t="n">
         <v>20</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>790</v>
+        <v>250</v>
       </c>
       <c r="K791" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L791" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M791" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q791" t="n">
         <v>20</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K792" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L792" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M792" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q792" t="n">
         <v>20</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>430</v>
+        <v>790</v>
       </c>
       <c r="K793" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L793" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M793" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q793" t="n">
         <v>20</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K794" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L794" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M794" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q794" t="n">
         <v>20</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K795" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L795" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M795" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q795" t="n">
         <v>20</v>
@@ -57665,20 +57665,20 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>610</v>
+        <v>430</v>
       </c>
       <c r="K796" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L796" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M796" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q796" t="n">
         <v>20</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>650</v>
+        <v>420</v>
       </c>
       <c r="K797" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L797" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M797" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57763,7 +57763,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q797" t="n">
         <v>20</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K798" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L798" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M798" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q798" t="n">
         <v>20</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="K799" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L799" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M799" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q799" t="n">
         <v>20</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K800" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L800" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M800" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q800" t="n">
         <v>20</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>2700</v>
+        <v>350</v>
       </c>
       <c r="K801" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L801" t="n">
         <v>5000</v>
       </c>
       <c r="M801" t="n">
-        <v>4759</v>
+        <v>5000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58047,11 +58047,11 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q801" t="n">
         <v>20</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K802" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L802" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M802" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q802" t="n">
         <v>20</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>350</v>
+        <v>2700</v>
       </c>
       <c r="K803" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L803" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M803" t="n">
-        <v>3500</v>
+        <v>4759</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="Q803" t="n">
         <v>20</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K804" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L804" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M804" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q804" t="n">
         <v>20</v>
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="K805" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L805" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M805" t="n">
-        <v>4325</v>
+        <v>3500</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="Q805" t="n">
         <v>20</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="K806" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L806" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M806" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q806" t="n">
         <v>20</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>640</v>
+        <v>2000</v>
       </c>
       <c r="K807" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L807" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M807" t="n">
-        <v>3938</v>
+        <v>4325</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Q807" t="n">
         <v>20</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="K808" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L808" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M808" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q808" t="n">
         <v>20</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>2700</v>
+        <v>640</v>
       </c>
       <c r="K809" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="L809" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M809" t="n">
-        <v>6000</v>
+        <v>3938</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="Q809" t="n">
         <v>20</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="K810" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L810" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M810" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q810" t="n">
         <v>20</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>1100</v>
+        <v>2700</v>
       </c>
       <c r="K811" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L811" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M811" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q811" t="n">
         <v>20</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K812" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L812" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M812" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q812" t="n">
         <v>20</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="K813" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L813" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M813" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q813" t="n">
         <v>20</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58961,11 +58961,11 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K814" t="n">
         <v>5000</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>600</v>
+        <v>2200</v>
       </c>
       <c r="K815" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L815" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M815" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="Q815" t="n">
         <v>20</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K816" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L816" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M816" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q816" t="n">
         <v>20</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K817" t="n">
         <v>4500</v>
       </c>
       <c r="L817" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M817" t="n">
-        <v>4735</v>
+        <v>4500</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="Q817" t="n">
         <v>20</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K818" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L818" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M818" t="n">
-        <v>5462</v>
+        <v>4000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="Q818" t="n">
         <v>20</v>
@@ -59325,16 +59325,16 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="K819" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L819" t="n">
         <v>5000</v>
       </c>
       <c r="M819" t="n">
-        <v>4533</v>
+        <v>4735</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="Q819" t="n">
         <v>20</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>770</v>
+        <v>1300</v>
       </c>
       <c r="K820" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L820" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M820" t="n">
-        <v>4000</v>
+        <v>5462</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="Q820" t="n">
         <v>20</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K821" t="n">
         <v>4000</v>
       </c>
       <c r="L821" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M821" t="n">
-        <v>4000</v>
+        <v>4533</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="Q821" t="n">
         <v>20</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>2300</v>
+        <v>770</v>
       </c>
       <c r="K822" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L822" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M822" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q822" t="n">
         <v>20</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K823" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L823" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M823" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q823" t="n">
         <v>20</v>
@@ -59681,20 +59681,20 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="K824" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L824" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M824" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q824" t="n">
         <v>20</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K825" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L825" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M825" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q825" t="n">
         <v>20</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="K826" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L826" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M826" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q826" t="n">
         <v>20</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="K827" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L827" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M827" t="n">
-        <v>4180</v>
+        <v>5000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="Q827" t="n">
         <v>20</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>3100</v>
+        <v>130</v>
       </c>
       <c r="K828" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L828" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M828" t="n">
-        <v>4210</v>
+        <v>3000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="Q828" t="n">
         <v>20</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="K829" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L829" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M829" t="n">
-        <v>3500</v>
+        <v>4180</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="Q829" t="n">
         <v>20</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>500</v>
+        <v>3100</v>
       </c>
       <c r="K830" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L830" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M830" t="n">
-        <v>3500</v>
+        <v>4210</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="Q830" t="n">
         <v>20</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="K831" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L831" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M831" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q831" t="n">
         <v>20</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>4250</v>
+        <v>500</v>
       </c>
       <c r="K832" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L832" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M832" t="n">
-        <v>4841</v>
+        <v>3500</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="Q832" t="n">
         <v>20</v>
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="K833" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L833" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M833" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q833" t="n">
         <v>20</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>1700</v>
+        <v>4250</v>
       </c>
       <c r="K834" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L834" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M834" t="n">
-        <v>4000</v>
+        <v>4841</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="Q834" t="n">
         <v>20</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K835" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L835" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M835" t="n">
-        <v>3150</v>
+        <v>4000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="Q835" t="n">
         <v>20</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="K836" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L836" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M836" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q836" t="n">
         <v>20</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="K837" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L837" t="n">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="M837" t="n">
-        <v>4741</v>
+        <v>3150</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="Q837" t="n">
         <v>20</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K838" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L838" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M838" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q838" t="n">
         <v>20</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="K839" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L839" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M839" t="n">
-        <v>3731</v>
+        <v>4741</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="Q839" t="n">
         <v>20</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K840" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L840" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M840" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q840" t="n">
         <v>20</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>2900</v>
+        <v>1300</v>
       </c>
       <c r="K841" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L841" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M841" t="n">
-        <v>6776</v>
+        <v>3731</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>339</v>
+        <v>187</v>
       </c>
       <c r="Q841" t="n">
         <v>20</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="K842" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L842" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M842" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q842" t="n">
         <v>20</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>500</v>
+        <v>2900</v>
       </c>
       <c r="K843" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L843" t="n">
-        <v>3300</v>
+        <v>7000</v>
       </c>
       <c r="M843" t="n">
-        <v>3138</v>
+        <v>6776</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="Q843" t="n">
         <v>20</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>1540</v>
+        <v>560</v>
       </c>
       <c r="K844" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L844" t="n">
         <v>5000</v>
       </c>
       <c r="M844" t="n">
-        <v>4682</v>
+        <v>5000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="Q844" t="n">
         <v>20</v>
@@ -61193,20 +61193,20 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="K845" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L845" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="M845" t="n">
-        <v>3921</v>
+        <v>3138</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="Q845" t="n">
         <v>20</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61269,7 +61269,7 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>3600</v>
+        <v>1540</v>
       </c>
       <c r="K846" t="n">
         <v>4500</v>
@@ -61278,7 +61278,7 @@
         <v>5000</v>
       </c>
       <c r="M846" t="n">
-        <v>4667</v>
+        <v>4682</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q846" t="n">
         <v>20</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61341,34 +61341,178 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="K847" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="L847" t="n">
         <v>4000</v>
       </c>
       <c r="M847" t="n">
+        <v>3921</v>
+      </c>
+      <c r="N847" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O847" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P847" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q847" t="n">
+        <v>20</v>
+      </c>
+      <c r="R847" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>6</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D848" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E848" t="n">
+        <v>13</v>
+      </c>
+      <c r="F848" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G848" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J848" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K848" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L848" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M848" t="n">
+        <v>4667</v>
+      </c>
+      <c r="N848" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O848" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P848" t="n">
+        <v>233</v>
+      </c>
+      <c r="Q848" t="n">
+        <v>20</v>
+      </c>
+      <c r="R848" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>6</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D849" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E849" t="n">
+        <v>13</v>
+      </c>
+      <c r="F849" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G849" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J849" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K849" t="n">
         <v>4000</v>
       </c>
-      <c r="N847" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O847" t="inlineStr">
+      <c r="L849" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M849" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N849" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O849" t="inlineStr">
         <is>
           <t>Chillán</t>
         </is>
       </c>
-      <c r="P847" t="n">
+      <c r="P849" t="n">
         <v>200</v>
       </c>
-      <c r="Q847" t="n">
-        <v>20</v>
-      </c>
-      <c r="R847" t="inlineStr">
+      <c r="Q849" t="n">
+        <v>20</v>
+      </c>
+      <c r="R849" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R864"/>
+  <dimension ref="A1:R869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54065,20 +54065,20 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="K746" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L746" t="n">
         <v>5000</v>
       </c>
       <c r="M746" t="n">
-        <v>4714</v>
+        <v>5000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q746" t="n">
         <v>20</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54141,16 +54141,16 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>1900</v>
+        <v>1560</v>
       </c>
       <c r="K747" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L747" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M747" t="n">
-        <v>4711</v>
+        <v>8000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>236</v>
+        <v>400</v>
       </c>
       <c r="Q747" t="n">
         <v>20</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54209,20 +54209,20 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>300</v>
+        <v>1730</v>
       </c>
       <c r="K748" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L748" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M748" t="n">
-        <v>4000</v>
+        <v>7783</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="Q748" t="n">
         <v>20</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54285,16 +54285,16 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K749" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L749" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M749" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q749" t="n">
         <v>20</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54353,20 +54353,20 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="K750" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L750" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M750" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54375,11 +54375,11 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="Q750" t="n">
         <v>20</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54425,20 +54425,20 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>220</v>
+        <v>2100</v>
       </c>
       <c r="K751" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L751" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M751" t="n">
-        <v>3500</v>
+        <v>4714</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54447,11 +54447,11 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="Q751" t="n">
         <v>20</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54510,7 +54510,7 @@
         <v>5000</v>
       </c>
       <c r="M752" t="n">
-        <v>4816</v>
+        <v>4711</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q752" t="n">
         <v>20</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54569,20 +54569,20 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>2900</v>
+        <v>300</v>
       </c>
       <c r="K753" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L753" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M753" t="n">
-        <v>4690</v>
+        <v>4000</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="Q753" t="n">
         <v>20</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54663,7 +54663,7 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P754" t="n">
@@ -54713,20 +54713,20 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K755" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L755" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M755" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q755" t="n">
         <v>20</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54789,7 +54789,7 @@
         </is>
       </c>
       <c r="J756" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="K756" t="n">
         <v>3500</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54861,7 +54861,7 @@
         </is>
       </c>
       <c r="J757" t="n">
-        <v>3170</v>
+        <v>1900</v>
       </c>
       <c r="K757" t="n">
         <v>4500</v>
@@ -54870,7 +54870,7 @@
         <v>5000</v>
       </c>
       <c r="M757" t="n">
-        <v>4705</v>
+        <v>4816</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54883,7 +54883,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q757" t="n">
         <v>20</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54933,7 +54933,7 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K758" t="n">
         <v>4500</v>
@@ -54942,7 +54942,7 @@
         <v>5000</v>
       </c>
       <c r="M758" t="n">
-        <v>4704</v>
+        <v>4690</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q758" t="n">
         <v>20</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55005,7 +55005,7 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K759" t="n">
         <v>4000</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55077,7 +55077,7 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="K760" t="n">
         <v>4000</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55145,20 +55145,20 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="K761" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L761" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M761" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="Q761" t="n">
         <v>20</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55221,16 +55221,16 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>970</v>
+        <v>3170</v>
       </c>
       <c r="K762" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L762" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M762" t="n">
-        <v>6000</v>
+        <v>4705</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="Q762" t="n">
         <v>20</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55289,20 +55289,20 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>340</v>
+        <v>2800</v>
       </c>
       <c r="K763" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L763" t="n">
         <v>5000</v>
       </c>
       <c r="M763" t="n">
-        <v>5000</v>
+        <v>4704</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="Q763" t="n">
         <v>20</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55365,16 +55365,16 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K764" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L764" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M764" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q764" t="n">
         <v>20</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K765" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L765" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M765" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q765" t="n">
         <v>20</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55509,16 +55509,16 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>2870</v>
+        <v>880</v>
       </c>
       <c r="K766" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L766" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M766" t="n">
-        <v>4721</v>
+        <v>6000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="Q766" t="n">
         <v>20</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55577,20 +55577,20 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>860</v>
+        <v>970</v>
       </c>
       <c r="K767" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L767" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M767" t="n">
-        <v>3721</v>
+        <v>6000</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="Q767" t="n">
         <v>20</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K768" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L768" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M768" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55675,7 +55675,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q768" t="n">
         <v>20</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55721,20 +55721,20 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K769" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L769" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M769" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q769" t="n">
         <v>20</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55793,20 +55793,20 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="K770" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L770" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M770" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q770" t="n">
         <v>20</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>590</v>
+        <v>2870</v>
       </c>
       <c r="K771" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L771" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M771" t="n">
-        <v>6000</v>
+        <v>4721</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="Q771" t="n">
         <v>20</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55941,16 +55941,16 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>340</v>
+        <v>860</v>
       </c>
       <c r="K772" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L772" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M772" t="n">
-        <v>5000</v>
+        <v>3721</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="Q772" t="n">
         <v>20</v>
@@ -56009,20 +56009,20 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="K773" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L773" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M773" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q773" t="n">
         <v>20</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56085,16 +56085,16 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="K774" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L774" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M774" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56107,7 +56107,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="Q774" t="n">
         <v>20</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56157,16 +56157,16 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>2000</v>
+        <v>550</v>
       </c>
       <c r="K775" t="n">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="L775" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M775" t="n">
-        <v>1900</v>
+        <v>6000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="Q775" t="n">
         <v>20</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56229,16 +56229,16 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>1300</v>
+        <v>590</v>
       </c>
       <c r="K776" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L776" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M776" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q776" t="n">
         <v>20</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56301,16 +56301,16 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>1100</v>
+        <v>340</v>
       </c>
       <c r="K777" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L777" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M777" t="n">
-        <v>3727</v>
+        <v>5000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56323,7 +56323,7 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="Q777" t="n">
         <v>20</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56373,16 +56373,16 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="K778" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L778" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M778" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q778" t="n">
         <v>20</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56445,7 +56445,7 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="K779" t="n">
         <v>3000</v>
@@ -56463,7 +56463,7 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P779" t="n">
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56517,16 +56517,16 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K780" t="n">
+        <v>500</v>
+      </c>
+      <c r="L780" t="n">
         <v>4500</v>
       </c>
-      <c r="L780" t="n">
-        <v>5000</v>
-      </c>
       <c r="M780" t="n">
-        <v>4833</v>
+        <v>1900</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56539,7 +56539,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="Q780" t="n">
         <v>20</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56585,20 +56585,20 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K781" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L781" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M781" t="n">
-        <v>3786</v>
+        <v>5000</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="Q781" t="n">
         <v>20</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56657,20 +56657,20 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K782" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L782" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M782" t="n">
-        <v>3000</v>
+        <v>3727</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="Q782" t="n">
         <v>20</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56729,20 +56729,20 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>3300</v>
+        <v>600</v>
       </c>
       <c r="K783" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L783" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M783" t="n">
-        <v>4485</v>
+        <v>3500</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="Q783" t="n">
         <v>20</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K784" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L784" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M784" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q784" t="n">
         <v>20</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56873,20 +56873,20 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>1300</v>
+        <v>2100</v>
       </c>
       <c r="K785" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L785" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M785" t="n">
-        <v>3731</v>
+        <v>4833</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="Q785" t="n">
         <v>20</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56949,16 +56949,16 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K786" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L786" t="n">
         <v>4000</v>
       </c>
       <c r="M786" t="n">
-        <v>4000</v>
+        <v>3786</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q786" t="n">
         <v>20</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57017,20 +57017,20 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>790</v>
+        <v>500</v>
       </c>
       <c r="K787" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L787" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M787" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q787" t="n">
         <v>20</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57093,16 +57093,16 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>880</v>
+        <v>3300</v>
       </c>
       <c r="K788" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L788" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M788" t="n">
-        <v>6000</v>
+        <v>4485</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="Q788" t="n">
         <v>20</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57165,16 +57165,16 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>610</v>
+        <v>800</v>
       </c>
       <c r="K789" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L789" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M789" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q789" t="n">
         <v>20</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57237,16 +57237,16 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>340</v>
+        <v>1300</v>
       </c>
       <c r="K790" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L790" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M790" t="n">
-        <v>5000</v>
+        <v>3731</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="Q790" t="n">
         <v>20</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57309,16 +57309,16 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K791" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L791" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M791" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q791" t="n">
         <v>20</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="K792" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L792" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M792" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q792" t="n">
         <v>20</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57453,16 +57453,16 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>2300</v>
+        <v>880</v>
       </c>
       <c r="K793" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L793" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M793" t="n">
-        <v>4826</v>
+        <v>6000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57471,11 +57471,11 @@
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="Q793" t="n">
         <v>20</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57525,16 +57525,16 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>2600</v>
+        <v>610</v>
       </c>
       <c r="K794" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L794" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M794" t="n">
-        <v>4462</v>
+        <v>6000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="Q794" t="n">
         <v>20</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57597,16 +57597,16 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K795" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L795" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M795" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57619,7 +57619,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q795" t="n">
         <v>20</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57669,16 +57669,16 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>1300</v>
+        <v>340</v>
       </c>
       <c r="K796" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L796" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M796" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q796" t="n">
         <v>20</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>2100</v>
+        <v>340</v>
       </c>
       <c r="K797" t="n">
         <v>5000</v>
       </c>
       <c r="L797" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M797" t="n">
-        <v>5155</v>
+        <v>5000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q797" t="n">
         <v>20</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>680</v>
+        <v>2300</v>
       </c>
       <c r="K798" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L798" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M798" t="n">
-        <v>4000</v>
+        <v>4826</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="Q798" t="n">
         <v>20</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="K799" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L799" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M799" t="n">
-        <v>3000</v>
+        <v>4462</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="Q799" t="n">
         <v>20</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K800" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L800" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M800" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q800" t="n">
         <v>20</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="K801" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L801" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M801" t="n">
-        <v>4731</v>
+        <v>3000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58047,11 +58047,11 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="Q801" t="n">
         <v>20</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58101,16 +58101,16 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="K802" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L802" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M802" t="n">
-        <v>4842</v>
+        <v>5155</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="Q802" t="n">
         <v>20</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>1300</v>
+        <v>680</v>
       </c>
       <c r="K803" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L803" t="n">
         <v>4000</v>
       </c>
       <c r="M803" t="n">
-        <v>3769</v>
+        <v>4000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="Q803" t="n">
         <v>20</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K804" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L804" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M804" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="Q804" t="n">
         <v>20</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58317,16 +58317,16 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K805" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L805" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M805" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q805" t="n">
         <v>20</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>250</v>
+        <v>2600</v>
       </c>
       <c r="K806" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L806" t="n">
         <v>5000</v>
       </c>
       <c r="M806" t="n">
-        <v>5000</v>
+        <v>4731</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="Q806" t="n">
         <v>20</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58461,16 +58461,16 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>610</v>
+        <v>1900</v>
       </c>
       <c r="K807" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L807" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M807" t="n">
-        <v>7000</v>
+        <v>4842</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="Q807" t="n">
         <v>20</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>790</v>
+        <v>1300</v>
       </c>
       <c r="K808" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L808" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M808" t="n">
-        <v>7000</v>
+        <v>3769</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="Q808" t="n">
         <v>20</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58605,16 +58605,16 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
       <c r="K809" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L809" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M809" t="n">
-        <v>6000</v>
+        <v>3750</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="Q809" t="n">
         <v>20</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K810" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L810" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M810" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q810" t="n">
         <v>20</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58749,16 +58749,16 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K811" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L811" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M811" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q811" t="n">
         <v>20</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>420</v>
+        <v>610</v>
       </c>
       <c r="K812" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L812" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M812" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="Q812" t="n">
         <v>20</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58893,16 +58893,16 @@
         </is>
       </c>
       <c r="J813" t="n">
-        <v>610</v>
+        <v>790</v>
       </c>
       <c r="K813" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L813" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M813" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q813" t="n">
         <v>20</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58961,11 +58961,11 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>650</v>
+        <v>340</v>
       </c>
       <c r="K814" t="n">
         <v>6000</v>
@@ -58983,7 +58983,7 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P814" t="n">
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59037,16 +59037,16 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K815" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L815" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M815" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q815" t="n">
         <v>20</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="K816" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L816" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M816" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q816" t="n">
         <v>20</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59181,16 +59181,16 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="K817" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L817" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M817" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="Q817" t="n">
         <v>20</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>2700</v>
+        <v>610</v>
       </c>
       <c r="K818" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L818" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M818" t="n">
-        <v>4759</v>
+        <v>6000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="Q818" t="n">
         <v>20</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59321,20 +59321,20 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="K819" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L819" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M819" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q819" t="n">
         <v>20</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K820" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L820" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M820" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q820" t="n">
         <v>20</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K821" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L821" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M821" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q821" t="n">
         <v>20</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="K822" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L822" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M822" t="n">
-        <v>4325</v>
+        <v>3500</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="Q822" t="n">
         <v>20</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59613,16 +59613,16 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>1350</v>
+        <v>2700</v>
       </c>
       <c r="K823" t="n">
         <v>4500</v>
       </c>
       <c r="L823" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M823" t="n">
-        <v>4500</v>
+        <v>4759</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="Q823" t="n">
         <v>20</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="K824" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L824" t="n">
         <v>4000</v>
       </c>
       <c r="M824" t="n">
-        <v>3938</v>
+        <v>4000</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q824" t="n">
         <v>20</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="K825" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L825" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M825" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q825" t="n">
         <v>20</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="K826" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L826" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M826" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="Q826" t="n">
         <v>20</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59901,16 +59901,16 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="K827" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L827" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M827" t="n">
-        <v>6000</v>
+        <v>4325</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>300</v>
+        <v>216</v>
       </c>
       <c r="Q827" t="n">
         <v>20</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>1100</v>
+        <v>1350</v>
       </c>
       <c r="K828" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L828" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M828" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q828" t="n">
         <v>20</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60045,16 +60045,16 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="K829" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L829" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M829" t="n">
-        <v>5000</v>
+        <v>3938</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="Q829" t="n">
         <v>20</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="K830" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L830" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M830" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="Q830" t="n">
         <v>20</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="K831" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L831" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M831" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q831" t="n">
         <v>20</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K832" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L832" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M832" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q832" t="n">
         <v>20</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K833" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L833" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M833" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q833" t="n">
         <v>20</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K834" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L834" t="n">
         <v>5000</v>
       </c>
       <c r="M834" t="n">
-        <v>4735</v>
+        <v>5000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="Q834" t="n">
         <v>20</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60477,16 +60477,16 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="K835" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L835" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M835" t="n">
-        <v>5462</v>
+        <v>5500</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q835" t="n">
         <v>20</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60549,16 +60549,16 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="K836" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L836" t="n">
         <v>5000</v>
       </c>
       <c r="M836" t="n">
-        <v>4533</v>
+        <v>5000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="Q836" t="n">
         <v>20</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>770</v>
+        <v>600</v>
       </c>
       <c r="K837" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L837" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M837" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q837" t="n">
         <v>20</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60693,7 +60693,7 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K838" t="n">
         <v>4000</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="K839" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L839" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M839" t="n">
-        <v>6000</v>
+        <v>4735</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="Q839" t="n">
         <v>20</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60840,13 +60840,13 @@
         <v>1300</v>
       </c>
       <c r="K840" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L840" t="n">
         <v>6000</v>
       </c>
       <c r="M840" t="n">
-        <v>6000</v>
+        <v>5462</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60855,11 +60855,11 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="Q840" t="n">
         <v>20</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="K841" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L841" t="n">
         <v>5000</v>
       </c>
       <c r="M841" t="n">
-        <v>5000</v>
+        <v>4533</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="Q841" t="n">
         <v>20</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>500</v>
+        <v>770</v>
       </c>
       <c r="K842" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L842" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M842" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q842" t="n">
         <v>20</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>130</v>
+        <v>800</v>
       </c>
       <c r="K843" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L843" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M843" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q843" t="n">
         <v>20</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K844" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L844" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M844" t="n">
-        <v>4180</v>
+        <v>6000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="Q844" t="n">
         <v>20</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>3100</v>
+        <v>1300</v>
       </c>
       <c r="K845" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L845" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M845" t="n">
-        <v>4210</v>
+        <v>6000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61215,11 +61215,11 @@
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="Q845" t="n">
         <v>20</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K846" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L846" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M846" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q846" t="n">
         <v>20</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61344,13 +61344,13 @@
         <v>500</v>
       </c>
       <c r="K847" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L847" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M847" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q847" t="n">
         <v>20</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>2800</v>
+        <v>130</v>
       </c>
       <c r="K848" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L848" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M848" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q848" t="n">
         <v>20</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>4250</v>
+        <v>2500</v>
       </c>
       <c r="K849" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L849" t="n">
         <v>4500</v>
       </c>
-      <c r="L849" t="n">
-        <v>5000</v>
-      </c>
       <c r="M849" t="n">
-        <v>4841</v>
+        <v>4180</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61503,11 +61503,11 @@
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="Q849" t="n">
         <v>20</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>1200</v>
+        <v>3100</v>
       </c>
       <c r="K850" t="n">
         <v>4000</v>
       </c>
       <c r="L850" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M850" t="n">
-        <v>4000</v>
+        <v>4210</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q850" t="n">
         <v>20</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K851" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L851" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M851" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q851" t="n">
         <v>20</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K852" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L852" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="M852" t="n">
-        <v>3150</v>
+        <v>3500</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Q852" t="n">
         <v>20</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>400</v>
+        <v>2800</v>
       </c>
       <c r="K853" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L853" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M853" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q853" t="n">
         <v>20</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61845,7 +61845,7 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>2700</v>
+        <v>4250</v>
       </c>
       <c r="K854" t="n">
         <v>4500</v>
@@ -61854,7 +61854,7 @@
         <v>5000</v>
       </c>
       <c r="M854" t="n">
-        <v>4741</v>
+        <v>4841</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q854" t="n">
         <v>20</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K855" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L855" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M855" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q855" t="n">
         <v>20</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="K856" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L856" t="n">
         <v>4000</v>
       </c>
       <c r="M856" t="n">
-        <v>3731</v>
+        <v>4000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Q856" t="n">
         <v>20</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K857" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L857" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="M857" t="n">
-        <v>4000</v>
+        <v>3150</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62079,11 +62079,11 @@
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="Q857" t="n">
         <v>20</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>2900</v>
+        <v>400</v>
       </c>
       <c r="K858" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L858" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M858" t="n">
-        <v>6776</v>
+        <v>3000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>339</v>
+        <v>150</v>
       </c>
       <c r="Q858" t="n">
         <v>20</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>560</v>
+        <v>2700</v>
       </c>
       <c r="K859" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L859" t="n">
         <v>5000</v>
       </c>
       <c r="M859" t="n">
-        <v>5000</v>
+        <v>4741</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="Q859" t="n">
         <v>20</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K860" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L860" t="n">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="M860" t="n">
-        <v>3138</v>
+        <v>5000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="Q860" t="n">
         <v>20</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>1540</v>
+        <v>1300</v>
       </c>
       <c r="K861" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L861" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M861" t="n">
-        <v>4682</v>
+        <v>3731</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="Q861" t="n">
         <v>20</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="K862" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L862" t="n">
         <v>4000</v>
       </c>
       <c r="M862" t="n">
-        <v>3921</v>
+        <v>4000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q862" t="n">
         <v>20</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>3600</v>
+        <v>2900</v>
       </c>
       <c r="K863" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L863" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M863" t="n">
-        <v>4667</v>
+        <v>6776</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>233</v>
+        <v>339</v>
       </c>
       <c r="Q863" t="n">
         <v>20</v>
@@ -62541,58 +62541,418 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E864" t="n">
+        <v>13</v>
+      </c>
+      <c r="F864" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I864" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J864" t="n">
+        <v>560</v>
+      </c>
+      <c r="K864" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L864" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M864" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N864" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O864" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P864" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q864" t="n">
+        <v>20</v>
+      </c>
+      <c r="R864" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>6</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D865" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E865" t="n">
+        <v>13</v>
+      </c>
+      <c r="F865" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="J865" t="n">
+        <v>500</v>
+      </c>
+      <c r="K865" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L865" t="n">
+        <v>3300</v>
+      </c>
+      <c r="M865" t="n">
+        <v>3138</v>
+      </c>
+      <c r="N865" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O865" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P865" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q865" t="n">
+        <v>20</v>
+      </c>
+      <c r="R865" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>6</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D866" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E866" t="n">
+        <v>13</v>
+      </c>
+      <c r="F866" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J866" t="n">
+        <v>1540</v>
+      </c>
+      <c r="K866" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L866" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M866" t="n">
+        <v>4682</v>
+      </c>
+      <c r="N866" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O866" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P866" t="n">
+        <v>234</v>
+      </c>
+      <c r="Q866" t="n">
+        <v>20</v>
+      </c>
+      <c r="R866" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>6</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D867" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E867" t="n">
+        <v>13</v>
+      </c>
+      <c r="F867" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J867" t="n">
+        <v>960</v>
+      </c>
+      <c r="K867" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L867" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M867" t="n">
+        <v>3921</v>
+      </c>
+      <c r="N867" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O867" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P867" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q867" t="n">
+        <v>20</v>
+      </c>
+      <c r="R867" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>6</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D868" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E864" t="n">
-        <v>13</v>
-      </c>
-      <c r="F864" t="n">
-        <v>100114013</v>
-      </c>
-      <c r="G864" t="inlineStr">
-        <is>
-          <t>Zanahoria</t>
-        </is>
-      </c>
-      <c r="H864" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I864" t="inlineStr">
+      <c r="E868" t="n">
+        <v>13</v>
+      </c>
+      <c r="F868" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J868" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K868" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L868" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M868" t="n">
+        <v>4667</v>
+      </c>
+      <c r="N868" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O868" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P868" t="n">
+        <v>233</v>
+      </c>
+      <c r="Q868" t="n">
+        <v>20</v>
+      </c>
+      <c r="R868" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>6</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D869" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E869" t="n">
+        <v>13</v>
+      </c>
+      <c r="F869" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I869" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J864" t="n">
+      <c r="J869" t="n">
         <v>1200</v>
       </c>
-      <c r="K864" t="n">
+      <c r="K869" t="n">
         <v>4000</v>
       </c>
-      <c r="L864" t="n">
+      <c r="L869" t="n">
         <v>4000</v>
       </c>
-      <c r="M864" t="n">
+      <c r="M869" t="n">
         <v>4000</v>
       </c>
-      <c r="N864" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O864" t="inlineStr">
+      <c r="N869" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O869" t="inlineStr">
         <is>
           <t>Chillán</t>
         </is>
       </c>
-      <c r="P864" t="n">
+      <c r="P869" t="n">
         <v>200</v>
       </c>
-      <c r="Q864" t="n">
-        <v>20</v>
-      </c>
-      <c r="R864" t="inlineStr">
+      <c r="Q869" t="n">
+        <v>20</v>
+      </c>
+      <c r="R869" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R871"/>
+  <dimension ref="A1:R876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53421,16 +53421,16 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="K737" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L737" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M737" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53439,11 +53439,11 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q737" t="n">
         <v>20</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53493,16 +53493,16 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>2300</v>
+        <v>1870</v>
       </c>
       <c r="K738" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L738" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M738" t="n">
-        <v>4174</v>
+        <v>7642</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>209</v>
+        <v>382</v>
       </c>
       <c r="Q738" t="n">
         <v>20</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53561,20 +53561,20 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="K739" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L739" t="n">
-        <v>3800</v>
+        <v>8000</v>
       </c>
       <c r="M739" t="n">
-        <v>3620</v>
+        <v>8000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>181</v>
+        <v>400</v>
       </c>
       <c r="Q739" t="n">
         <v>20</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53633,20 +53633,20 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>2670</v>
+        <v>530</v>
       </c>
       <c r="K740" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L740" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M740" t="n">
-        <v>4225</v>
+        <v>6000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="Q740" t="n">
         <v>20</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="K741" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L741" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M741" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53727,11 +53727,11 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="Q741" t="n">
         <v>20</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="K742" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L742" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M742" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q742" t="n">
         <v>20</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53853,16 +53853,16 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>2580</v>
+        <v>2300</v>
       </c>
       <c r="K743" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L743" t="n">
         <v>4500</v>
       </c>
-      <c r="L743" t="n">
-        <v>5000</v>
-      </c>
       <c r="M743" t="n">
-        <v>4810</v>
+        <v>4174</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="Q743" t="n">
         <v>20</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53921,20 +53921,20 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="K744" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L744" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="M744" t="n">
-        <v>4833</v>
+        <v>3620</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="Q744" t="n">
         <v>20</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53993,20 +53993,20 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>750</v>
+        <v>2670</v>
       </c>
       <c r="K745" t="n">
         <v>4000</v>
       </c>
       <c r="L745" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M745" t="n">
-        <v>4000</v>
+        <v>4225</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q745" t="n">
         <v>20</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54069,7 +54069,7 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K746" t="n">
         <v>3500</v>
@@ -54087,7 +54087,7 @@
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P746" t="n">
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54141,16 +54141,16 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="K747" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L747" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M747" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q747" t="n">
         <v>20</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54213,7 +54213,7 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>2100</v>
+        <v>2580</v>
       </c>
       <c r="K748" t="n">
         <v>4500</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54285,16 +54285,16 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K749" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L749" t="n">
         <v>5000</v>
       </c>
       <c r="M749" t="n">
-        <v>5000</v>
+        <v>4833</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="Q749" t="n">
         <v>20</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54357,7 +54357,7 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="K750" t="n">
         <v>4000</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54429,16 +54429,16 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K751" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L751" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M751" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q751" t="n">
         <v>20</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54501,7 +54501,7 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K752" t="n">
         <v>3000</v>
@@ -54519,7 +54519,7 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P752" t="n">
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54573,16 +54573,16 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>3300</v>
+        <v>2100</v>
       </c>
       <c r="K753" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L753" t="n">
         <v>5000</v>
       </c>
       <c r="M753" t="n">
-        <v>4485</v>
+        <v>4810</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="Q753" t="n">
         <v>20</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54645,7 +54645,7 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K754" t="n">
         <v>5000</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54717,16 +54717,16 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K755" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L755" t="n">
         <v>4000</v>
       </c>
       <c r="M755" t="n">
-        <v>3731</v>
+        <v>4000</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Q755" t="n">
         <v>20</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54857,20 +54857,20 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>2550</v>
+        <v>500</v>
       </c>
       <c r="K757" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L757" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M757" t="n">
-        <v>4745</v>
+        <v>3000</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54879,11 +54879,11 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="Q757" t="n">
         <v>20</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54933,16 +54933,16 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K758" t="n">
         <v>4000</v>
       </c>
       <c r="L758" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M758" t="n">
-        <v>4297</v>
+        <v>4485</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q758" t="n">
         <v>20</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>870</v>
+        <v>800</v>
       </c>
       <c r="K759" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L759" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M759" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q759" t="n">
         <v>20</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55077,16 +55077,16 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K760" t="n">
         <v>3500</v>
       </c>
       <c r="L760" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M760" t="n">
-        <v>3500</v>
+        <v>3731</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55095,11 +55095,11 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Q760" t="n">
         <v>20</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55145,20 +55145,20 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K761" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L761" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M761" t="n">
-        <v>5700</v>
+        <v>4000</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="Q761" t="n">
         <v>20</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55221,16 +55221,16 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>1580</v>
+        <v>2550</v>
       </c>
       <c r="K762" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L762" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M762" t="n">
-        <v>5747</v>
+        <v>4745</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="Q762" t="n">
         <v>20</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55289,20 +55289,20 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>450</v>
+        <v>3200</v>
       </c>
       <c r="K763" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L763" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M763" t="n">
-        <v>5000</v>
+        <v>4297</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="Q763" t="n">
         <v>20</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55365,16 +55365,16 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>450</v>
+        <v>870</v>
       </c>
       <c r="K764" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L764" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M764" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q764" t="n">
         <v>20</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="K765" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L765" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M765" t="n">
-        <v>5536</v>
+        <v>3500</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="Q765" t="n">
         <v>20</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55509,16 +55509,16 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="K766" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L766" t="n">
         <v>6000</v>
       </c>
       <c r="M766" t="n">
-        <v>5333</v>
+        <v>5700</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55527,11 +55527,11 @@
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="Q766" t="n">
         <v>20</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55577,20 +55577,20 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>600</v>
+        <v>1580</v>
       </c>
       <c r="K767" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L767" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M767" t="n">
-        <v>4500</v>
+        <v>5747</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="Q767" t="n">
         <v>20</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55653,16 +55653,16 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K768" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L768" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M768" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q768" t="n">
         <v>20</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55721,20 +55721,20 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K769" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L769" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M769" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q769" t="n">
         <v>20</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55793,20 +55793,20 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="K770" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L770" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M770" t="n">
-        <v>3000</v>
+        <v>5536</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="Q770" t="n">
         <v>20</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K771" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L771" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M771" t="n">
-        <v>4731</v>
+        <v>5333</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="Q771" t="n">
         <v>20</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55937,20 +55937,20 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K772" t="n">
         <v>4500</v>
       </c>
       <c r="L772" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M772" t="n">
-        <v>4842</v>
+        <v>4500</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="Q772" t="n">
         <v>20</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56013,16 +56013,16 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K773" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L773" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M773" t="n">
-        <v>3769</v>
+        <v>4500</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="Q773" t="n">
         <v>20</v>
@@ -56081,20 +56081,20 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K774" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L774" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M774" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="Q774" t="n">
         <v>20</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56157,7 +56157,7 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K775" t="n">
         <v>3000</v>
@@ -56175,7 +56175,7 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P775" t="n">
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="K776" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L776" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M776" t="n">
-        <v>3000</v>
+        <v>4731</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="Q776" t="n">
         <v>20</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56301,7 +56301,7 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="K777" t="n">
         <v>4500</v>
@@ -56310,7 +56310,7 @@
         <v>5000</v>
       </c>
       <c r="M777" t="n">
-        <v>4647</v>
+        <v>4842</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Q777" t="n">
         <v>20</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56369,20 +56369,20 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J778" t="n">
         <v>1300</v>
       </c>
       <c r="K778" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L778" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M778" t="n">
-        <v>5000</v>
+        <v>3769</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56391,11 +56391,11 @@
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="Q778" t="n">
         <v>20</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56445,7 +56445,7 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K779" t="n">
         <v>3500</v>
@@ -56454,7 +56454,7 @@
         <v>4000</v>
       </c>
       <c r="M779" t="n">
-        <v>3818</v>
+        <v>3750</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56463,11 +56463,11 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q779" t="n">
         <v>20</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K780" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L780" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M780" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q780" t="n">
         <v>20</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56589,7 +56589,7 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K781" t="n">
         <v>3000</v>
@@ -56607,7 +56607,7 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P781" t="n">
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56657,20 +56657,20 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K782" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L782" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M782" t="n">
-        <v>3000</v>
+        <v>4647</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="Q782" t="n">
         <v>20</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="K783" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L783" t="n">
         <v>5000</v>
       </c>
       <c r="M783" t="n">
-        <v>4550</v>
+        <v>5000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="Q783" t="n">
         <v>20</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="K784" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L784" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M784" t="n">
-        <v>4710</v>
+        <v>3818</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="Q784" t="n">
         <v>20</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56877,7 +56877,7 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K785" t="n">
         <v>3500</v>
@@ -56895,7 +56895,7 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P785" t="n">
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K786" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L786" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M786" t="n">
-        <v>4824</v>
+        <v>3000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="Q786" t="n">
         <v>20</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57017,20 +57017,20 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>3500</v>
+        <v>600</v>
       </c>
       <c r="K787" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L787" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M787" t="n">
-        <v>4729</v>
+        <v>3000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="Q787" t="n">
         <v>20</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="K788" t="n">
         <v>4000</v>
       </c>
       <c r="L788" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M788" t="n">
-        <v>4000</v>
+        <v>4550</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="Q788" t="n">
         <v>20</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57161,20 +57161,20 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>500</v>
+        <v>3100</v>
       </c>
       <c r="K789" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L789" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M789" t="n">
-        <v>4000</v>
+        <v>4710</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q789" t="n">
         <v>20</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K790" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L790" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M790" t="n">
-        <v>4289</v>
+        <v>3500</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="Q790" t="n">
         <v>20</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="K791" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L791" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M791" t="n">
-        <v>3850</v>
+        <v>4824</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="Q791" t="n">
         <v>20</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>350</v>
+        <v>3500</v>
       </c>
       <c r="K792" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L792" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M792" t="n">
-        <v>3000</v>
+        <v>4729</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="Q792" t="n">
         <v>20</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K793" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L793" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M793" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57471,11 +57471,11 @@
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q793" t="n">
         <v>20</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K794" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L794" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M794" t="n">
-        <v>4773</v>
+        <v>4000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="Q794" t="n">
         <v>20</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57597,16 +57597,16 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="K795" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L795" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M795" t="n">
-        <v>5000</v>
+        <v>4289</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="Q795" t="n">
         <v>20</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57669,16 +57669,16 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="K796" t="n">
         <v>3500</v>
       </c>
       <c r="L796" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M796" t="n">
-        <v>3500</v>
+        <v>3850</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Q796" t="n">
         <v>20</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="K797" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L797" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M797" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q797" t="n">
         <v>20</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57813,16 +57813,16 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="K798" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="L798" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="M798" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="Q798" t="n">
         <v>20</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>150</v>
+        <v>2200</v>
       </c>
       <c r="K799" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L799" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M799" t="n">
-        <v>3000</v>
+        <v>4773</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="Q799" t="n">
         <v>20</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57960,13 +57960,13 @@
         <v>1700</v>
       </c>
       <c r="K800" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L800" t="n">
         <v>5000</v>
       </c>
       <c r="M800" t="n">
-        <v>4735</v>
+        <v>5000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="Q800" t="n">
         <v>20</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K801" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L801" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M801" t="n">
-        <v>4688</v>
+        <v>3500</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58047,11 +58047,11 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="Q801" t="n">
         <v>20</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58101,7 +58101,7 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K802" t="n">
         <v>4000</v>
@@ -58119,7 +58119,7 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P802" t="n">
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K803" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="L803" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="M803" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="Q803" t="n">
         <v>20</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58245,7 +58245,7 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K804" t="n">
         <v>3000</v>
@@ -58263,7 +58263,7 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P804" t="n">
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>180</v>
+        <v>1700</v>
       </c>
       <c r="K805" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L805" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M805" t="n">
-        <v>3000</v>
+        <v>4735</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="Q805" t="n">
         <v>20</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58389,16 +58389,16 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="K806" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L806" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M806" t="n">
-        <v>4204</v>
+        <v>4688</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="Q806" t="n">
         <v>20</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>3100</v>
+        <v>300</v>
       </c>
       <c r="K807" t="n">
         <v>4000</v>
       </c>
       <c r="L807" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M807" t="n">
-        <v>4210</v>
+        <v>4000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q807" t="n">
         <v>20</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58533,16 +58533,16 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K808" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L808" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M808" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q808" t="n">
         <v>20</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K809" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L809" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M809" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q809" t="n">
         <v>20</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58677,16 +58677,16 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K810" t="n">
         <v>3000</v>
       </c>
       <c r="L810" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M810" t="n">
-        <v>3138</v>
+        <v>3000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Q810" t="n">
         <v>20</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58749,16 +58749,16 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>1540</v>
+        <v>2700</v>
       </c>
       <c r="K811" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L811" t="n">
         <v>4500</v>
       </c>
-      <c r="L811" t="n">
-        <v>5000</v>
-      </c>
       <c r="M811" t="n">
-        <v>4682</v>
+        <v>4204</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="Q811" t="n">
         <v>20</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>960</v>
+        <v>3100</v>
       </c>
       <c r="K812" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L812" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M812" t="n">
-        <v>3921</v>
+        <v>4210</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="Q812" t="n">
         <v>20</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K813" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L813" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M813" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q813" t="n">
         <v>20</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="K814" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L814" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M814" t="n">
-        <v>4324</v>
+        <v>3500</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="Q814" t="n">
         <v>20</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="K815" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L815" t="n">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="M815" t="n">
-        <v>4271</v>
+        <v>3138</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="Q815" t="n">
         <v>20</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>200</v>
+        <v>1540</v>
       </c>
       <c r="K816" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L816" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M816" t="n">
-        <v>3500</v>
+        <v>4682</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="Q816" t="n">
         <v>20</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59181,16 +59181,16 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>300</v>
+        <v>960</v>
       </c>
       <c r="K817" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L817" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M817" t="n">
-        <v>3500</v>
+        <v>3921</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="Q817" t="n">
         <v>20</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K818" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L818" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M818" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="Q818" t="n">
         <v>20</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59321,20 +59321,20 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>250</v>
+        <v>1700</v>
       </c>
       <c r="K819" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L819" t="n">
         <v>4500</v>
       </c>
       <c r="M819" t="n">
-        <v>4500</v>
+        <v>4324</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="Q819" t="n">
         <v>20</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>970</v>
+        <v>2400</v>
       </c>
       <c r="K820" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L820" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M820" t="n">
-        <v>5000</v>
+        <v>4271</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="Q820" t="n">
         <v>20</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>790</v>
+        <v>200</v>
       </c>
       <c r="K821" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L821" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M821" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q821" t="n">
         <v>20</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59541,16 +59541,16 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="K822" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L822" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M822" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q822" t="n">
         <v>20</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J823" t="n">
         <v>340</v>
       </c>
       <c r="K823" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L823" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M823" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q823" t="n">
         <v>20</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59681,20 +59681,20 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>2800</v>
+        <v>250</v>
       </c>
       <c r="K824" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L824" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M824" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="Q824" t="n">
         <v>20</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59753,11 +59753,11 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="K825" t="n">
         <v>5000</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59829,16 +59829,16 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>2490</v>
+        <v>790</v>
       </c>
       <c r="K826" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L826" t="n">
         <v>5000</v>
       </c>
       <c r="M826" t="n">
-        <v>4821</v>
+        <v>5000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q826" t="n">
         <v>20</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>2000</v>
+        <v>430</v>
       </c>
       <c r="K827" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L827" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M827" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q827" t="n">
         <v>20</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59973,7 +59973,7 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>750</v>
+        <v>340</v>
       </c>
       <c r="K828" t="n">
         <v>4000</v>
@@ -59991,7 +59991,7 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P828" t="n">
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="K829" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L829" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M829" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q829" t="n">
         <v>20</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="K830" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L830" t="n">
         <v>5000</v>
       </c>
       <c r="M830" t="n">
-        <v>4714</v>
+        <v>5000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="Q830" t="n">
         <v>20</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60189,7 +60189,7 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>1900</v>
+        <v>2490</v>
       </c>
       <c r="K831" t="n">
         <v>4500</v>
@@ -60198,7 +60198,7 @@
         <v>5000</v>
       </c>
       <c r="M831" t="n">
-        <v>4711</v>
+        <v>4821</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q831" t="n">
         <v>20</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="K832" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L832" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M832" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q832" t="n">
         <v>20</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60333,7 +60333,7 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="K833" t="n">
         <v>4000</v>
@@ -60351,7 +60351,7 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P833" t="n">
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K834" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L834" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M834" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="Q834" t="n">
         <v>20</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>340</v>
+        <v>2100</v>
       </c>
       <c r="K835" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L835" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M835" t="n">
-        <v>5500</v>
+        <v>4714</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="Q835" t="n">
         <v>20</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60549,16 +60549,16 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>700</v>
+        <v>1900</v>
       </c>
       <c r="K836" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L836" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M836" t="n">
-        <v>7000</v>
+        <v>4711</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>350</v>
+        <v>236</v>
       </c>
       <c r="Q836" t="n">
         <v>20</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>970</v>
+        <v>300</v>
       </c>
       <c r="K837" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L837" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M837" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q837" t="n">
         <v>20</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60693,16 +60693,16 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K838" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L838" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M838" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60711,11 +60711,11 @@
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q838" t="n">
         <v>20</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="K839" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L839" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M839" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60783,11 +60783,11 @@
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q839" t="n">
         <v>20</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>2100</v>
+        <v>340</v>
       </c>
       <c r="K840" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L840" t="n">
         <v>5500</v>
       </c>
       <c r="M840" t="n">
-        <v>5155</v>
+        <v>5500</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q840" t="n">
         <v>20</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="K841" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L841" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M841" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q841" t="n">
         <v>20</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60977,33 +60977,33 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J842" t="n">
+        <v>970</v>
+      </c>
+      <c r="K842" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L842" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M842" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N842" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O842" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P842" t="n">
         <v>350</v>
-      </c>
-      <c r="K842" t="n">
-        <v>4500</v>
-      </c>
-      <c r="L842" t="n">
-        <v>4500</v>
-      </c>
-      <c r="M842" t="n">
-        <v>4500</v>
-      </c>
-      <c r="N842" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O842" t="inlineStr">
-        <is>
-          <t>Chillán</t>
-        </is>
-      </c>
-      <c r="P842" t="n">
-        <v>225</v>
       </c>
       <c r="Q842" t="n">
         <v>20</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K843" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L843" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M843" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q843" t="n">
         <v>20</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="K844" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L844" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M844" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q844" t="n">
         <v>20</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="K845" t="n">
         <v>5000</v>
       </c>
       <c r="L845" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M845" t="n">
-        <v>5000</v>
+        <v>5155</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q845" t="n">
         <v>20</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61269,7 +61269,7 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="K846" t="n">
         <v>4000</v>
@@ -61287,7 +61287,7 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P846" t="n">
@@ -61337,20 +61337,20 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="K847" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L847" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M847" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q847" t="n">
         <v>20</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K848" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L848" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M848" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="Q848" t="n">
         <v>20</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>3170</v>
+        <v>610</v>
       </c>
       <c r="K849" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L849" t="n">
         <v>5000</v>
       </c>
       <c r="M849" t="n">
-        <v>4705</v>
+        <v>5000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Q849" t="n">
         <v>20</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="K850" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L850" t="n">
         <v>5000</v>
       </c>
       <c r="M850" t="n">
-        <v>4704</v>
+        <v>5000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Q850" t="n">
         <v>20</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61629,7 +61629,7 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K851" t="n">
         <v>4000</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61701,7 +61701,7 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="K852" t="n">
         <v>4000</v>
@@ -61719,7 +61719,7 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P852" t="n">
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K853" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L853" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M853" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="Q853" t="n">
         <v>20</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>1900</v>
+        <v>3170</v>
       </c>
       <c r="K854" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L854" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M854" t="n">
-        <v>4289</v>
+        <v>4705</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="Q854" t="n">
         <v>20</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>150</v>
+        <v>2800</v>
       </c>
       <c r="K855" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L855" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M855" t="n">
-        <v>3000</v>
+        <v>4704</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="Q855" t="n">
         <v>20</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K856" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L856" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M856" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q856" t="n">
         <v>20</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="K857" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L857" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M857" t="n">
-        <v>4714</v>
+        <v>4000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62079,11 +62079,11 @@
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="Q857" t="n">
         <v>20</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K858" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L858" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M858" t="n">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="Q858" t="n">
         <v>20</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="K859" t="n">
         <v>4000</v>
       </c>
       <c r="L859" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M859" t="n">
-        <v>4000</v>
+        <v>4289</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="Q859" t="n">
         <v>20</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="K860" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L860" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M860" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q860" t="n">
         <v>20</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K861" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L861" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M861" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q861" t="n">
         <v>20</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="K862" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L862" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M862" t="n">
-        <v>3500</v>
+        <v>4714</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="Q862" t="n">
         <v>20</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="K863" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L863" t="n">
         <v>5000</v>
       </c>
       <c r="M863" t="n">
-        <v>4816</v>
+        <v>5000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q863" t="n">
         <v>20</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K864" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L864" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M864" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q864" t="n">
         <v>20</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K865" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L865" t="n">
         <v>4000</v>
       </c>
       <c r="M865" t="n">
-        <v>3773</v>
+        <v>4000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q865" t="n">
         <v>20</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J866" t="n">
         <v>600</v>
       </c>
       <c r="K866" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L866" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M866" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q866" t="n">
         <v>20</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62781,7 +62781,7 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K867" t="n">
         <v>3500</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>2450</v>
+        <v>1900</v>
       </c>
       <c r="K868" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L868" t="n">
         <v>5000</v>
       </c>
-      <c r="L868" t="n">
-        <v>5500</v>
-      </c>
       <c r="M868" t="n">
-        <v>5224</v>
+        <v>4816</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="Q868" t="n">
         <v>20</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62925,7 +62925,7 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K869" t="n">
         <v>5000</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>380</v>
+        <v>1100</v>
       </c>
       <c r="K870" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L870" t="n">
         <v>4000</v>
       </c>
       <c r="M870" t="n">
-        <v>4000</v>
+        <v>3773</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q870" t="n">
         <v>20</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63069,7 +63069,7 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K871" t="n">
         <v>4000</v>
@@ -63097,6 +63097,366 @@
         <v>20</v>
       </c>
       <c r="R871" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>6</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D872" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E872" t="n">
+        <v>13</v>
+      </c>
+      <c r="F872" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="J872" t="n">
+        <v>300</v>
+      </c>
+      <c r="K872" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L872" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M872" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N872" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O872" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P872" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>20</v>
+      </c>
+      <c r="R872" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>6</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D873" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E873" t="n">
+        <v>13</v>
+      </c>
+      <c r="F873" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J873" t="n">
+        <v>2450</v>
+      </c>
+      <c r="K873" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L873" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M873" t="n">
+        <v>5224</v>
+      </c>
+      <c r="N873" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O873" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P873" t="n">
+        <v>261</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>20</v>
+      </c>
+      <c r="R873" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>6</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D874" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E874" t="n">
+        <v>13</v>
+      </c>
+      <c r="F874" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J874" t="n">
+        <v>900</v>
+      </c>
+      <c r="K874" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L874" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M874" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N874" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O874" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P874" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q874" t="n">
+        <v>20</v>
+      </c>
+      <c r="R874" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>6</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D875" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E875" t="n">
+        <v>13</v>
+      </c>
+      <c r="F875" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J875" t="n">
+        <v>380</v>
+      </c>
+      <c r="K875" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L875" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M875" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N875" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O875" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P875" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>20</v>
+      </c>
+      <c r="R875" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>6</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D876" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E876" t="n">
+        <v>13</v>
+      </c>
+      <c r="F876" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J876" t="n">
+        <v>400</v>
+      </c>
+      <c r="K876" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L876" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M876" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N876" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O876" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P876" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>20</v>
+      </c>
+      <c r="R876" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R907"/>
+  <dimension ref="A1:R909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57741,16 +57741,16 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="K797" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L797" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M797" t="n">
-        <v>5700</v>
+        <v>7429</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="Q797" t="n">
         <v>20</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>1580</v>
+        <v>550</v>
       </c>
       <c r="K798" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L798" t="n">
         <v>6000</v>
       </c>
       <c r="M798" t="n">
-        <v>5747</v>
+        <v>6000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="Q798" t="n">
         <v>20</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>450</v>
+        <v>1500</v>
       </c>
       <c r="K799" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L799" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M799" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="Q799" t="n">
         <v>20</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>450</v>
+        <v>1580</v>
       </c>
       <c r="K800" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L800" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M800" t="n">
-        <v>5000</v>
+        <v>5747</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="Q800" t="n">
         <v>20</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>2800</v>
+        <v>450</v>
       </c>
       <c r="K801" t="n">
         <v>5000</v>
       </c>
       <c r="L801" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M801" t="n">
-        <v>5536</v>
+        <v>5000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="Q801" t="n">
         <v>20</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>2700</v>
+        <v>450</v>
       </c>
       <c r="K802" t="n">
         <v>5000</v>
       </c>
       <c r="L802" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M802" t="n">
-        <v>5333</v>
+        <v>5000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q802" t="n">
         <v>20</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="K803" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L803" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M803" t="n">
-        <v>4500</v>
+        <v>5536</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="Q803" t="n">
         <v>20</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="K804" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L804" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M804" t="n">
-        <v>4500</v>
+        <v>5333</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="Q804" t="n">
         <v>20</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K805" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L805" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M805" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="Q805" t="n">
         <v>20</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K806" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L806" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M806" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="Q806" t="n">
         <v>20</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="K807" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L807" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M807" t="n">
-        <v>4731</v>
+        <v>3000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="Q807" t="n">
         <v>20</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K808" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L808" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M808" t="n">
-        <v>4842</v>
+        <v>3000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="Q808" t="n">
         <v>20</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="K809" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L809" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M809" t="n">
-        <v>3769</v>
+        <v>4731</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="Q809" t="n">
         <v>20</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K810" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L810" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M810" t="n">
-        <v>3750</v>
+        <v>4842</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="Q810" t="n">
         <v>20</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K811" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L811" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M811" t="n">
-        <v>3000</v>
+        <v>3769</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q811" t="n">
         <v>20</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K812" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L812" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M812" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q812" t="n">
         <v>20</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K813" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L813" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M813" t="n">
-        <v>4647</v>
+        <v>3000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="Q813" t="n">
         <v>20</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K814" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L814" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M814" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q814" t="n">
         <v>20</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K815" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L815" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M815" t="n">
-        <v>3818</v>
+        <v>4647</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="Q815" t="n">
         <v>20</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="K816" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L816" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M816" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q816" t="n">
         <v>20</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K817" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L817" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M817" t="n">
-        <v>3000</v>
+        <v>3818</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="Q817" t="n">
         <v>20</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K818" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L818" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M818" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q818" t="n">
         <v>20</v>
@@ -59321,20 +59321,20 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J819" t="n">
+        <v>300</v>
+      </c>
+      <c r="K819" t="n">
         <v>3000</v>
       </c>
-      <c r="K819" t="n">
-        <v>4000</v>
-      </c>
       <c r="L819" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M819" t="n">
-        <v>4550</v>
+        <v>3000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="Q819" t="n">
         <v>20</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>3100</v>
+        <v>600</v>
       </c>
       <c r="K820" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L820" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M820" t="n">
-        <v>4710</v>
+        <v>3000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="Q820" t="n">
         <v>20</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="K821" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L821" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M821" t="n">
-        <v>3500</v>
+        <v>4550</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="Q821" t="n">
         <v>20</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59541,7 +59541,7 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>1700</v>
+        <v>3100</v>
       </c>
       <c r="K822" t="n">
         <v>4500</v>
@@ -59550,7 +59550,7 @@
         <v>5000</v>
       </c>
       <c r="M822" t="n">
-        <v>4824</v>
+        <v>4710</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q822" t="n">
         <v>20</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J823" t="n">
+        <v>500</v>
+      </c>
+      <c r="K823" t="n">
         <v>3500</v>
       </c>
-      <c r="K823" t="n">
-        <v>4500</v>
-      </c>
       <c r="L823" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M823" t="n">
-        <v>4729</v>
+        <v>3500</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="Q823" t="n">
         <v>20</v>
@@ -59681,20 +59681,20 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K824" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L824" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M824" t="n">
-        <v>4000</v>
+        <v>4824</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="Q824" t="n">
         <v>20</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="K825" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L825" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M825" t="n">
-        <v>4000</v>
+        <v>4729</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q825" t="n">
         <v>20</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K826" t="n">
         <v>4000</v>
       </c>
       <c r="L826" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M826" t="n">
-        <v>4289</v>
+        <v>4000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="Q826" t="n">
         <v>20</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59901,16 +59901,16 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K827" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L827" t="n">
         <v>4000</v>
       </c>
       <c r="M827" t="n">
-        <v>3850</v>
+        <v>4000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q827" t="n">
         <v>20</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>350</v>
+        <v>1900</v>
       </c>
       <c r="K828" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L828" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M828" t="n">
-        <v>3000</v>
+        <v>4289</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="Q828" t="n">
         <v>20</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K829" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L829" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M829" t="n">
-        <v>3000</v>
+        <v>3850</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="Q829" t="n">
         <v>20</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>2200</v>
+        <v>350</v>
       </c>
       <c r="K830" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L830" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M830" t="n">
-        <v>4773</v>
+        <v>3000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="Q830" t="n">
         <v>20</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K831" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L831" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M831" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q831" t="n">
         <v>20</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="K832" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L832" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M832" t="n">
-        <v>3500</v>
+        <v>4773</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="Q832" t="n">
         <v>20</v>
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K833" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L833" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M833" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q833" t="n">
         <v>20</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="K834" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="L834" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="M834" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="Q834" t="n">
         <v>20</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="K835" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L835" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M835" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q835" t="n">
         <v>20</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>1700</v>
+        <v>120</v>
       </c>
       <c r="K836" t="n">
-        <v>4500</v>
+        <v>300</v>
       </c>
       <c r="L836" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="M836" t="n">
-        <v>4735</v>
+        <v>300</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="Q836" t="n">
         <v>20</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>1600</v>
+        <v>150</v>
       </c>
       <c r="K837" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L837" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M837" t="n">
-        <v>4688</v>
+        <v>3000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="Q837" t="n">
         <v>20</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K838" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L838" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M838" t="n">
-        <v>4000</v>
+        <v>4735</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="Q838" t="n">
         <v>20</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="K839" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L839" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M839" t="n">
-        <v>4000</v>
+        <v>4688</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="Q839" t="n">
         <v>20</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K840" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L840" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M840" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q840" t="n">
         <v>20</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K841" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L841" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M841" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q841" t="n">
         <v>20</v>
@@ -60977,20 +60977,20 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>2700</v>
+        <v>110</v>
       </c>
       <c r="K842" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L842" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M842" t="n">
-        <v>4204</v>
+        <v>3000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="Q842" t="n">
         <v>20</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>3100</v>
+        <v>180</v>
       </c>
       <c r="K843" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L843" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M843" t="n">
-        <v>4210</v>
+        <v>3000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="Q843" t="n">
         <v>20</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>300</v>
+        <v>2700</v>
       </c>
       <c r="K844" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L844" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M844" t="n">
-        <v>3500</v>
+        <v>4204</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="Q844" t="n">
         <v>20</v>
@@ -61193,20 +61193,20 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>400</v>
+        <v>3100</v>
       </c>
       <c r="K845" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L845" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M845" t="n">
-        <v>3500</v>
+        <v>4210</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="Q845" t="n">
         <v>20</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61265,20 +61265,20 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K846" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L846" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="M846" t="n">
-        <v>3138</v>
+        <v>3500</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="Q846" t="n">
         <v>20</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61337,20 +61337,20 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>1540</v>
+        <v>400</v>
       </c>
       <c r="K847" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L847" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M847" t="n">
-        <v>4682</v>
+        <v>3500</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="Q847" t="n">
         <v>20</v>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="K848" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L848" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="M848" t="n">
-        <v>3921</v>
+        <v>3138</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="Q848" t="n">
         <v>20</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61481,20 +61481,20 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>150</v>
+        <v>1540</v>
       </c>
       <c r="K849" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L849" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M849" t="n">
-        <v>3000</v>
+        <v>4682</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61503,11 +61503,11 @@
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="Q849" t="n">
         <v>20</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>1700</v>
+        <v>960</v>
       </c>
       <c r="K850" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L850" t="n">
         <v>4000</v>
       </c>
-      <c r="L850" t="n">
-        <v>4500</v>
-      </c>
       <c r="M850" t="n">
-        <v>4324</v>
+        <v>3921</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="Q850" t="n">
         <v>20</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>2400</v>
+        <v>150</v>
       </c>
       <c r="K851" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L851" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M851" t="n">
-        <v>4271</v>
+        <v>3000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="Q851" t="n">
         <v>20</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="K852" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L852" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M852" t="n">
-        <v>3500</v>
+        <v>4324</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="Q852" t="n">
         <v>20</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="K853" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L853" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M853" t="n">
-        <v>3500</v>
+        <v>4271</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="Q853" t="n">
         <v>20</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61841,20 +61841,20 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K854" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L854" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M854" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q854" t="n">
         <v>20</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K855" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L855" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M855" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q855" t="n">
         <v>20</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>970</v>
+        <v>340</v>
       </c>
       <c r="K856" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L856" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M856" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q856" t="n">
         <v>20</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>790</v>
+        <v>250</v>
       </c>
       <c r="K857" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L857" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M857" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q857" t="n">
         <v>20</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>430</v>
+        <v>970</v>
       </c>
       <c r="K858" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L858" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M858" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q858" t="n">
         <v>20</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="K859" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L859" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M859" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q859" t="n">
         <v>20</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>2800</v>
+        <v>430</v>
       </c>
       <c r="K860" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L860" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M860" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q860" t="n">
         <v>20</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>900</v>
+        <v>340</v>
       </c>
       <c r="K861" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L861" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M861" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q861" t="n">
         <v>20</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>2490</v>
+        <v>2800</v>
       </c>
       <c r="K862" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L862" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M862" t="n">
-        <v>4821</v>
+        <v>6000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="Q862" t="n">
         <v>20</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62489,11 +62489,11 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="K863" t="n">
         <v>5000</v>
@@ -62511,7 +62511,7 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P863" t="n">
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>750</v>
+        <v>2490</v>
       </c>
       <c r="K864" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L864" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M864" t="n">
-        <v>4000</v>
+        <v>4821</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="Q864" t="n">
         <v>20</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="K865" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L865" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M865" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q865" t="n">
         <v>20</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>2100</v>
+        <v>750</v>
       </c>
       <c r="K866" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L866" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M866" t="n">
-        <v>4714</v>
+        <v>4000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="Q866" t="n">
         <v>20</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="K867" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L867" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M867" t="n">
-        <v>4711</v>
+        <v>4000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="Q867" t="n">
         <v>20</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="K868" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L868" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M868" t="n">
-        <v>4000</v>
+        <v>4714</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q868" t="n">
         <v>20</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>250</v>
+        <v>1900</v>
       </c>
       <c r="K869" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L869" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M869" t="n">
-        <v>4000</v>
+        <v>4711</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q869" t="n">
         <v>20</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K870" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L870" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M870" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="Q870" t="n">
         <v>20</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K871" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L871" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M871" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="Q871" t="n">
         <v>20</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K872" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L872" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M872" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="Q872" t="n">
         <v>20</v>
@@ -63209,20 +63209,20 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>970</v>
+        <v>340</v>
       </c>
       <c r="K873" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L873" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M873" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="Q873" t="n">
         <v>20</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>430</v>
+        <v>700</v>
       </c>
       <c r="K874" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L874" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M874" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q874" t="n">
         <v>20</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>410</v>
+        <v>970</v>
       </c>
       <c r="K875" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L875" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M875" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q875" t="n">
         <v>20</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>2100</v>
+        <v>430</v>
       </c>
       <c r="K876" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L876" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M876" t="n">
-        <v>5155</v>
+        <v>6000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="Q876" t="n">
         <v>20</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>680</v>
+        <v>410</v>
       </c>
       <c r="K877" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L877" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M877" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q877" t="n">
         <v>20</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>350</v>
+        <v>2100</v>
       </c>
       <c r="K878" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L878" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M878" t="n">
-        <v>4500</v>
+        <v>5155</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="Q878" t="n">
         <v>20</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="K879" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L879" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M879" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q879" t="n">
         <v>20</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>610</v>
+        <v>350</v>
       </c>
       <c r="K880" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L880" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M880" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q880" t="n">
         <v>20</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K881" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L881" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M881" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q881" t="n">
         <v>20</v>
@@ -63857,33 +63857,33 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J882" t="n">
+        <v>610</v>
+      </c>
+      <c r="K882" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L882" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M882" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N882" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O882" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P882" t="n">
         <v>250</v>
-      </c>
-      <c r="K882" t="n">
-        <v>4000</v>
-      </c>
-      <c r="L882" t="n">
-        <v>4000</v>
-      </c>
-      <c r="M882" t="n">
-        <v>4000</v>
-      </c>
-      <c r="N882" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O882" t="inlineStr">
-        <is>
-          <t>Chillán</t>
-        </is>
-      </c>
-      <c r="P882" t="n">
-        <v>200</v>
       </c>
       <c r="Q882" t="n">
         <v>20</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>430</v>
+        <v>700</v>
       </c>
       <c r="K883" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L883" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M883" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q883" t="n">
         <v>20</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K884" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L884" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M884" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64023,11 +64023,11 @@
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q884" t="n">
         <v>20</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>3170</v>
+        <v>430</v>
       </c>
       <c r="K885" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L885" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M885" t="n">
-        <v>4705</v>
+        <v>4000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="Q885" t="n">
         <v>20</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K886" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L886" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M886" t="n">
-        <v>4704</v>
+        <v>3500</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="Q886" t="n">
         <v>20</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>600</v>
+        <v>3170</v>
       </c>
       <c r="K887" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L887" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M887" t="n">
-        <v>4000</v>
+        <v>4705</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q887" t="n">
         <v>20</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="K888" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L888" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M888" t="n">
-        <v>4000</v>
+        <v>4704</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q888" t="n">
         <v>20</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K889" t="n">
         <v>4000</v>
       </c>
       <c r="L889" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M889" t="n">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q889" t="n">
         <v>20</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="K890" t="n">
         <v>4000</v>
       </c>
       <c r="L890" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M890" t="n">
-        <v>4289</v>
+        <v>4000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="Q890" t="n">
         <v>20</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="K891" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L891" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M891" t="n">
-        <v>3000</v>
+        <v>4200</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="Q891" t="n">
         <v>20</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="K892" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L892" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M892" t="n">
-        <v>3500</v>
+        <v>4289</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="Q892" t="n">
         <v>20</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>2800</v>
+        <v>150</v>
       </c>
       <c r="K893" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L893" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M893" t="n">
-        <v>4714</v>
+        <v>3000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="Q893" t="n">
         <v>20</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K894" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L894" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M894" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q894" t="n">
         <v>20</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="K895" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L895" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M895" t="n">
-        <v>4000</v>
+        <v>4714</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q895" t="n">
         <v>20</v>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K896" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L896" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M896" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q896" t="n">
         <v>20</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K897" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L897" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M897" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q897" t="n">
         <v>20</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K898" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L898" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M898" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q898" t="n">
         <v>20</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K899" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L899" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M899" t="n">
-        <v>4816</v>
+        <v>3000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="Q899" t="n">
         <v>20</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K900" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L900" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M900" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q900" t="n">
         <v>20</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="K901" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L901" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M901" t="n">
-        <v>3773</v>
+        <v>4816</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="Q901" t="n">
         <v>20</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K902" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L902" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M902" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q902" t="n">
         <v>20</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K903" t="n">
         <v>3500</v>
       </c>
       <c r="L903" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M903" t="n">
-        <v>3500</v>
+        <v>3773</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="Q903" t="n">
         <v>20</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>2450</v>
+        <v>600</v>
       </c>
       <c r="K904" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L904" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M904" t="n">
-        <v>5224</v>
+        <v>4000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="Q904" t="n">
         <v>20</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K905" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L905" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M905" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q905" t="n">
         <v>20</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>380</v>
+        <v>2450</v>
       </c>
       <c r="K906" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L906" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M906" t="n">
-        <v>4000</v>
+        <v>5224</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="Q906" t="n">
         <v>20</v>
@@ -65657,38 +65657,182 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J907" t="n">
+        <v>900</v>
+      </c>
+      <c r="K907" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L907" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M907" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N907" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O907" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P907" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q907" t="n">
+        <v>20</v>
+      </c>
+      <c r="R907" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>6</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D908" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E908" t="n">
+        <v>13</v>
+      </c>
+      <c r="F908" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I908" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J907" t="n">
+      <c r="J908" t="n">
+        <v>380</v>
+      </c>
+      <c r="K908" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L908" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M908" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N908" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O908" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P908" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q908" t="n">
+        <v>20</v>
+      </c>
+      <c r="R908" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>6</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D909" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E909" t="n">
+        <v>13</v>
+      </c>
+      <c r="F909" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I909" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J909" t="n">
         <v>400</v>
       </c>
-      <c r="K907" t="n">
+      <c r="K909" t="n">
         <v>4000</v>
       </c>
-      <c r="L907" t="n">
+      <c r="L909" t="n">
         <v>4000</v>
       </c>
-      <c r="M907" t="n">
+      <c r="M909" t="n">
         <v>4000</v>
       </c>
-      <c r="N907" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O907" t="inlineStr">
+      <c r="N909" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O909" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P907" t="n">
+      <c r="P909" t="n">
         <v>200</v>
       </c>
-      <c r="Q907" t="n">
-        <v>20</v>
-      </c>
-      <c r="R907" t="inlineStr">
+      <c r="Q909" t="n">
+        <v>20</v>
+      </c>
+      <c r="R909" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R933"/>
+  <dimension ref="A1:R938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>2670</v>
+        <v>380</v>
       </c>
       <c r="K794" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L794" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M794" t="n">
-        <v>4225</v>
+        <v>3000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="Q794" t="n">
         <v>20</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K795" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L795" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M795" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57619,7 +57619,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="Q795" t="n">
         <v>20</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57669,16 +57669,16 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="K796" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L796" t="n">
         <v>6000</v>
       </c>
       <c r="M796" t="n">
-        <v>6000</v>
+        <v>5607</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57687,11 +57687,11 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q796" t="n">
         <v>20</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>2300</v>
+        <v>770</v>
       </c>
       <c r="K797" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L797" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M797" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q797" t="n">
         <v>20</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57813,16 +57813,16 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>1300</v>
+        <v>490</v>
       </c>
       <c r="K798" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L798" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M798" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q798" t="n">
         <v>20</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>500</v>
+        <v>2670</v>
       </c>
       <c r="K799" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L799" t="n">
         <v>4500</v>
       </c>
       <c r="M799" t="n">
-        <v>4500</v>
+        <v>4225</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="Q799" t="n">
         <v>20</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K800" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L800" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M800" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q800" t="n">
         <v>20</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58029,16 +58029,16 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="K801" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L801" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M801" t="n">
-        <v>6771</v>
+        <v>6000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="Q801" t="n">
         <v>20</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58101,16 +58101,16 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="K802" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L802" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M802" t="n">
-        <v>6190</v>
+        <v>5500</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="Q802" t="n">
         <v>20</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K803" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L803" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M803" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q803" t="n">
         <v>20</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58248,13 +58248,13 @@
         <v>500</v>
       </c>
       <c r="K804" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L804" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M804" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q804" t="n">
         <v>20</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58317,16 +58317,16 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K805" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L805" t="n">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="M805" t="n">
-        <v>3138</v>
+        <v>5000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="Q805" t="n">
         <v>20</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58389,16 +58389,16 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>1540</v>
+        <v>2400</v>
       </c>
       <c r="K806" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L806" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M806" t="n">
-        <v>4682</v>
+        <v>6771</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="Q806" t="n">
         <v>20</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>960</v>
+        <v>2100</v>
       </c>
       <c r="K807" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L807" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M807" t="n">
-        <v>3921</v>
+        <v>6190</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="Q807" t="n">
         <v>20</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K808" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L808" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M808" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q808" t="n">
         <v>20</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J809" t="n">
         <v>500</v>
       </c>
       <c r="K809" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L809" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M809" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q809" t="n">
         <v>20</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>2300</v>
+        <v>500</v>
       </c>
       <c r="K810" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L810" t="n">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="M810" t="n">
-        <v>4761</v>
+        <v>3138</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="Q810" t="n">
         <v>20</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58749,7 +58749,7 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>2400</v>
+        <v>1540</v>
       </c>
       <c r="K811" t="n">
         <v>4500</v>
@@ -58758,7 +58758,7 @@
         <v>5000</v>
       </c>
       <c r="M811" t="n">
-        <v>4758</v>
+        <v>4682</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q811" t="n">
         <v>20</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58821,16 +58821,16 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="K812" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="L812" t="n">
         <v>4000</v>
       </c>
       <c r="M812" t="n">
-        <v>4000</v>
+        <v>3921</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q812" t="n">
         <v>20</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K813" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L813" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M813" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q813" t="n">
         <v>20</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K814" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L814" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M814" t="n">
-        <v>4719</v>
+        <v>3500</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="Q814" t="n">
         <v>20</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59037,16 +59037,16 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="K815" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L815" t="n">
         <v>5000</v>
       </c>
       <c r="M815" t="n">
-        <v>4707</v>
+        <v>4761</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q815" t="n">
         <v>20</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>700</v>
+        <v>2400</v>
       </c>
       <c r="K816" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L816" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M816" t="n">
-        <v>4000</v>
+        <v>4758</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q816" t="n">
         <v>20</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59181,16 +59181,16 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="K817" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L817" t="n">
         <v>4000</v>
       </c>
       <c r="M817" t="n">
-        <v>3820</v>
+        <v>4000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q817" t="n">
         <v>20</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="K818" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L818" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M818" t="n">
-        <v>5182</v>
+        <v>4000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="Q818" t="n">
         <v>20</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59325,7 +59325,7 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="K819" t="n">
         <v>4500</v>
@@ -59334,7 +59334,7 @@
         <v>5000</v>
       </c>
       <c r="M819" t="n">
-        <v>4771</v>
+        <v>4719</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q819" t="n">
         <v>20</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>360</v>
+        <v>3000</v>
       </c>
       <c r="K820" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="L820" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M820" t="n">
-        <v>4000</v>
+        <v>4707</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q820" t="n">
         <v>20</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K821" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L821" t="n">
         <v>4000</v>
       </c>
       <c r="M821" t="n">
-        <v>3773</v>
+        <v>4000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q821" t="n">
         <v>20</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>450</v>
+        <v>1250</v>
       </c>
       <c r="K822" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L822" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M822" t="n">
-        <v>5500</v>
+        <v>3820</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="Q822" t="n">
         <v>20</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>430</v>
+        <v>2200</v>
       </c>
       <c r="K823" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L823" t="n">
         <v>5500</v>
       </c>
       <c r="M823" t="n">
-        <v>5500</v>
+        <v>5182</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="Q823" t="n">
         <v>20</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>700</v>
+        <v>1640</v>
       </c>
       <c r="K824" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L824" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M824" t="n">
-        <v>6000</v>
+        <v>4771</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="Q824" t="n">
         <v>20</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K825" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L825" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M825" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q825" t="n">
         <v>20</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59829,16 +59829,16 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="K826" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L826" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M826" t="n">
-        <v>5000</v>
+        <v>3773</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="Q826" t="n">
         <v>20</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K827" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L827" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M827" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q827" t="n">
         <v>20</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>2300</v>
+        <v>430</v>
       </c>
       <c r="K828" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L828" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M828" t="n">
-        <v>4826</v>
+        <v>5500</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="Q828" t="n">
         <v>20</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60045,16 +60045,16 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>2600</v>
+        <v>700</v>
       </c>
       <c r="K829" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L829" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M829" t="n">
-        <v>4462</v>
+        <v>6000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="Q829" t="n">
         <v>20</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J830" t="n">
         <v>700</v>
       </c>
       <c r="K830" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L830" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M830" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q830" t="n">
         <v>20</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="K831" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L831" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M831" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q831" t="n">
         <v>20</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="K832" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L832" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M832" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q832" t="n">
         <v>20</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>180</v>
+        <v>2300</v>
       </c>
       <c r="K833" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L833" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M833" t="n">
-        <v>3000</v>
+        <v>4826</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="Q833" t="n">
         <v>20</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K834" t="n">
         <v>4000</v>
       </c>
       <c r="L834" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M834" t="n">
-        <v>4204</v>
+        <v>4462</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="Q834" t="n">
         <v>20</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>3100</v>
+        <v>700</v>
       </c>
       <c r="K835" t="n">
         <v>4000</v>
       </c>
       <c r="L835" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M835" t="n">
-        <v>4210</v>
+        <v>4000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q835" t="n">
         <v>20</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60549,16 +60549,16 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K836" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L836" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M836" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q836" t="n">
         <v>20</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K837" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L837" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M837" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q837" t="n">
         <v>20</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60693,16 +60693,16 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K838" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L838" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M838" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q838" t="n">
         <v>20</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>3170</v>
+        <v>2700</v>
       </c>
       <c r="K839" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L839" t="n">
         <v>4500</v>
       </c>
-      <c r="L839" t="n">
-        <v>5000</v>
-      </c>
       <c r="M839" t="n">
-        <v>4705</v>
+        <v>4204</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="Q839" t="n">
         <v>20</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="K840" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L840" t="n">
         <v>4500</v>
       </c>
-      <c r="L840" t="n">
-        <v>5000</v>
-      </c>
       <c r="M840" t="n">
-        <v>4704</v>
+        <v>4210</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="Q840" t="n">
         <v>20</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K841" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L841" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M841" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q841" t="n">
         <v>20</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K842" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L842" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M842" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q842" t="n">
         <v>20</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61056,13 +61056,13 @@
         <v>400</v>
       </c>
       <c r="K843" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L843" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M843" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q843" t="n">
         <v>20</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>1770</v>
+        <v>3170</v>
       </c>
       <c r="K844" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L844" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M844" t="n">
-        <v>8000</v>
+        <v>4705</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>400</v>
+        <v>235</v>
       </c>
       <c r="Q844" t="n">
         <v>20</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="K845" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L845" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M845" t="n">
-        <v>8000</v>
+        <v>4704</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61215,11 +61215,11 @@
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>400</v>
+        <v>235</v>
       </c>
       <c r="Q845" t="n">
         <v>20</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="K846" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L846" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M846" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q846" t="n">
         <v>20</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K847" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L847" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M847" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q847" t="n">
         <v>20</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K848" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L848" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M848" t="n">
-        <v>4170</v>
+        <v>5000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="Q848" t="n">
         <v>20</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61481,20 +61481,20 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>600</v>
+        <v>1770</v>
       </c>
       <c r="K849" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L849" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M849" t="n">
-        <v>3767</v>
+        <v>8000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>188</v>
+        <v>400</v>
       </c>
       <c r="Q849" t="n">
         <v>20</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>2580</v>
+        <v>1100</v>
       </c>
       <c r="K850" t="n">
         <v>8000</v>
       </c>
       <c r="L850" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M850" t="n">
-        <v>8465</v>
+        <v>8000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="Q850" t="n">
         <v>20</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>470</v>
+        <v>650</v>
       </c>
       <c r="K851" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L851" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M851" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q851" t="n">
         <v>20</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K852" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L852" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M852" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="Q852" t="n">
         <v>20</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>350</v>
+        <v>2800</v>
       </c>
       <c r="K853" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L853" t="n">
         <v>4500</v>
       </c>
       <c r="M853" t="n">
-        <v>4500</v>
+        <v>4170</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="Q853" t="n">
         <v>20</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61841,20 +61841,20 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="K854" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L854" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M854" t="n">
-        <v>5000</v>
+        <v>3767</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="Q854" t="n">
         <v>20</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61917,16 +61917,16 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>790</v>
+        <v>2580</v>
       </c>
       <c r="K855" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L855" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M855" t="n">
-        <v>5000</v>
+        <v>8465</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>250</v>
+        <v>423</v>
       </c>
       <c r="Q855" t="n">
         <v>20</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="K856" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L856" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M856" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q856" t="n">
         <v>20</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="K857" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L857" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M857" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62079,11 +62079,11 @@
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q857" t="n">
         <v>20</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>1900</v>
+        <v>350</v>
       </c>
       <c r="K858" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L858" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M858" t="n">
-        <v>7789</v>
+        <v>4500</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>389</v>
+        <v>225</v>
       </c>
       <c r="Q858" t="n">
         <v>20</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>1700</v>
+        <v>880</v>
       </c>
       <c r="K859" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L859" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M859" t="n">
-        <v>7735</v>
+        <v>5000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>387</v>
+        <v>250</v>
       </c>
       <c r="Q859" t="n">
         <v>20</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="K860" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L860" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M860" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q860" t="n">
         <v>20</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="K861" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L861" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M861" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q861" t="n">
         <v>20</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K862" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L862" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M862" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q862" t="n">
         <v>20</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62489,20 +62489,20 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="K863" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L863" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M863" t="n">
-        <v>3500</v>
+        <v>7789</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>175</v>
+        <v>389</v>
       </c>
       <c r="Q863" t="n">
         <v>20</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="K864" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L864" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M864" t="n">
-        <v>4604</v>
+        <v>7735</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>230</v>
+        <v>387</v>
       </c>
       <c r="Q864" t="n">
         <v>20</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K865" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L865" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M865" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q865" t="n">
         <v>20</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="K866" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L866" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M866" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="Q866" t="n">
         <v>20</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K867" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L867" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M867" t="n">
-        <v>4694</v>
+        <v>3000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="Q867" t="n">
         <v>20</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K868" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L868" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M868" t="n">
-        <v>4789</v>
+        <v>3500</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="Q868" t="n">
         <v>20</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>200</v>
+        <v>2400</v>
       </c>
       <c r="K869" t="n">
         <v>4000</v>
       </c>
       <c r="L869" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M869" t="n">
-        <v>4000</v>
+        <v>4604</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q869" t="n">
         <v>20</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K870" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L870" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M870" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q870" t="n">
         <v>20</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J871" t="n">
         <v>800</v>
       </c>
       <c r="K871" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L871" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M871" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q871" t="n">
         <v>20</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K872" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L872" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M872" t="n">
-        <v>3000</v>
+        <v>4694</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="Q872" t="n">
         <v>20</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63213,7 +63213,7 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="K873" t="n">
         <v>4500</v>
@@ -63222,7 +63222,7 @@
         <v>5000</v>
       </c>
       <c r="M873" t="n">
-        <v>4647</v>
+        <v>4789</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q873" t="n">
         <v>20</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="K874" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L874" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M874" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q874" t="n">
         <v>20</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63357,16 +63357,16 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K875" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L875" t="n">
         <v>4000</v>
       </c>
       <c r="M875" t="n">
-        <v>3818</v>
+        <v>4000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63375,11 +63375,11 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q875" t="n">
         <v>20</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K876" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L876" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M876" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q876" t="n">
         <v>20</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K877" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L877" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M877" t="n">
-        <v>5536</v>
+        <v>3000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>277</v>
+        <v>150</v>
       </c>
       <c r="Q877" t="n">
         <v>20</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="K878" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L878" t="n">
         <v>5000</v>
       </c>
-      <c r="L878" t="n">
-        <v>6000</v>
-      </c>
       <c r="M878" t="n">
-        <v>5333</v>
+        <v>4647</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="Q878" t="n">
         <v>20</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K879" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L879" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M879" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q879" t="n">
         <v>20</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K880" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L880" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M880" t="n">
-        <v>4500</v>
+        <v>3818</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63735,11 +63735,11 @@
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="Q880" t="n">
         <v>20</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K881" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L881" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M881" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63807,11 +63807,11 @@
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q881" t="n">
         <v>20</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K882" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L882" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M882" t="n">
-        <v>4773</v>
+        <v>5536</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="Q882" t="n">
         <v>20</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="K883" t="n">
         <v>5000</v>
       </c>
       <c r="L883" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M883" t="n">
-        <v>5000</v>
+        <v>5333</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Q883" t="n">
         <v>20</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K884" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L884" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M884" t="n">
-        <v>3875</v>
+        <v>4500</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="Q884" t="n">
         <v>20</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64080,13 +64080,13 @@
         <v>400</v>
       </c>
       <c r="K885" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L885" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M885" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q885" t="n">
         <v>20</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="K886" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L886" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M886" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q886" t="n">
         <v>20</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="K887" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L887" t="n">
         <v>5000</v>
       </c>
       <c r="M887" t="n">
-        <v>5000</v>
+        <v>4773</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q887" t="n">
         <v>20</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="K888" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L888" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M888" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q888" t="n">
         <v>20</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K889" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L889" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M889" t="n">
-        <v>3000</v>
+        <v>3875</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64383,11 +64383,11 @@
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="Q889" t="n">
         <v>20</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K890" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L890" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M890" t="n">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="Q890" t="n">
         <v>20</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="K891" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L891" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M891" t="n">
-        <v>4688</v>
+        <v>6000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="Q891" t="n">
         <v>20</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K892" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L892" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M892" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q892" t="n">
         <v>20</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K893" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L893" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M893" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q893" t="n">
         <v>20</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="K894" t="n">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="L894" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M894" t="n">
-        <v>4437</v>
+        <v>3000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64743,11 +64743,11 @@
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="Q894" t="n">
         <v>20</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="K895" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L895" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M895" t="n">
-        <v>3500</v>
+        <v>4700</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="Q895" t="n">
         <v>20</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K896" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L896" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M896" t="n">
-        <v>3000</v>
+        <v>4688</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64887,11 +64887,11 @@
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="Q896" t="n">
         <v>20</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K897" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L897" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M897" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q897" t="n">
         <v>20</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>3350</v>
+        <v>500</v>
       </c>
       <c r="K898" t="n">
         <v>4000</v>
       </c>
       <c r="L898" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M898" t="n">
-        <v>4318</v>
+        <v>4000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="Q898" t="n">
         <v>20</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="K899" t="n">
+        <v>4300</v>
+      </c>
+      <c r="L899" t="n">
         <v>4500</v>
       </c>
-      <c r="L899" t="n">
-        <v>5000</v>
-      </c>
       <c r="M899" t="n">
-        <v>4760</v>
+        <v>4437</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="Q899" t="n">
         <v>20</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K900" t="n">
         <v>3500</v>
       </c>
       <c r="L900" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M900" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="Q900" t="n">
         <v>20</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K901" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L901" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M901" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q901" t="n">
         <v>20</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K902" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L902" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M902" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="Q902" t="n">
         <v>20</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>1300</v>
+        <v>3350</v>
       </c>
       <c r="K903" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L903" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M903" t="n">
-        <v>5000</v>
+        <v>4318</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="Q903" t="n">
         <v>20</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="K904" t="n">
         <v>4500</v>
       </c>
       <c r="L904" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M904" t="n">
-        <v>4500</v>
+        <v>4760</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="Q904" t="n">
         <v>20</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K905" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L905" t="n">
         <v>4000</v>
       </c>
       <c r="M905" t="n">
-        <v>4000</v>
+        <v>3750</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65535,11 +65535,11 @@
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Q905" t="n">
         <v>20</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K906" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L906" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M906" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q906" t="n">
         <v>20</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="K907" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L907" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M907" t="n">
-        <v>3269</v>
+        <v>5500</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65679,11 +65679,11 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="Q907" t="n">
         <v>20</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65733,16 +65733,16 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="K908" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L908" t="n">
         <v>5000</v>
       </c>
       <c r="M908" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q908" t="n">
         <v>20</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,17 +65801,17 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>3800</v>
+        <v>600</v>
       </c>
       <c r="K909" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L909" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M909" t="n">
         <v>4500</v>
@@ -65823,7 +65823,7 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P909" t="n">
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65877,7 +65877,7 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K910" t="n">
         <v>4000</v>
@@ -65895,7 +65895,7 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P910" t="n">
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="K911" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L911" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M911" t="n">
-        <v>3739</v>
+        <v>3500</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q911" t="n">
         <v>20</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66021,7 +66021,7 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>830</v>
+        <v>1300</v>
       </c>
       <c r="K912" t="n">
         <v>3000</v>
@@ -66030,7 +66030,7 @@
         <v>3500</v>
       </c>
       <c r="M912" t="n">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q912" t="n">
         <v>20</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>700</v>
+        <v>2600</v>
       </c>
       <c r="K913" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L913" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M913" t="n">
-        <v>3286</v>
+        <v>4750</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="Q913" t="n">
         <v>20</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66165,7 +66165,7 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>2570</v>
+        <v>3800</v>
       </c>
       <c r="K914" t="n">
         <v>4000</v>
@@ -66174,7 +66174,7 @@
         <v>5000</v>
       </c>
       <c r="M914" t="n">
-        <v>4222</v>
+        <v>4500</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="Q914" t="n">
         <v>20</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>3300</v>
+        <v>800</v>
       </c>
       <c r="K915" t="n">
         <v>4000</v>
       </c>
       <c r="L915" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M915" t="n">
-        <v>4439</v>
+        <v>4000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="Q915" t="n">
         <v>20</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>790</v>
+        <v>2300</v>
       </c>
       <c r="K916" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L916" t="n">
         <v>4000</v>
       </c>
       <c r="M916" t="n">
-        <v>3778</v>
+        <v>3739</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q916" t="n">
         <v>20</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>1250</v>
+        <v>830</v>
       </c>
       <c r="K917" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L917" t="n">
         <v>3500</v>
       </c>
-      <c r="L917" t="n">
-        <v>4000</v>
-      </c>
       <c r="M917" t="n">
-        <v>3800</v>
+        <v>3271</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="Q917" t="n">
         <v>20</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K918" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L918" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M918" t="n">
-        <v>5220</v>
+        <v>3286</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="Q918" t="n">
         <v>20</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>380</v>
+        <v>2570</v>
       </c>
       <c r="K919" t="n">
         <v>4000</v>
       </c>
       <c r="L919" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M919" t="n">
-        <v>4000</v>
+        <v>4222</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q919" t="n">
         <v>20</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>90</v>
+        <v>3300</v>
       </c>
       <c r="K920" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L920" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M920" t="n">
-        <v>3500</v>
+        <v>4439</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="Q920" t="n">
         <v>20</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>150</v>
+        <v>790</v>
       </c>
       <c r="K921" t="n">
         <v>3500</v>
       </c>
       <c r="L921" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M921" t="n">
-        <v>3500</v>
+        <v>3778</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="Q921" t="n">
         <v>20</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>2200</v>
+        <v>1250</v>
       </c>
       <c r="K922" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L922" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M922" t="n">
-        <v>5205</v>
+        <v>3800</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="Q922" t="n">
         <v>20</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66813,7 +66813,7 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K923" t="n">
         <v>5000</v>
@@ -66822,7 +66822,7 @@
         <v>5500</v>
       </c>
       <c r="M923" t="n">
-        <v>5232</v>
+        <v>5220</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q923" t="n">
         <v>20</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66885,7 +66885,7 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K924" t="n">
         <v>4000</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="K925" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L925" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M925" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q925" t="n">
         <v>20</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K926" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L926" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M926" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q926" t="n">
         <v>20</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>430</v>
+        <v>2200</v>
       </c>
       <c r="K927" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L927" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M927" t="n">
-        <v>4500</v>
+        <v>5205</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="Q927" t="n">
         <v>20</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="K928" t="n">
         <v>5000</v>
       </c>
       <c r="L928" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M928" t="n">
-        <v>5000</v>
+        <v>5232</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q928" t="n">
         <v>20</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="K929" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L929" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M929" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q929" t="n">
         <v>20</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="K930" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L930" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M930" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q930" t="n">
         <v>20</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J931" t="n">
         <v>340</v>
       </c>
       <c r="K931" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L931" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M931" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q931" t="n">
         <v>20</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>2800</v>
+        <v>430</v>
       </c>
       <c r="K932" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L932" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M932" t="n">
-        <v>7429</v>
+        <v>4500</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>371</v>
+        <v>225</v>
       </c>
       <c r="Q932" t="n">
         <v>20</v>
@@ -67509,58 +67509,418 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E933" t="n">
+        <v>13</v>
+      </c>
+      <c r="F933" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J933" t="n">
+        <v>700</v>
+      </c>
+      <c r="K933" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L933" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M933" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N933" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O933" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P933" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q933" t="n">
+        <v>20</v>
+      </c>
+      <c r="R933" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>6</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D934" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E934" t="n">
+        <v>13</v>
+      </c>
+      <c r="F934" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J934" t="n">
+        <v>880</v>
+      </c>
+      <c r="K934" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L934" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M934" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N934" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O934" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P934" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q934" t="n">
+        <v>20</v>
+      </c>
+      <c r="R934" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>6</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D935" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E935" t="n">
+        <v>13</v>
+      </c>
+      <c r="F935" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J935" t="n">
+        <v>430</v>
+      </c>
+      <c r="K935" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L935" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M935" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N935" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O935" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P935" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q935" t="n">
+        <v>20</v>
+      </c>
+      <c r="R935" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>6</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D936" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E936" t="n">
+        <v>13</v>
+      </c>
+      <c r="F936" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J936" t="n">
+        <v>340</v>
+      </c>
+      <c r="K936" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L936" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M936" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N936" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O936" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P936" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q936" t="n">
+        <v>20</v>
+      </c>
+      <c r="R936" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>6</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D937" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E933" t="n">
-        <v>13</v>
-      </c>
-      <c r="F933" t="n">
-        <v>100114013</v>
-      </c>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>Zanahoria</t>
-        </is>
-      </c>
-      <c r="H933" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I933" t="inlineStr">
+      <c r="E937" t="n">
+        <v>13</v>
+      </c>
+      <c r="F937" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J937" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K937" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L937" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M937" t="n">
+        <v>7429</v>
+      </c>
+      <c r="N937" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O937" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P937" t="n">
+        <v>371</v>
+      </c>
+      <c r="Q937" t="n">
+        <v>20</v>
+      </c>
+      <c r="R937" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>6</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D938" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E938" t="n">
+        <v>13</v>
+      </c>
+      <c r="F938" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I938" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J933" t="n">
+      <c r="J938" t="n">
         <v>550</v>
       </c>
-      <c r="K933" t="n">
+      <c r="K938" t="n">
         <v>6000</v>
       </c>
-      <c r="L933" t="n">
+      <c r="L938" t="n">
         <v>6000</v>
       </c>
-      <c r="M933" t="n">
+      <c r="M938" t="n">
         <v>6000</v>
       </c>
-      <c r="N933" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O933" t="inlineStr">
+      <c r="N938" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O938" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P933" t="n">
+      <c r="P938" t="n">
         <v>300</v>
       </c>
-      <c r="Q933" t="n">
-        <v>20</v>
-      </c>
-      <c r="R933" t="inlineStr">
+      <c r="Q938" t="n">
+        <v>20</v>
+      </c>
+      <c r="R938" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R938"/>
+  <dimension ref="A1:R944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58317,16 +58317,16 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K805" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L805" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M805" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q805" t="n">
         <v>20</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>2400</v>
+        <v>280</v>
       </c>
       <c r="K806" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L806" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M806" t="n">
-        <v>6771</v>
+        <v>3500</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>339</v>
+        <v>175</v>
       </c>
       <c r="Q806" t="n">
         <v>20</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58461,16 +58461,16 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K807" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L807" t="n">
         <v>6000</v>
       </c>
-      <c r="L807" t="n">
-        <v>6500</v>
-      </c>
       <c r="M807" t="n">
-        <v>6190</v>
+        <v>5842</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="Q807" t="n">
         <v>20</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>300</v>
+        <v>1450</v>
       </c>
       <c r="K808" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L808" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M808" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q808" t="n">
         <v>20</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58605,7 +58605,7 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="K809" t="n">
         <v>5000</v>
@@ -58623,7 +58623,7 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P809" t="n">
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K810" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L810" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M810" t="n">
-        <v>3138</v>
+        <v>4000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="Q810" t="n">
         <v>20</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>1540</v>
+        <v>100</v>
       </c>
       <c r="K811" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L811" t="n">
         <v>5000</v>
       </c>
       <c r="M811" t="n">
-        <v>4682</v>
+        <v>5000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="Q811" t="n">
         <v>20</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>960</v>
+        <v>2400</v>
       </c>
       <c r="K812" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="L812" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M812" t="n">
-        <v>3921</v>
+        <v>6771</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="Q812" t="n">
         <v>20</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K813" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L813" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="M813" t="n">
-        <v>3000</v>
+        <v>6190</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="Q813" t="n">
         <v>20</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K814" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L814" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M814" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="Q814" t="n">
         <v>20</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>2300</v>
+        <v>500</v>
       </c>
       <c r="K815" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L815" t="n">
         <v>5000</v>
       </c>
       <c r="M815" t="n">
-        <v>4761</v>
+        <v>5000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q815" t="n">
         <v>20</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="K816" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L816" t="n">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="M816" t="n">
-        <v>4758</v>
+        <v>3138</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="Q816" t="n">
         <v>20</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>700</v>
+        <v>1540</v>
       </c>
       <c r="K817" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L817" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M817" t="n">
-        <v>4000</v>
+        <v>4682</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="Q817" t="n">
         <v>20</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="K818" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="L818" t="n">
         <v>4000</v>
       </c>
       <c r="M818" t="n">
-        <v>4000</v>
+        <v>3921</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q818" t="n">
         <v>20</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59321,20 +59321,20 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K819" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L819" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M819" t="n">
-        <v>4719</v>
+        <v>3000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="Q819" t="n">
         <v>20</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K820" t="n">
-        <v>4300</v>
+        <v>3500</v>
       </c>
       <c r="L820" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M820" t="n">
-        <v>4707</v>
+        <v>3500</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="Q820" t="n">
         <v>20</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="K821" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L821" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M821" t="n">
-        <v>4000</v>
+        <v>4761</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q821" t="n">
         <v>20</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>1250</v>
+        <v>2400</v>
       </c>
       <c r="K822" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L822" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M822" t="n">
-        <v>3820</v>
+        <v>4758</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="Q822" t="n">
         <v>20</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="K823" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L823" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M823" t="n">
-        <v>5182</v>
+        <v>4000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="Q823" t="n">
         <v>20</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59681,20 +59681,20 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>1640</v>
+        <v>800</v>
       </c>
       <c r="K824" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L824" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M824" t="n">
-        <v>4771</v>
+        <v>4000</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="Q824" t="n">
         <v>20</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>360</v>
+        <v>1600</v>
       </c>
       <c r="K825" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L825" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M825" t="n">
-        <v>4000</v>
+        <v>4719</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q825" t="n">
         <v>20</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>440</v>
+        <v>3000</v>
       </c>
       <c r="K826" t="n">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="L826" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M826" t="n">
-        <v>3773</v>
+        <v>4707</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="Q826" t="n">
         <v>20</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="K827" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L827" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M827" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="Q827" t="n">
         <v>20</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>430</v>
+        <v>1250</v>
       </c>
       <c r="K828" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L828" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M828" t="n">
-        <v>5500</v>
+        <v>3820</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="Q828" t="n">
         <v>20</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60045,16 +60045,16 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="K829" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L829" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M829" t="n">
-        <v>6000</v>
+        <v>5182</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="Q829" t="n">
         <v>20</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60117,16 +60117,16 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>700</v>
+        <v>1640</v>
       </c>
       <c r="K830" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L830" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M830" t="n">
-        <v>6000</v>
+        <v>4771</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="Q830" t="n">
         <v>20</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="K831" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L831" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M831" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q831" t="n">
         <v>20</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60261,16 +60261,16 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="K832" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L832" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M832" t="n">
-        <v>5000</v>
+        <v>3773</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="Q832" t="n">
         <v>20</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>2300</v>
+        <v>450</v>
       </c>
       <c r="K833" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L833" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M833" t="n">
-        <v>4826</v>
+        <v>5500</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="Q833" t="n">
         <v>20</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>2600</v>
+        <v>430</v>
       </c>
       <c r="K834" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L834" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M834" t="n">
-        <v>4462</v>
+        <v>5500</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="Q834" t="n">
         <v>20</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J835" t="n">
         <v>700</v>
       </c>
       <c r="K835" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L835" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M835" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q835" t="n">
         <v>20</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K836" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L836" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M836" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q836" t="n">
         <v>20</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K837" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L837" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M837" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q837" t="n">
         <v>20</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K838" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L838" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M838" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q838" t="n">
         <v>20</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="K839" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L839" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M839" t="n">
-        <v>4204</v>
+        <v>4826</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="Q839" t="n">
         <v>20</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="K840" t="n">
         <v>4000</v>
       </c>
       <c r="L840" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M840" t="n">
-        <v>4210</v>
+        <v>4462</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60855,11 +60855,11 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="Q840" t="n">
         <v>20</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K841" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L841" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M841" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q841" t="n">
         <v>20</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="K842" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L842" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M842" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q842" t="n">
         <v>20</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K843" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L843" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M843" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q843" t="n">
         <v>20</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>3170</v>
+        <v>180</v>
       </c>
       <c r="K844" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L844" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M844" t="n">
-        <v>4705</v>
+        <v>3000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="Q844" t="n">
         <v>20</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K845" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L845" t="n">
         <v>4500</v>
       </c>
-      <c r="L845" t="n">
-        <v>5000</v>
-      </c>
       <c r="M845" t="n">
-        <v>4704</v>
+        <v>4204</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61215,11 +61215,11 @@
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="Q845" t="n">
         <v>20</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61265,20 +61265,20 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>600</v>
+        <v>3100</v>
       </c>
       <c r="K846" t="n">
         <v>4000</v>
       </c>
       <c r="L846" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M846" t="n">
-        <v>4000</v>
+        <v>4210</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61287,11 +61287,11 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q846" t="n">
         <v>20</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K847" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L847" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M847" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q847" t="n">
         <v>20</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J848" t="n">
         <v>400</v>
       </c>
       <c r="K848" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L848" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M848" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q848" t="n">
         <v>20</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61481,20 +61481,20 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>1770</v>
+        <v>400</v>
       </c>
       <c r="K849" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L849" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M849" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61503,11 +61503,11 @@
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="Q849" t="n">
         <v>20</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>1100</v>
+        <v>3170</v>
       </c>
       <c r="K850" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L850" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M850" t="n">
-        <v>8000</v>
+        <v>4705</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>400</v>
+        <v>235</v>
       </c>
       <c r="Q850" t="n">
         <v>20</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>650</v>
+        <v>2800</v>
       </c>
       <c r="K851" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L851" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M851" t="n">
-        <v>7000</v>
+        <v>4704</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>350</v>
+        <v>235</v>
       </c>
       <c r="Q851" t="n">
         <v>20</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K852" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L852" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M852" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q852" t="n">
         <v>20</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="K853" t="n">
         <v>4000</v>
       </c>
       <c r="L853" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M853" t="n">
-        <v>4170</v>
+        <v>4000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q853" t="n">
         <v>20</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61841,20 +61841,20 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K854" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L854" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M854" t="n">
-        <v>3767</v>
+        <v>5000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="Q854" t="n">
         <v>20</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61917,16 +61917,16 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>2580</v>
+        <v>1770</v>
       </c>
       <c r="K855" t="n">
         <v>8000</v>
       </c>
       <c r="L855" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M855" t="n">
-        <v>8465</v>
+        <v>8000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="Q855" t="n">
         <v>20</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>470</v>
+        <v>1100</v>
       </c>
       <c r="K856" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L856" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M856" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q856" t="n">
         <v>20</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>340</v>
+        <v>650</v>
       </c>
       <c r="K857" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L857" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M857" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="Q857" t="n">
         <v>20</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,33 +62129,33 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J858" t="n">
+        <v>400</v>
+      </c>
+      <c r="K858" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L858" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M858" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N858" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O858" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P858" t="n">
         <v>350</v>
-      </c>
-      <c r="K858" t="n">
-        <v>4500</v>
-      </c>
-      <c r="L858" t="n">
-        <v>4500</v>
-      </c>
-      <c r="M858" t="n">
-        <v>4500</v>
-      </c>
-      <c r="N858" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O858" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P858" t="n">
-        <v>225</v>
       </c>
       <c r="Q858" t="n">
         <v>20</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>880</v>
+        <v>2800</v>
       </c>
       <c r="K859" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L859" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M859" t="n">
-        <v>5000</v>
+        <v>4170</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="Q859" t="n">
         <v>20</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>790</v>
+        <v>600</v>
       </c>
       <c r="K860" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L860" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M860" t="n">
-        <v>5000</v>
+        <v>3767</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="Q860" t="n">
         <v>20</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>430</v>
+        <v>2580</v>
       </c>
       <c r="K861" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L861" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M861" t="n">
-        <v>4000</v>
+        <v>8465</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>200</v>
+        <v>423</v>
       </c>
       <c r="Q861" t="n">
         <v>20</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="K862" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L862" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M862" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q862" t="n">
         <v>20</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62489,20 +62489,20 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>1900</v>
+        <v>340</v>
       </c>
       <c r="K863" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L863" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M863" t="n">
-        <v>7789</v>
+        <v>4500</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>389</v>
+        <v>225</v>
       </c>
       <c r="Q863" t="n">
         <v>20</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>1700</v>
+        <v>350</v>
       </c>
       <c r="K864" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L864" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M864" t="n">
-        <v>7735</v>
+        <v>4500</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>387</v>
+        <v>225</v>
       </c>
       <c r="Q864" t="n">
         <v>20</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>300</v>
+        <v>880</v>
       </c>
       <c r="K865" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L865" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M865" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q865" t="n">
         <v>20</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>150</v>
+        <v>790</v>
       </c>
       <c r="K866" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L866" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M866" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q866" t="n">
         <v>20</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K867" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L867" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M867" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q867" t="n">
         <v>20</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K868" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L868" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M868" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q868" t="n">
         <v>20</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62925,16 +62925,16 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="K869" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L869" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M869" t="n">
-        <v>4604</v>
+        <v>7789</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>230</v>
+        <v>389</v>
       </c>
       <c r="Q869" t="n">
         <v>20</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -63000,13 +63000,13 @@
         <v>1700</v>
       </c>
       <c r="K870" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L870" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M870" t="n">
-        <v>5000</v>
+        <v>7735</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63015,11 +63015,11 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>250</v>
+        <v>387</v>
       </c>
       <c r="Q870" t="n">
         <v>20</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K871" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L871" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M871" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="Q871" t="n">
         <v>20</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="K872" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L872" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M872" t="n">
-        <v>4694</v>
+        <v>7000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="Q872" t="n">
         <v>20</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63209,20 +63209,20 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="K873" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L873" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M873" t="n">
-        <v>4789</v>
+        <v>3000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="Q873" t="n">
         <v>20</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K874" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L874" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M874" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q874" t="n">
         <v>20</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="K875" t="n">
         <v>4000</v>
       </c>
       <c r="L875" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M875" t="n">
-        <v>4000</v>
+        <v>4604</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63375,11 +63375,11 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q875" t="n">
         <v>20</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K876" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L876" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M876" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q876" t="n">
         <v>20</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K877" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L877" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M877" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q877" t="n">
         <v>20</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63573,7 +63573,7 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K878" t="n">
         <v>4500</v>
@@ -63582,7 +63582,7 @@
         <v>5000</v>
       </c>
       <c r="M878" t="n">
-        <v>4647</v>
+        <v>4694</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q878" t="n">
         <v>20</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63645,16 +63645,16 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="K879" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L879" t="n">
         <v>5000</v>
       </c>
       <c r="M879" t="n">
-        <v>5000</v>
+        <v>4789</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q879" t="n">
         <v>20</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="K880" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L880" t="n">
         <v>4000</v>
       </c>
       <c r="M880" t="n">
-        <v>3818</v>
+        <v>4000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q880" t="n">
         <v>20</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63789,16 +63789,16 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K881" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L881" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M881" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q881" t="n">
         <v>20</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63857,20 +63857,20 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="K882" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L882" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M882" t="n">
-        <v>5536</v>
+        <v>3000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>277</v>
+        <v>150</v>
       </c>
       <c r="Q882" t="n">
         <v>20</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>2700</v>
+        <v>400</v>
       </c>
       <c r="K883" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L883" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M883" t="n">
-        <v>5333</v>
+        <v>3000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="Q883" t="n">
         <v>20</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="K884" t="n">
         <v>4500</v>
       </c>
       <c r="L884" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M884" t="n">
-        <v>4500</v>
+        <v>4647</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q884" t="n">
         <v>20</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="K885" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L885" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M885" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q885" t="n">
         <v>20</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K886" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L886" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M886" t="n">
-        <v>3000</v>
+        <v>3818</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="Q886" t="n">
         <v>20</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="K887" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L887" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M887" t="n">
-        <v>4773</v>
+        <v>3500</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="Q887" t="n">
         <v>20</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="K888" t="n">
         <v>5000</v>
       </c>
       <c r="L888" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M888" t="n">
-        <v>5000</v>
+        <v>5536</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="Q888" t="n">
         <v>20</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="K889" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L889" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M889" t="n">
-        <v>3875</v>
+        <v>5333</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64383,11 +64383,11 @@
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="Q889" t="n">
         <v>20</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K890" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L890" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M890" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q890" t="n">
         <v>20</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K891" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L891" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M891" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="Q891" t="n">
         <v>20</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K892" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L892" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M892" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q892" t="n">
         <v>20</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>180</v>
+        <v>2200</v>
       </c>
       <c r="K893" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L893" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M893" t="n">
-        <v>3000</v>
+        <v>4773</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="Q893" t="n">
         <v>20</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K894" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L894" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M894" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q894" t="n">
         <v>20</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K895" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L895" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M895" t="n">
-        <v>4700</v>
+        <v>3875</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="Q895" t="n">
         <v>20</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K896" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L896" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M896" t="n">
-        <v>4688</v>
+        <v>4000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="Q896" t="n">
         <v>20</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,33 +64937,33 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J897" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K897" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L897" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M897" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N897" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O897" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P897" t="n">
         <v>300</v>
-      </c>
-      <c r="K897" t="n">
-        <v>4000</v>
-      </c>
-      <c r="L897" t="n">
-        <v>4000</v>
-      </c>
-      <c r="M897" t="n">
-        <v>4000</v>
-      </c>
-      <c r="N897" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O897" t="inlineStr">
-        <is>
-          <t>Chillán</t>
-        </is>
-      </c>
-      <c r="P897" t="n">
-        <v>200</v>
       </c>
       <c r="Q897" t="n">
         <v>20</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K898" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L898" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M898" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q898" t="n">
         <v>20</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>1900</v>
+        <v>180</v>
       </c>
       <c r="K899" t="n">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="L899" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M899" t="n">
-        <v>4437</v>
+        <v>3000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="Q899" t="n">
         <v>20</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K900" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L900" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M900" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q900" t="n">
         <v>20</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K901" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L901" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M901" t="n">
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="Q901" t="n">
         <v>20</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K902" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L902" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M902" t="n">
-        <v>3000</v>
+        <v>4688</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="Q902" t="n">
         <v>20</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>3350</v>
+        <v>300</v>
       </c>
       <c r="K903" t="n">
         <v>4000</v>
       </c>
       <c r="L903" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M903" t="n">
-        <v>4318</v>
+        <v>4000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="Q903" t="n">
         <v>20</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44383</v>
+        <v>44295</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="K904" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L904" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M904" t="n">
-        <v>4760</v>
+        <v>4000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="Q904" t="n">
         <v>20</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K905" t="n">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="L905" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M905" t="n">
-        <v>3750</v>
+        <v>4437</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="Q905" t="n">
         <v>20</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K906" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L906" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M906" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q906" t="n">
         <v>20</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K907" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L907" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M907" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="Q907" t="n">
         <v>20</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K908" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L908" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M908" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q908" t="n">
         <v>20</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>600</v>
+        <v>3350</v>
       </c>
       <c r="K909" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L909" t="n">
         <v>4500</v>
       </c>
       <c r="M909" t="n">
-        <v>4500</v>
+        <v>4318</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="Q909" t="n">
         <v>20</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K910" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L910" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M910" t="n">
-        <v>4000</v>
+        <v>4760</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q910" t="n">
         <v>20</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K911" t="n">
         <v>3500</v>
       </c>
       <c r="L911" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M911" t="n">
-        <v>3500</v>
+        <v>3750</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="Q911" t="n">
         <v>20</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K912" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L912" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M912" t="n">
-        <v>3269</v>
+        <v>4000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="Q912" t="n">
         <v>20</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="K913" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L913" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M913" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="Q913" t="n">
         <v>20</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>3800</v>
+        <v>1300</v>
       </c>
       <c r="K914" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L914" t="n">
         <v>5000</v>
       </c>
       <c r="M914" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q914" t="n">
         <v>20</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K915" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L915" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M915" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q915" t="n">
         <v>20</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>2300</v>
+        <v>500</v>
       </c>
       <c r="K916" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L916" t="n">
         <v>4000</v>
       </c>
       <c r="M916" t="n">
-        <v>3739</v>
+        <v>4000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="Q916" t="n">
         <v>20</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="K917" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L917" t="n">
         <v>3500</v>
       </c>
       <c r="M917" t="n">
-        <v>3271</v>
+        <v>3500</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q917" t="n">
         <v>20</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66453,7 +66453,7 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="K918" t="n">
         <v>3000</v>
@@ -66462,7 +66462,7 @@
         <v>3500</v>
       </c>
       <c r="M918" t="n">
-        <v>3286</v>
+        <v>3269</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q918" t="n">
         <v>20</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>2570</v>
+        <v>2600</v>
       </c>
       <c r="K919" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L919" t="n">
         <v>5000</v>
       </c>
       <c r="M919" t="n">
-        <v>4222</v>
+        <v>4750</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="Q919" t="n">
         <v>20</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66597,7 +66597,7 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="K920" t="n">
         <v>4000</v>
@@ -66606,7 +66606,7 @@
         <v>5000</v>
       </c>
       <c r="M920" t="n">
-        <v>4439</v>
+        <v>4500</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q920" t="n">
         <v>20</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="K921" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L921" t="n">
         <v>4000</v>
       </c>
       <c r="M921" t="n">
-        <v>3778</v>
+        <v>4000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q921" t="n">
         <v>20</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>1250</v>
+        <v>2300</v>
       </c>
       <c r="K922" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L922" t="n">
         <v>4000</v>
       </c>
       <c r="M922" t="n">
-        <v>3800</v>
+        <v>3739</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q922" t="n">
         <v>20</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>2500</v>
+        <v>830</v>
       </c>
       <c r="K923" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L923" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M923" t="n">
-        <v>5220</v>
+        <v>3271</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="Q923" t="n">
         <v>20</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>380</v>
+        <v>700</v>
       </c>
       <c r="K924" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L924" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M924" t="n">
-        <v>4000</v>
+        <v>3286</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="Q924" t="n">
         <v>20</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>90</v>
+        <v>2570</v>
       </c>
       <c r="K925" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L925" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M925" t="n">
-        <v>3500</v>
+        <v>4222</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="Q925" t="n">
         <v>20</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>150</v>
+        <v>3300</v>
       </c>
       <c r="K926" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L926" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M926" t="n">
-        <v>3500</v>
+        <v>4439</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="Q926" t="n">
         <v>20</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>2200</v>
+        <v>790</v>
       </c>
       <c r="K927" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L927" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M927" t="n">
-        <v>5205</v>
+        <v>3778</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="Q927" t="n">
         <v>20</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>2800</v>
+        <v>1250</v>
       </c>
       <c r="K928" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L928" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M928" t="n">
-        <v>5232</v>
+        <v>3800</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="Q928" t="n">
         <v>20</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="K929" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L929" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M929" t="n">
-        <v>4000</v>
+        <v>5220</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="Q929" t="n">
         <v>20</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K930" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L930" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M930" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q930" t="n">
         <v>20</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="K931" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L931" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M931" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q931" t="n">
         <v>20</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="K932" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L932" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M932" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q932" t="n">
         <v>20</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="K933" t="n">
         <v>5000</v>
       </c>
       <c r="L933" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M933" t="n">
-        <v>5000</v>
+        <v>5205</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q933" t="n">
         <v>20</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>880</v>
+        <v>2800</v>
       </c>
       <c r="K934" t="n">
         <v>5000</v>
       </c>
       <c r="L934" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M934" t="n">
-        <v>5000</v>
+        <v>5232</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q934" t="n">
         <v>20</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67677,7 +67677,7 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K935" t="n">
         <v>4000</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K936" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L936" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M936" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q936" t="n">
         <v>20</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>2800</v>
+        <v>340</v>
       </c>
       <c r="K937" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L937" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M937" t="n">
-        <v>7429</v>
+        <v>4500</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>371</v>
+        <v>225</v>
       </c>
       <c r="Q937" t="n">
         <v>20</v>
@@ -67869,58 +67869,490 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E938" t="n">
+        <v>13</v>
+      </c>
+      <c r="F938" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="J938" t="n">
+        <v>430</v>
+      </c>
+      <c r="K938" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L938" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M938" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N938" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O938" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P938" t="n">
+        <v>225</v>
+      </c>
+      <c r="Q938" t="n">
+        <v>20</v>
+      </c>
+      <c r="R938" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>6</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D939" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E939" t="n">
+        <v>13</v>
+      </c>
+      <c r="F939" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J939" t="n">
+        <v>700</v>
+      </c>
+      <c r="K939" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L939" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M939" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N939" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O939" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P939" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q939" t="n">
+        <v>20</v>
+      </c>
+      <c r="R939" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>6</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D940" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E940" t="n">
+        <v>13</v>
+      </c>
+      <c r="F940" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J940" t="n">
+        <v>880</v>
+      </c>
+      <c r="K940" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L940" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M940" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N940" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O940" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P940" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q940" t="n">
+        <v>20</v>
+      </c>
+      <c r="R940" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>6</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D941" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E941" t="n">
+        <v>13</v>
+      </c>
+      <c r="F941" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G941" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J941" t="n">
+        <v>430</v>
+      </c>
+      <c r="K941" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L941" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M941" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N941" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O941" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P941" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q941" t="n">
+        <v>20</v>
+      </c>
+      <c r="R941" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>6</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D942" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E942" t="n">
+        <v>13</v>
+      </c>
+      <c r="F942" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J942" t="n">
+        <v>340</v>
+      </c>
+      <c r="K942" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L942" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M942" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N942" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O942" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P942" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q942" t="n">
+        <v>20</v>
+      </c>
+      <c r="R942" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>6</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D943" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E938" t="n">
-        <v>13</v>
-      </c>
-      <c r="F938" t="n">
-        <v>100114013</v>
-      </c>
-      <c r="G938" t="inlineStr">
-        <is>
-          <t>Zanahoria</t>
-        </is>
-      </c>
-      <c r="H938" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I938" t="inlineStr">
+      <c r="E943" t="n">
+        <v>13</v>
+      </c>
+      <c r="F943" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J943" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K943" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L943" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M943" t="n">
+        <v>7429</v>
+      </c>
+      <c r="N943" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O943" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P943" t="n">
+        <v>371</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>20</v>
+      </c>
+      <c r="R943" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>6</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D944" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E944" t="n">
+        <v>13</v>
+      </c>
+      <c r="F944" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J938" t="n">
+      <c r="J944" t="n">
         <v>550</v>
       </c>
-      <c r="K938" t="n">
+      <c r="K944" t="n">
         <v>6000</v>
       </c>
-      <c r="L938" t="n">
+      <c r="L944" t="n">
         <v>6000</v>
       </c>
-      <c r="M938" t="n">
+      <c r="M944" t="n">
         <v>6000</v>
       </c>
-      <c r="N938" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O938" t="inlineStr">
+      <c r="N944" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O944" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P938" t="n">
+      <c r="P944" t="n">
         <v>300</v>
       </c>
-      <c r="Q938" t="n">
-        <v>20</v>
-      </c>
-      <c r="R938" t="inlineStr">
+      <c r="Q944" t="n">
+        <v>20</v>
+      </c>
+      <c r="R944" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R944"/>
+  <dimension ref="A1:R946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54857,20 +54857,20 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>350</v>
+        <v>2400</v>
       </c>
       <c r="K757" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L757" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="M757" t="n">
-        <v>3000</v>
+        <v>6229</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54879,11 +54879,11 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="Q757" t="n">
         <v>20</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54929,20 +54929,20 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K758" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L758" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M758" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q758" t="n">
         <v>20</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>2200</v>
+        <v>350</v>
       </c>
       <c r="K759" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L759" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M759" t="n">
-        <v>4773</v>
+        <v>3000</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="Q759" t="n">
         <v>20</v>
@@ -55073,20 +55073,20 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K760" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L760" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M760" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55099,7 +55099,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q760" t="n">
         <v>20</v>
@@ -55145,20 +55145,20 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="K761" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L761" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M761" t="n">
-        <v>3500</v>
+        <v>4773</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55171,7 +55171,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="Q761" t="n">
         <v>20</v>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K762" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L762" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M762" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55243,7 +55243,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q762" t="n">
         <v>20</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55289,20 +55289,20 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K763" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L763" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M763" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55315,7 +55315,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q763" t="n">
         <v>20</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55361,20 +55361,20 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>2870</v>
+        <v>1200</v>
       </c>
       <c r="K764" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L764" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M764" t="n">
-        <v>4721</v>
+        <v>4000</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="Q764" t="n">
         <v>20</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>860</v>
+        <v>340</v>
       </c>
       <c r="K765" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L765" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M765" t="n">
-        <v>3721</v>
+        <v>3000</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="Q765" t="n">
         <v>20</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55509,7 +55509,7 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>3600</v>
+        <v>2870</v>
       </c>
       <c r="K766" t="n">
         <v>4500</v>
@@ -55518,7 +55518,7 @@
         <v>5000</v>
       </c>
       <c r="M766" t="n">
-        <v>4667</v>
+        <v>4721</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q766" t="n">
         <v>20</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55581,16 +55581,16 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>1200</v>
+        <v>860</v>
       </c>
       <c r="K767" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L767" t="n">
         <v>4000</v>
       </c>
       <c r="M767" t="n">
-        <v>4000</v>
+        <v>3721</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="Q767" t="n">
         <v>20</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>500</v>
+        <v>3600</v>
       </c>
       <c r="K768" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L768" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M768" t="n">
-        <v>3000</v>
+        <v>4667</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55675,7 +55675,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="Q768" t="n">
         <v>20</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55721,20 +55721,20 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>3300</v>
+        <v>1200</v>
       </c>
       <c r="K769" t="n">
         <v>4000</v>
       </c>
       <c r="L769" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M769" t="n">
-        <v>4485</v>
+        <v>4000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55747,7 +55747,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="Q769" t="n">
         <v>20</v>
@@ -55793,20 +55793,20 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K770" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L770" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M770" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q770" t="n">
         <v>20</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="K771" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L771" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M771" t="n">
-        <v>3731</v>
+        <v>4485</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="Q771" t="n">
         <v>20</v>
@@ -55937,20 +55937,20 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K772" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L772" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M772" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q772" t="n">
         <v>20</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56009,20 +56009,20 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>2900</v>
+        <v>1300</v>
       </c>
       <c r="K773" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L773" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M773" t="n">
-        <v>6776</v>
+        <v>3731</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>339</v>
+        <v>187</v>
       </c>
       <c r="Q773" t="n">
         <v>20</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56085,16 +56085,16 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K774" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L774" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M774" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q774" t="n">
         <v>20</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>350</v>
+        <v>2900</v>
       </c>
       <c r="K775" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L775" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M775" t="n">
-        <v>5000</v>
+        <v>6776</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56175,11 +56175,11 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="Q775" t="n">
         <v>20</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>1300</v>
+        <v>560</v>
       </c>
       <c r="K776" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L776" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M776" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="Q776" t="n">
         <v>20</v>
@@ -56297,20 +56297,20 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>2300</v>
+        <v>350</v>
       </c>
       <c r="K777" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L777" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M777" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="Q777" t="n">
         <v>20</v>
@@ -56369,20 +56369,20 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K778" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L778" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M778" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q778" t="n">
         <v>20</v>
@@ -56441,20 +56441,20 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>730</v>
+        <v>2300</v>
       </c>
       <c r="K779" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L779" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M779" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q779" t="n">
         <v>20</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>790</v>
+        <v>500</v>
       </c>
       <c r="K780" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L780" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M780" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56539,7 +56539,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q780" t="n">
         <v>20</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56585,11 +56585,11 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>880</v>
+        <v>730</v>
       </c>
       <c r="K781" t="n">
         <v>6000</v>
@@ -56661,7 +56661,7 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>610</v>
+        <v>790</v>
       </c>
       <c r="K782" t="n">
         <v>6000</v>
@@ -56679,7 +56679,7 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P782" t="n">
@@ -56729,20 +56729,20 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>340</v>
+        <v>880</v>
       </c>
       <c r="K783" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L783" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M783" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q783" t="n">
         <v>20</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K784" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L784" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M784" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q784" t="n">
         <v>20</v>
@@ -56895,7 +56895,7 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P785" t="n">
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>1900</v>
+        <v>340</v>
       </c>
       <c r="K786" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L786" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M786" t="n">
-        <v>4342</v>
+        <v>5000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="Q786" t="n">
         <v>20</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57021,16 +57021,16 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="K787" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L787" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M787" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q787" t="n">
         <v>20</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>250</v>
+        <v>1900</v>
       </c>
       <c r="K788" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L788" t="n">
         <v>4500</v>
       </c>
       <c r="M788" t="n">
-        <v>4500</v>
+        <v>4342</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57115,7 +57115,7 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Q788" t="n">
         <v>20</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57161,20 +57161,20 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K789" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L789" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M789" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57183,11 +57183,11 @@
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q789" t="n">
         <v>20</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="K790" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L790" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M790" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q790" t="n">
         <v>20</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>970</v>
+        <v>340</v>
       </c>
       <c r="K791" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L791" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M791" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q791" t="n">
         <v>20</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K792" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L792" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M792" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q792" t="n">
         <v>20</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>430</v>
+        <v>970</v>
       </c>
       <c r="K793" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L793" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M793" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q793" t="n">
         <v>20</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K794" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L794" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M794" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q794" t="n">
         <v>20</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>1600</v>
+        <v>430</v>
       </c>
       <c r="K795" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L795" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M795" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q795" t="n">
         <v>20</v>
@@ -57665,20 +57665,20 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>1400</v>
+        <v>380</v>
       </c>
       <c r="K796" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L796" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M796" t="n">
-        <v>5607</v>
+        <v>3000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57687,11 +57687,11 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="Q796" t="n">
         <v>20</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>770</v>
+        <v>1600</v>
       </c>
       <c r="K797" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L797" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M797" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57763,7 +57763,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q797" t="n">
         <v>20</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>490</v>
+        <v>1400</v>
       </c>
       <c r="K798" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L798" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M798" t="n">
-        <v>4000</v>
+        <v>5607</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="Q798" t="n">
         <v>20</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>2670</v>
+        <v>770</v>
       </c>
       <c r="K799" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L799" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M799" t="n">
-        <v>4225</v>
+        <v>5000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="Q799" t="n">
         <v>20</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57957,16 +57957,16 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>800</v>
+        <v>490</v>
       </c>
       <c r="K800" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L800" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M800" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q800" t="n">
         <v>20</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58029,16 +58029,16 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>3500</v>
+        <v>2670</v>
       </c>
       <c r="K801" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L801" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M801" t="n">
-        <v>6000</v>
+        <v>4225</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="Q801" t="n">
         <v>20</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="K802" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L802" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M802" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="Q802" t="n">
         <v>20</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="K803" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L803" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M803" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q803" t="n">
         <v>20</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="K804" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L804" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M804" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="Q804" t="n">
         <v>20</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K805" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L805" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M805" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q805" t="n">
         <v>20</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="K806" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L806" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M806" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="Q806" t="n">
         <v>20</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K807" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L807" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M807" t="n">
-        <v>5842</v>
+        <v>4000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="Q807" t="n">
         <v>20</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>1450</v>
+        <v>280</v>
       </c>
       <c r="K808" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L808" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M808" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q808" t="n">
         <v>20</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>540</v>
+        <v>1900</v>
       </c>
       <c r="K809" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L809" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M809" t="n">
-        <v>5000</v>
+        <v>5842</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="Q809" t="n">
         <v>20</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>700</v>
+        <v>1450</v>
       </c>
       <c r="K810" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L810" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M810" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q810" t="n">
         <v>20</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58745,11 +58745,11 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>100</v>
+        <v>540</v>
       </c>
       <c r="K811" t="n">
         <v>5000</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="K812" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L812" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M812" t="n">
-        <v>6771</v>
+        <v>4000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="Q812" t="n">
         <v>20</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="K813" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L813" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M813" t="n">
-        <v>6190</v>
+        <v>5000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="Q813" t="n">
         <v>20</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="K814" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L814" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M814" t="n">
-        <v>6000</v>
+        <v>6771</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="Q814" t="n">
         <v>20</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K815" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L815" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M815" t="n">
-        <v>5000</v>
+        <v>6190</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="Q815" t="n">
         <v>20</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K816" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L816" t="n">
-        <v>3300</v>
+        <v>6000</v>
       </c>
       <c r="M816" t="n">
-        <v>3138</v>
+        <v>6000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="Q816" t="n">
         <v>20</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>1540</v>
+        <v>500</v>
       </c>
       <c r="K817" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L817" t="n">
         <v>5000</v>
       </c>
       <c r="M817" t="n">
-        <v>4682</v>
+        <v>5000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="Q817" t="n">
         <v>20</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="K818" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L818" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="M818" t="n">
-        <v>3921</v>
+        <v>3138</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="Q818" t="n">
         <v>20</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59321,20 +59321,20 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>500</v>
+        <v>1540</v>
       </c>
       <c r="K819" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L819" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M819" t="n">
-        <v>3000</v>
+        <v>4682</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="Q819" t="n">
         <v>20</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>500</v>
+        <v>960</v>
       </c>
       <c r="K820" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L820" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M820" t="n">
-        <v>3500</v>
+        <v>3921</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="Q820" t="n">
         <v>20</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>2300</v>
+        <v>500</v>
       </c>
       <c r="K821" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L821" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M821" t="n">
-        <v>4761</v>
+        <v>3000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="Q821" t="n">
         <v>20</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="K822" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L822" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M822" t="n">
-        <v>4758</v>
+        <v>3500</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="Q822" t="n">
         <v>20</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="K823" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L823" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M823" t="n">
-        <v>4000</v>
+        <v>4761</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q823" t="n">
         <v>20</v>
@@ -59681,20 +59681,20 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K824" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L824" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M824" t="n">
-        <v>4000</v>
+        <v>4758</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q824" t="n">
         <v>20</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K825" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L825" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M825" t="n">
-        <v>4719</v>
+        <v>4000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="Q825" t="n">
         <v>20</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="K826" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L826" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M826" t="n">
-        <v>4707</v>
+        <v>4000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="Q826" t="n">
         <v>20</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K827" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L827" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M827" t="n">
-        <v>4000</v>
+        <v>4719</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q827" t="n">
         <v>20</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>1250</v>
+        <v>3000</v>
       </c>
       <c r="K828" t="n">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="L828" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M828" t="n">
-        <v>3820</v>
+        <v>4707</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="Q828" t="n">
         <v>20</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="K829" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L829" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M829" t="n">
-        <v>5182</v>
+        <v>4000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="Q829" t="n">
         <v>20</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>1640</v>
+        <v>1250</v>
       </c>
       <c r="K830" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L830" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M830" t="n">
-        <v>4771</v>
+        <v>3820</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="Q830" t="n">
         <v>20</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>360</v>
+        <v>2200</v>
       </c>
       <c r="K831" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L831" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M831" t="n">
-        <v>4000</v>
+        <v>5182</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="Q831" t="n">
         <v>20</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>440</v>
+        <v>1640</v>
       </c>
       <c r="K832" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L832" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M832" t="n">
-        <v>3773</v>
+        <v>4771</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="Q832" t="n">
         <v>20</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="K833" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L833" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M833" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="Q833" t="n">
         <v>20</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="K834" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L834" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M834" t="n">
-        <v>5500</v>
+        <v>3773</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="Q834" t="n">
         <v>20</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="K835" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L835" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M835" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q835" t="n">
         <v>20</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="K836" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L836" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M836" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q836" t="n">
         <v>20</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="K837" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L837" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M837" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q837" t="n">
         <v>20</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="K838" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L838" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M838" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q838" t="n">
         <v>20</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>2300</v>
+        <v>350</v>
       </c>
       <c r="K839" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L839" t="n">
         <v>5000</v>
       </c>
       <c r="M839" t="n">
-        <v>4826</v>
+        <v>5000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q839" t="n">
         <v>20</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>2600</v>
+        <v>340</v>
       </c>
       <c r="K840" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L840" t="n">
         <v>5000</v>
       </c>
       <c r="M840" t="n">
-        <v>4462</v>
+        <v>5000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60855,11 +60855,11 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="Q840" t="n">
         <v>20</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="K841" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L841" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M841" t="n">
-        <v>4000</v>
+        <v>4826</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="Q841" t="n">
         <v>20</v>
@@ -60977,20 +60977,20 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="K842" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L842" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M842" t="n">
-        <v>3000</v>
+        <v>4462</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="Q842" t="n">
         <v>20</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="K843" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L843" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M843" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q843" t="n">
         <v>20</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61121,11 +61121,11 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>180</v>
+        <v>1300</v>
       </c>
       <c r="K844" t="n">
         <v>3000</v>
@@ -61143,7 +61143,7 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P844" t="n">
@@ -61193,20 +61193,20 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>2700</v>
+        <v>110</v>
       </c>
       <c r="K845" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L845" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M845" t="n">
-        <v>4204</v>
+        <v>3000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="Q845" t="n">
         <v>20</v>
@@ -61265,20 +61265,20 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>3100</v>
+        <v>180</v>
       </c>
       <c r="K846" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L846" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M846" t="n">
-        <v>4210</v>
+        <v>3000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="Q846" t="n">
         <v>20</v>
@@ -61337,20 +61337,20 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>300</v>
+        <v>2700</v>
       </c>
       <c r="K847" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L847" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M847" t="n">
-        <v>3500</v>
+        <v>4204</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="Q847" t="n">
         <v>20</v>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>400</v>
+        <v>3100</v>
       </c>
       <c r="K848" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L848" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M848" t="n">
-        <v>3500</v>
+        <v>4210</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="Q848" t="n">
         <v>20</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61481,11 +61481,11 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K849" t="n">
         <v>3500</v>
@@ -61503,7 +61503,7 @@
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P849" t="n">
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>3170</v>
+        <v>400</v>
       </c>
       <c r="K850" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L850" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M850" t="n">
-        <v>4705</v>
+        <v>3500</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="Q850" t="n">
         <v>20</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K851" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L851" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M851" t="n">
-        <v>4704</v>
+        <v>3500</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="Q851" t="n">
         <v>20</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>600</v>
+        <v>3170</v>
       </c>
       <c r="K852" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L852" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M852" t="n">
-        <v>4000</v>
+        <v>4705</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q852" t="n">
         <v>20</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="K853" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L853" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M853" t="n">
-        <v>4000</v>
+        <v>4704</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q853" t="n">
         <v>20</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61841,20 +61841,20 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K854" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L854" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M854" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q854" t="n">
         <v>20</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>1770</v>
+        <v>800</v>
       </c>
       <c r="K855" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L855" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M855" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q855" t="n">
         <v>20</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K856" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L856" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M856" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="Q856" t="n">
         <v>20</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>650</v>
+        <v>1770</v>
       </c>
       <c r="K857" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L857" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M857" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q857" t="n">
         <v>20</v>
@@ -62129,33 +62129,33 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K858" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L858" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M858" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N858" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O858" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P858" t="n">
         <v>400</v>
-      </c>
-      <c r="K858" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L858" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M858" t="n">
-        <v>7000</v>
-      </c>
-      <c r="N858" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O858" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P858" t="n">
-        <v>350</v>
       </c>
       <c r="Q858" t="n">
         <v>20</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>2800</v>
+        <v>650</v>
       </c>
       <c r="K859" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L859" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M859" t="n">
-        <v>4170</v>
+        <v>7000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>208</v>
+        <v>350</v>
       </c>
       <c r="Q859" t="n">
         <v>20</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K860" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L860" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M860" t="n">
-        <v>3767</v>
+        <v>7000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="Q860" t="n">
         <v>20</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>2580</v>
+        <v>2800</v>
       </c>
       <c r="K861" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L861" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M861" t="n">
-        <v>8465</v>
+        <v>4170</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>423</v>
+        <v>208</v>
       </c>
       <c r="Q861" t="n">
         <v>20</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>470</v>
+        <v>600</v>
       </c>
       <c r="K862" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L862" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M862" t="n">
-        <v>6000</v>
+        <v>3767</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="Q862" t="n">
         <v>20</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62489,20 +62489,20 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>340</v>
+        <v>2580</v>
       </c>
       <c r="K863" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L863" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M863" t="n">
-        <v>4500</v>
+        <v>8465</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>225</v>
+        <v>423</v>
       </c>
       <c r="Q863" t="n">
         <v>20</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="K864" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L864" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M864" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q864" t="n">
         <v>20</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>880</v>
+        <v>340</v>
       </c>
       <c r="K865" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L865" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M865" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q865" t="n">
         <v>20</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>790</v>
+        <v>350</v>
       </c>
       <c r="K866" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L866" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M866" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q866" t="n">
         <v>20</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>430</v>
+        <v>880</v>
       </c>
       <c r="K867" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L867" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M867" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q867" t="n">
         <v>20</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>440</v>
+        <v>790</v>
       </c>
       <c r="K868" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L868" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M868" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q868" t="n">
         <v>20</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>1900</v>
+        <v>430</v>
       </c>
       <c r="K869" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L869" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M869" t="n">
-        <v>7789</v>
+        <v>4000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>389</v>
+        <v>200</v>
       </c>
       <c r="Q869" t="n">
         <v>20</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>1700</v>
+        <v>440</v>
       </c>
       <c r="K870" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L870" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M870" t="n">
-        <v>7735</v>
+        <v>4000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>387</v>
+        <v>200</v>
       </c>
       <c r="Q870" t="n">
         <v>20</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="K871" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L871" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M871" t="n">
-        <v>7000</v>
+        <v>7789</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Q871" t="n">
         <v>20</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>150</v>
+        <v>1700</v>
       </c>
       <c r="K872" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L872" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M872" t="n">
-        <v>7000</v>
+        <v>7735</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="Q872" t="n">
         <v>20</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63209,20 +63209,20 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K873" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L873" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M873" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q873" t="n">
         <v>20</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="K874" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L874" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M874" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="Q874" t="n">
         <v>20</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="K875" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L875" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M875" t="n">
-        <v>4604</v>
+        <v>3000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="Q875" t="n">
         <v>20</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>1700</v>
+        <v>600</v>
       </c>
       <c r="K876" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L876" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M876" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q876" t="n">
         <v>20</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K877" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L877" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M877" t="n">
-        <v>3500</v>
+        <v>4604</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="Q877" t="n">
         <v>20</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K878" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L878" t="n">
         <v>5000</v>
       </c>
       <c r="M878" t="n">
-        <v>4694</v>
+        <v>5000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Q878" t="n">
         <v>20</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="K879" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L879" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M879" t="n">
-        <v>4789</v>
+        <v>3500</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="Q879" t="n">
         <v>20</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="K880" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L880" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M880" t="n">
-        <v>4000</v>
+        <v>4694</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q880" t="n">
         <v>20</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="K881" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L881" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M881" t="n">
-        <v>4000</v>
+        <v>4789</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="Q881" t="n">
         <v>20</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63857,20 +63857,20 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K882" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L882" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M882" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q882" t="n">
         <v>20</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K883" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L883" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M883" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q883" t="n">
         <v>20</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="K884" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L884" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M884" t="n">
-        <v>4647</v>
+        <v>3000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="Q884" t="n">
         <v>20</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K885" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L885" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M885" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q885" t="n">
         <v>20</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="K886" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L886" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M886" t="n">
-        <v>3818</v>
+        <v>4647</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="Q886" t="n">
         <v>20</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="K887" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L887" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M887" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q887" t="n">
         <v>20</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="K888" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L888" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M888" t="n">
-        <v>5536</v>
+        <v>3818</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="Q888" t="n">
         <v>20</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="K889" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L889" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M889" t="n">
-        <v>5333</v>
+        <v>3500</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="Q889" t="n">
         <v>20</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="K890" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L890" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M890" t="n">
-        <v>4500</v>
+        <v>5536</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="Q890" t="n">
         <v>20</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="K891" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L891" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M891" t="n">
-        <v>4500</v>
+        <v>5333</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="Q891" t="n">
         <v>20</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K892" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L892" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M892" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="Q892" t="n">
         <v>20</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K893" t="n">
         <v>4500</v>
       </c>
       <c r="L893" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M893" t="n">
-        <v>4773</v>
+        <v>4500</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="Q893" t="n">
         <v>20</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K894" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L894" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M894" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64743,11 +64743,11 @@
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q894" t="n">
         <v>20</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K895" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L895" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M895" t="n">
-        <v>3875</v>
+        <v>4773</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="Q895" t="n">
         <v>20</v>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K896" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L896" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M896" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q896" t="n">
         <v>20</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="K897" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L897" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M897" t="n">
-        <v>6000</v>
+        <v>3875</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>300</v>
+        <v>194</v>
       </c>
       <c r="Q897" t="n">
         <v>20</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K898" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L898" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M898" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q898" t="n">
         <v>20</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>180</v>
+        <v>2800</v>
       </c>
       <c r="K899" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L899" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M899" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q899" t="n">
         <v>20</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K900" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L900" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M900" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q900" t="n">
         <v>20</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>1500</v>
+        <v>180</v>
       </c>
       <c r="K901" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L901" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M901" t="n">
-        <v>4700</v>
+        <v>3000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="Q901" t="n">
         <v>20</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="K902" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L902" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M902" t="n">
-        <v>4688</v>
+        <v>3000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="Q902" t="n">
         <v>20</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K903" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L903" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M903" t="n">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q903" t="n">
         <v>20</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K904" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L904" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M904" t="n">
-        <v>4000</v>
+        <v>4688</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="Q904" t="n">
         <v>20</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="K905" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L905" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M905" t="n">
-        <v>4437</v>
+        <v>4000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="Q905" t="n">
         <v>20</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K906" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L906" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M906" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q906" t="n">
         <v>20</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="K907" t="n">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="L907" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M907" t="n">
-        <v>3000</v>
+        <v>4437</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="Q907" t="n">
         <v>20</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K908" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L908" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M908" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q908" t="n">
         <v>20</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>3350</v>
+        <v>500</v>
       </c>
       <c r="K909" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L909" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M909" t="n">
-        <v>4318</v>
+        <v>3000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="Q909" t="n">
         <v>20</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="K910" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L910" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M910" t="n">
-        <v>4760</v>
+        <v>3000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="Q910" t="n">
         <v>20</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>1200</v>
+        <v>3350</v>
       </c>
       <c r="K911" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L911" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M911" t="n">
-        <v>3750</v>
+        <v>4318</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="Q911" t="n">
         <v>20</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="K912" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L912" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M912" t="n">
-        <v>4000</v>
+        <v>4760</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q912" t="n">
         <v>20</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="K913" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L913" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M913" t="n">
-        <v>5500</v>
+        <v>3750</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="Q913" t="n">
         <v>20</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K914" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L914" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M914" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q914" t="n">
         <v>20</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>600</v>
+        <v>2200</v>
       </c>
       <c r="K915" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L915" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M915" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="Q915" t="n">
         <v>20</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K916" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L916" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M916" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q916" t="n">
         <v>20</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K917" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L917" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M917" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="Q917" t="n">
         <v>20</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K918" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L918" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M918" t="n">
-        <v>3269</v>
+        <v>4000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="Q918" t="n">
         <v>20</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="K919" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L919" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M919" t="n">
-        <v>4750</v>
+        <v>3500</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="Q919" t="n">
         <v>20</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>3800</v>
+        <v>1300</v>
       </c>
       <c r="K920" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L920" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M920" t="n">
-        <v>4500</v>
+        <v>3269</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="Q920" t="n">
         <v>20</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="K921" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L921" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M921" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q921" t="n">
         <v>20</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="K922" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L922" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M922" t="n">
-        <v>3739</v>
+        <v>4500</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="Q922" t="n">
         <v>20</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="K923" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L923" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M923" t="n">
-        <v>3271</v>
+        <v>4000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="Q923" t="n">
         <v>20</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="K924" t="n">
         <v>3000</v>
       </c>
       <c r="L924" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M924" t="n">
-        <v>3286</v>
+        <v>3739</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="Q924" t="n">
         <v>20</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>2570</v>
+        <v>830</v>
       </c>
       <c r="K925" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L925" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M925" t="n">
-        <v>4222</v>
+        <v>3271</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="Q925" t="n">
         <v>20</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>3300</v>
+        <v>700</v>
       </c>
       <c r="K926" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L926" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M926" t="n">
-        <v>4439</v>
+        <v>3286</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="Q926" t="n">
         <v>20</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>790</v>
+        <v>2570</v>
       </c>
       <c r="K927" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L927" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M927" t="n">
-        <v>3778</v>
+        <v>4222</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="Q927" t="n">
         <v>20</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>1250</v>
+        <v>3300</v>
       </c>
       <c r="K928" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L928" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M928" t="n">
-        <v>3800</v>
+        <v>4439</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="Q928" t="n">
         <v>20</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>2500</v>
+        <v>790</v>
       </c>
       <c r="K929" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L929" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M929" t="n">
-        <v>5220</v>
+        <v>3778</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="Q929" t="n">
         <v>20</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>380</v>
+        <v>1250</v>
       </c>
       <c r="K930" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L930" t="n">
         <v>4000</v>
       </c>
       <c r="M930" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q930" t="n">
         <v>20</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>90</v>
+        <v>2500</v>
       </c>
       <c r="K931" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L931" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M931" t="n">
-        <v>3500</v>
+        <v>5220</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="Q931" t="n">
         <v>20</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="K932" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L932" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M932" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q932" t="n">
         <v>20</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>2200</v>
+        <v>90</v>
       </c>
       <c r="K933" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L933" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M933" t="n">
-        <v>5205</v>
+        <v>3500</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="Q933" t="n">
         <v>20</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>2800</v>
+        <v>150</v>
       </c>
       <c r="K934" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L934" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M934" t="n">
-        <v>5232</v>
+        <v>3500</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="Q934" t="n">
         <v>20</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K935" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L935" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M935" t="n">
-        <v>4000</v>
+        <v>5205</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="Q935" t="n">
         <v>20</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>350</v>
+        <v>2800</v>
       </c>
       <c r="K936" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L936" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M936" t="n">
-        <v>4500</v>
+        <v>5232</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="Q936" t="n">
         <v>20</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K937" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L937" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M937" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q937" t="n">
         <v>20</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67889,11 +67889,11 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="K938" t="n">
         <v>4500</v>
@@ -67911,7 +67911,7 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P938" t="n">
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K939" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L939" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M939" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q939" t="n">
         <v>20</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>880</v>
+        <v>430</v>
       </c>
       <c r="K940" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L940" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M940" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q940" t="n">
         <v>20</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>430</v>
+        <v>700</v>
       </c>
       <c r="K941" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L941" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M941" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q941" t="n">
         <v>20</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>340</v>
+        <v>880</v>
       </c>
       <c r="K942" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L942" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M942" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q942" t="n">
         <v>20</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>2800</v>
+        <v>430</v>
       </c>
       <c r="K943" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L943" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M943" t="n">
-        <v>7429</v>
+        <v>4000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>371</v>
+        <v>200</v>
       </c>
       <c r="Q943" t="n">
         <v>20</v>
@@ -68301,58 +68301,202 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E944" t="n">
+        <v>13</v>
+      </c>
+      <c r="F944" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J944" t="n">
+        <v>340</v>
+      </c>
+      <c r="K944" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L944" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M944" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N944" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O944" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P944" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>20</v>
+      </c>
+      <c r="R944" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>6</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D945" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E944" t="n">
-        <v>13</v>
-      </c>
-      <c r="F944" t="n">
-        <v>100114013</v>
-      </c>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>Zanahoria</t>
-        </is>
-      </c>
-      <c r="H944" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I944" t="inlineStr">
+      <c r="E945" t="n">
+        <v>13</v>
+      </c>
+      <c r="F945" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J945" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K945" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L945" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M945" t="n">
+        <v>7429</v>
+      </c>
+      <c r="N945" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O945" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P945" t="n">
+        <v>371</v>
+      </c>
+      <c r="Q945" t="n">
+        <v>20</v>
+      </c>
+      <c r="R945" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>6</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D946" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E946" t="n">
+        <v>13</v>
+      </c>
+      <c r="F946" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I946" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J944" t="n">
+      <c r="J946" t="n">
         <v>550</v>
       </c>
-      <c r="K944" t="n">
+      <c r="K946" t="n">
         <v>6000</v>
       </c>
-      <c r="L944" t="n">
+      <c r="L946" t="n">
         <v>6000</v>
       </c>
-      <c r="M944" t="n">
+      <c r="M946" t="n">
         <v>6000</v>
       </c>
-      <c r="N944" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O944" t="inlineStr">
+      <c r="N946" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O946" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P944" t="n">
+      <c r="P946" t="n">
         <v>300</v>
       </c>
-      <c r="Q944" t="n">
-        <v>20</v>
-      </c>
-      <c r="R944" t="inlineStr">
+      <c r="Q946" t="n">
+        <v>20</v>
+      </c>
+      <c r="R946" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R946"/>
+  <dimension ref="A1:R950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>1900</v>
+        <v>2040</v>
       </c>
       <c r="K907" t="n">
-        <v>4300</v>
+        <v>8000</v>
       </c>
       <c r="L907" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="M907" t="n">
-        <v>4437</v>
+        <v>8328</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>222</v>
+        <v>416</v>
       </c>
       <c r="Q907" t="n">
         <v>20</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>700</v>
+        <v>1650</v>
       </c>
       <c r="K908" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L908" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M908" t="n">
-        <v>3500</v>
+        <v>7794</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>175</v>
+        <v>390</v>
       </c>
       <c r="Q908" t="n">
         <v>20</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="K909" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L909" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M909" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q909" t="n">
         <v>20</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K910" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L910" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M910" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q910" t="n">
         <v>20</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>3350</v>
+        <v>1900</v>
       </c>
       <c r="K911" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="L911" t="n">
         <v>4500</v>
       </c>
       <c r="M911" t="n">
-        <v>4318</v>
+        <v>4437</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q911" t="n">
         <v>20</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K912" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L912" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M912" t="n">
-        <v>4760</v>
+        <v>3500</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="Q912" t="n">
         <v>20</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K913" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L913" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M913" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="Q913" t="n">
         <v>20</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K914" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L914" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M914" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q914" t="n">
         <v>20</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>2200</v>
+        <v>3350</v>
       </c>
       <c r="K915" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L915" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M915" t="n">
-        <v>5500</v>
+        <v>4318</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="Q915" t="n">
         <v>20</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="K916" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L916" t="n">
         <v>5000</v>
       </c>
       <c r="M916" t="n">
-        <v>5000</v>
+        <v>4760</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Q916" t="n">
         <v>20</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K917" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L917" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M917" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="Q917" t="n">
         <v>20</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66453,7 +66453,7 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K918" t="n">
         <v>4000</v>
@@ -66471,7 +66471,7 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P918" t="n">
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K919" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L919" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M919" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="Q919" t="n">
         <v>20</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J920" t="n">
         <v>1300</v>
       </c>
       <c r="K920" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L920" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M920" t="n">
-        <v>3269</v>
+        <v>5000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>163</v>
+        <v>250</v>
       </c>
       <c r="Q920" t="n">
         <v>20</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="K921" t="n">
         <v>4500</v>
       </c>
       <c r="L921" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M921" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="Q921" t="n">
         <v>20</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>3800</v>
+        <v>500</v>
       </c>
       <c r="K922" t="n">
         <v>4000</v>
       </c>
       <c r="L922" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M922" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q922" t="n">
         <v>20</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K923" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L923" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M923" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q923" t="n">
         <v>20</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="K924" t="n">
         <v>3000</v>
       </c>
       <c r="L924" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M924" t="n">
-        <v>3739</v>
+        <v>3269</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="Q924" t="n">
         <v>20</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>830</v>
+        <v>2600</v>
       </c>
       <c r="K925" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L925" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M925" t="n">
-        <v>3271</v>
+        <v>4750</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="Q925" t="n">
         <v>20</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>700</v>
+        <v>3800</v>
       </c>
       <c r="K926" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L926" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M926" t="n">
-        <v>3286</v>
+        <v>4500</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="Q926" t="n">
         <v>20</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>2570</v>
+        <v>800</v>
       </c>
       <c r="K927" t="n">
         <v>4000</v>
       </c>
       <c r="L927" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M927" t="n">
-        <v>4222</v>
+        <v>4000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="Q927" t="n">
         <v>20</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="K928" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L928" t="n">
         <v>4000</v>
       </c>
-      <c r="L928" t="n">
-        <v>5000</v>
-      </c>
       <c r="M928" t="n">
-        <v>4439</v>
+        <v>3739</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="Q928" t="n">
         <v>20</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>790</v>
+        <v>830</v>
       </c>
       <c r="K929" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L929" t="n">
         <v>3500</v>
       </c>
-      <c r="L929" t="n">
-        <v>4000</v>
-      </c>
       <c r="M929" t="n">
-        <v>3778</v>
+        <v>3271</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="Q929" t="n">
         <v>20</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="K930" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L930" t="n">
         <v>3500</v>
       </c>
-      <c r="L930" t="n">
-        <v>4000</v>
-      </c>
       <c r="M930" t="n">
-        <v>3800</v>
+        <v>3286</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="Q930" t="n">
         <v>20</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>2500</v>
+        <v>2570</v>
       </c>
       <c r="K931" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L931" t="n">
         <v>5000</v>
       </c>
-      <c r="L931" t="n">
-        <v>5500</v>
-      </c>
       <c r="M931" t="n">
-        <v>5220</v>
+        <v>4222</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="Q931" t="n">
         <v>20</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>380</v>
+        <v>3300</v>
       </c>
       <c r="K932" t="n">
         <v>4000</v>
       </c>
       <c r="L932" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M932" t="n">
-        <v>4000</v>
+        <v>4439</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="Q932" t="n">
         <v>20</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>90</v>
+        <v>790</v>
       </c>
       <c r="K933" t="n">
         <v>3500</v>
       </c>
       <c r="L933" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M933" t="n">
-        <v>3500</v>
+        <v>3778</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="Q933" t="n">
         <v>20</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>150</v>
+        <v>1250</v>
       </c>
       <c r="K934" t="n">
         <v>3500</v>
       </c>
       <c r="L934" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M934" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Q934" t="n">
         <v>20</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67677,7 +67677,7 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="K935" t="n">
         <v>5000</v>
@@ -67686,7 +67686,7 @@
         <v>5500</v>
       </c>
       <c r="M935" t="n">
-        <v>5205</v>
+        <v>5220</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q935" t="n">
         <v>20</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>2800</v>
+        <v>380</v>
       </c>
       <c r="K936" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L936" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M936" t="n">
-        <v>5232</v>
+        <v>4000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="Q936" t="n">
         <v>20</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="K937" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L937" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M937" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q937" t="n">
         <v>20</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K938" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L938" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M938" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q938" t="n">
         <v>20</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>340</v>
+        <v>2200</v>
       </c>
       <c r="K939" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L939" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M939" t="n">
-        <v>4500</v>
+        <v>5205</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="Q939" t="n">
         <v>20</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>430</v>
+        <v>2800</v>
       </c>
       <c r="K940" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L940" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M940" t="n">
-        <v>4500</v>
+        <v>5232</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="Q940" t="n">
         <v>20</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K941" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L941" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M941" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q941" t="n">
         <v>20</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>880</v>
+        <v>350</v>
       </c>
       <c r="K942" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L942" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M942" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q942" t="n">
         <v>20</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K943" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L943" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M943" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q943" t="n">
         <v>20</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K944" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L944" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M944" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q944" t="n">
         <v>20</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="K945" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L945" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M945" t="n">
-        <v>7429</v>
+        <v>5000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="Q945" t="n">
         <v>20</v>
@@ -68445,58 +68445,346 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E946" t="n">
+        <v>13</v>
+      </c>
+      <c r="F946" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J946" t="n">
+        <v>880</v>
+      </c>
+      <c r="K946" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L946" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M946" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N946" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O946" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P946" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q946" t="n">
+        <v>20</v>
+      </c>
+      <c r="R946" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>6</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D947" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E947" t="n">
+        <v>13</v>
+      </c>
+      <c r="F947" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J947" t="n">
+        <v>430</v>
+      </c>
+      <c r="K947" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L947" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M947" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N947" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O947" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P947" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q947" t="n">
+        <v>20</v>
+      </c>
+      <c r="R947" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>6</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D948" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E948" t="n">
+        <v>13</v>
+      </c>
+      <c r="F948" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J948" t="n">
+        <v>340</v>
+      </c>
+      <c r="K948" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L948" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M948" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N948" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O948" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P948" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q948" t="n">
+        <v>20</v>
+      </c>
+      <c r="R948" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>6</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D949" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E946" t="n">
-        <v>13</v>
-      </c>
-      <c r="F946" t="n">
-        <v>100114013</v>
-      </c>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>Zanahoria</t>
-        </is>
-      </c>
-      <c r="H946" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I946" t="inlineStr">
+      <c r="E949" t="n">
+        <v>13</v>
+      </c>
+      <c r="F949" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J949" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K949" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L949" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M949" t="n">
+        <v>7429</v>
+      </c>
+      <c r="N949" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O949" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P949" t="n">
+        <v>371</v>
+      </c>
+      <c r="Q949" t="n">
+        <v>20</v>
+      </c>
+      <c r="R949" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>6</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D950" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E950" t="n">
+        <v>13</v>
+      </c>
+      <c r="F950" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I950" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J946" t="n">
+      <c r="J950" t="n">
         <v>550</v>
       </c>
-      <c r="K946" t="n">
+      <c r="K950" t="n">
         <v>6000</v>
       </c>
-      <c r="L946" t="n">
+      <c r="L950" t="n">
         <v>6000</v>
       </c>
-      <c r="M946" t="n">
+      <c r="M950" t="n">
         <v>6000</v>
       </c>
-      <c r="N946" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O946" t="inlineStr">
+      <c r="N950" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O950" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P946" t="n">
+      <c r="P950" t="n">
         <v>300</v>
       </c>
-      <c r="Q946" t="n">
-        <v>20</v>
-      </c>
-      <c r="R946" t="inlineStr">
+      <c r="Q950" t="n">
+        <v>20</v>
+      </c>
+      <c r="R950" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R955"/>
+  <dimension ref="A1:R960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56157,16 +56157,16 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K775" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L775" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M775" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="Q775" t="n">
         <v>20</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56229,16 +56229,16 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>3300</v>
+        <v>1450</v>
       </c>
       <c r="K776" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L776" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M776" t="n">
-        <v>4485</v>
+        <v>8000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>224</v>
+        <v>400</v>
       </c>
       <c r="Q776" t="n">
         <v>20</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56301,16 +56301,16 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K777" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L777" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M777" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q777" t="n">
         <v>20</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56373,16 +56373,16 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K778" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L778" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M778" t="n">
-        <v>3731</v>
+        <v>7000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>187</v>
+        <v>350</v>
       </c>
       <c r="Q778" t="n">
         <v>20</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56448,13 +56448,13 @@
         <v>600</v>
       </c>
       <c r="K779" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L779" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M779" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56463,11 +56463,11 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q779" t="n">
         <v>20</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="K780" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L780" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M780" t="n">
-        <v>6776</v>
+        <v>3000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>339</v>
+        <v>150</v>
       </c>
       <c r="Q780" t="n">
         <v>20</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56585,20 +56585,20 @@
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>560</v>
+        <v>3300</v>
       </c>
       <c r="K781" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L781" t="n">
         <v>5000</v>
       </c>
       <c r="M781" t="n">
-        <v>5000</v>
+        <v>4485</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="Q781" t="n">
         <v>20</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56657,11 +56657,11 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="K782" t="n">
         <v>5000</v>
@@ -56679,7 +56679,7 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P782" t="n">
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56729,20 +56729,20 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J783" t="n">
         <v>1300</v>
       </c>
       <c r="K783" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L783" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M783" t="n">
-        <v>9000</v>
+        <v>3731</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>450</v>
+        <v>187</v>
       </c>
       <c r="Q783" t="n">
         <v>20</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>2300</v>
+        <v>600</v>
       </c>
       <c r="K784" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L784" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M784" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q784" t="n">
         <v>20</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56873,20 +56873,20 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>500</v>
+        <v>2900</v>
       </c>
       <c r="K785" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L785" t="n">
         <v>7000</v>
       </c>
       <c r="M785" t="n">
-        <v>7000</v>
+        <v>6776</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56895,11 +56895,11 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q785" t="n">
         <v>20</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56949,16 +56949,16 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>730</v>
+        <v>560</v>
       </c>
       <c r="K786" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L786" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M786" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q786" t="n">
         <v>20</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57017,20 +57017,20 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>790</v>
+        <v>350</v>
       </c>
       <c r="K787" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L787" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M787" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q787" t="n">
         <v>20</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57093,16 +57093,16 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>880</v>
+        <v>1300</v>
       </c>
       <c r="K788" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L788" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M788" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q788" t="n">
         <v>20</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57165,16 +57165,16 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>610</v>
+        <v>2300</v>
       </c>
       <c r="K789" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L789" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M789" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57183,11 +57183,11 @@
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q789" t="n">
         <v>20</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57237,16 +57237,16 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K790" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L790" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M790" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q790" t="n">
         <v>20</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57309,16 +57309,16 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>340</v>
+        <v>730</v>
       </c>
       <c r="K791" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L791" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M791" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q791" t="n">
         <v>20</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="K792" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L792" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M792" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q792" t="n">
         <v>20</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57453,16 +57453,16 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>1900</v>
+        <v>880</v>
       </c>
       <c r="K793" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L793" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M793" t="n">
-        <v>4342</v>
+        <v>6000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57471,11 +57471,11 @@
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="Q793" t="n">
         <v>20</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>800</v>
+        <v>610</v>
       </c>
       <c r="K794" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L794" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M794" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="Q794" t="n">
         <v>20</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57593,33 +57593,33 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J795" t="n">
+        <v>340</v>
+      </c>
+      <c r="K795" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L795" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M795" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N795" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O795" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P795" t="n">
         <v>250</v>
-      </c>
-      <c r="K795" t="n">
-        <v>4500</v>
-      </c>
-      <c r="L795" t="n">
-        <v>4500</v>
-      </c>
-      <c r="M795" t="n">
-        <v>4500</v>
-      </c>
-      <c r="N795" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O795" t="inlineStr">
-        <is>
-          <t>Chillán</t>
-        </is>
-      </c>
-      <c r="P795" t="n">
-        <v>225</v>
       </c>
       <c r="Q795" t="n">
         <v>20</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57665,20 +57665,20 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J796" t="n">
         <v>340</v>
       </c>
       <c r="K796" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L796" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M796" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q796" t="n">
         <v>20</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57737,11 +57737,11 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K797" t="n">
         <v>5000</v>
@@ -57759,7 +57759,7 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P797" t="n">
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57813,16 +57813,16 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>970</v>
+        <v>1900</v>
       </c>
       <c r="K798" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L798" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M798" t="n">
-        <v>5000</v>
+        <v>4342</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="Q798" t="n">
         <v>20</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57885,16 +57885,16 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K799" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L799" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M799" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q799" t="n">
         <v>20</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K800" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L800" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M800" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q800" t="n">
         <v>20</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58029,16 +58029,16 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K801" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L801" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M801" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58047,11 +58047,11 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="Q801" t="n">
         <v>20</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58101,16 +58101,16 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K802" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L802" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M802" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q802" t="n">
         <v>20</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>1400</v>
+        <v>970</v>
       </c>
       <c r="K803" t="n">
         <v>5000</v>
       </c>
       <c r="L803" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M803" t="n">
-        <v>5607</v>
+        <v>5000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="Q803" t="n">
         <v>20</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>770</v>
+        <v>340</v>
       </c>
       <c r="K804" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L804" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M804" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q804" t="n">
         <v>20</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58317,7 +58317,7 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="K805" t="n">
         <v>4000</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>2670</v>
+        <v>380</v>
       </c>
       <c r="K806" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L806" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M806" t="n">
-        <v>4225</v>
+        <v>3000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="Q806" t="n">
         <v>20</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K807" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L807" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M807" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="Q807" t="n">
         <v>20</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58533,16 +58533,16 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="K808" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L808" t="n">
         <v>6000</v>
       </c>
       <c r="M808" t="n">
-        <v>6000</v>
+        <v>5607</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q808" t="n">
         <v>20</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>2300</v>
+        <v>770</v>
       </c>
       <c r="K809" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L809" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M809" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q809" t="n">
         <v>20</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58677,16 +58677,16 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>1300</v>
+        <v>490</v>
       </c>
       <c r="K810" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L810" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M810" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q810" t="n">
         <v>20</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>500</v>
+        <v>2670</v>
       </c>
       <c r="K811" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L811" t="n">
         <v>4500</v>
       </c>
       <c r="M811" t="n">
-        <v>4500</v>
+        <v>4225</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="Q811" t="n">
         <v>20</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K812" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L812" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M812" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q812" t="n">
         <v>20</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>280</v>
+        <v>3500</v>
       </c>
       <c r="K813" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L813" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M813" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="Q813" t="n">
         <v>20</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58965,16 +58965,16 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="K814" t="n">
         <v>5500</v>
       </c>
       <c r="L814" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M814" t="n">
-        <v>5842</v>
+        <v>5500</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="Q814" t="n">
         <v>20</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59033,11 +59033,11 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>1450</v>
+        <v>1300</v>
       </c>
       <c r="K815" t="n">
         <v>5000</v>
@@ -59055,7 +59055,7 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P815" t="n">
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59109,16 +59109,16 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="K816" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L816" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M816" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q816" t="n">
         <v>20</v>
@@ -59177,11 +59177,11 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K817" t="n">
         <v>4000</v>
@@ -59199,7 +59199,7 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P817" t="n">
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="K818" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L818" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M818" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q818" t="n">
         <v>20</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59325,16 +59325,16 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="K819" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L819" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M819" t="n">
-        <v>6771</v>
+        <v>5842</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="Q819" t="n">
         <v>20</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>2100</v>
+        <v>1450</v>
       </c>
       <c r="K820" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L820" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M820" t="n">
-        <v>6190</v>
+        <v>5000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="Q820" t="n">
         <v>20</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="K821" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L821" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M821" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q821" t="n">
         <v>20</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59541,16 +59541,16 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K822" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L822" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M822" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q822" t="n">
         <v>20</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59613,16 +59613,16 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K823" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L823" t="n">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="M823" t="n">
-        <v>3138</v>
+        <v>5000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="Q823" t="n">
         <v>20</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>1540</v>
+        <v>2400</v>
       </c>
       <c r="K824" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L824" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M824" t="n">
-        <v>4682</v>
+        <v>6771</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="Q824" t="n">
         <v>20</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>960</v>
+        <v>2100</v>
       </c>
       <c r="K825" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="L825" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M825" t="n">
-        <v>3921</v>
+        <v>6190</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="Q825" t="n">
         <v>20</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K826" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L826" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M826" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q826" t="n">
         <v>20</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J827" t="n">
         <v>500</v>
       </c>
       <c r="K827" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L827" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M827" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q827" t="n">
         <v>20</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>2300</v>
+        <v>500</v>
       </c>
       <c r="K828" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L828" t="n">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="M828" t="n">
-        <v>4761</v>
+        <v>3138</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="Q828" t="n">
         <v>20</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60045,7 +60045,7 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>2400</v>
+        <v>1540</v>
       </c>
       <c r="K829" t="n">
         <v>4500</v>
@@ -60054,7 +60054,7 @@
         <v>5000</v>
       </c>
       <c r="M829" t="n">
-        <v>4758</v>
+        <v>4682</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q829" t="n">
         <v>20</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60117,16 +60117,16 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="K830" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="L830" t="n">
         <v>4000</v>
       </c>
       <c r="M830" t="n">
-        <v>4000</v>
+        <v>3921</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q830" t="n">
         <v>20</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K831" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L831" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M831" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q831" t="n">
         <v>20</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="K832" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L832" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M832" t="n">
-        <v>4719</v>
+        <v>3500</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="Q832" t="n">
         <v>20</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="K833" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L833" t="n">
         <v>5000</v>
       </c>
       <c r="M833" t="n">
-        <v>4707</v>
+        <v>4761</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q833" t="n">
         <v>20</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>700</v>
+        <v>2400</v>
       </c>
       <c r="K834" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L834" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M834" t="n">
-        <v>4000</v>
+        <v>4758</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q834" t="n">
         <v>20</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60477,16 +60477,16 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="K835" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L835" t="n">
         <v>4000</v>
       </c>
       <c r="M835" t="n">
-        <v>3820</v>
+        <v>4000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q835" t="n">
         <v>20</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="K836" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L836" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M836" t="n">
-        <v>5182</v>
+        <v>4000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="Q836" t="n">
         <v>20</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60621,7 +60621,7 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="K837" t="n">
         <v>4500</v>
@@ -60630,7 +60630,7 @@
         <v>5000</v>
       </c>
       <c r="M837" t="n">
-        <v>4771</v>
+        <v>4719</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q837" t="n">
         <v>20</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>360</v>
+        <v>3000</v>
       </c>
       <c r="K838" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="L838" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M838" t="n">
-        <v>4000</v>
+        <v>4707</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60711,11 +60711,11 @@
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q838" t="n">
         <v>20</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="K839" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L839" t="n">
         <v>4000</v>
       </c>
       <c r="M839" t="n">
-        <v>3773</v>
+        <v>4000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60783,11 +60783,11 @@
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q839" t="n">
         <v>20</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>450</v>
+        <v>1250</v>
       </c>
       <c r="K840" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L840" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M840" t="n">
-        <v>5500</v>
+        <v>3820</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60855,11 +60855,11 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="Q840" t="n">
         <v>20</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>430</v>
+        <v>2200</v>
       </c>
       <c r="K841" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L841" t="n">
         <v>5500</v>
       </c>
       <c r="M841" t="n">
-        <v>5500</v>
+        <v>5182</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="Q841" t="n">
         <v>20</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>700</v>
+        <v>1640</v>
       </c>
       <c r="K842" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L842" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M842" t="n">
-        <v>6000</v>
+        <v>4771</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="Q842" t="n">
         <v>20</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="K843" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L843" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M843" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q843" t="n">
         <v>20</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="K844" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L844" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M844" t="n">
-        <v>5000</v>
+        <v>3773</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="Q844" t="n">
         <v>20</v>
@@ -61193,20 +61193,20 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K845" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L845" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M845" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61215,11 +61215,11 @@
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q845" t="n">
         <v>20</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61265,20 +61265,20 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>2300</v>
+        <v>430</v>
       </c>
       <c r="K846" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L846" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M846" t="n">
-        <v>4826</v>
+        <v>5500</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61287,11 +61287,11 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="Q846" t="n">
         <v>20</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>2600</v>
+        <v>700</v>
       </c>
       <c r="K847" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L847" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M847" t="n">
-        <v>4462</v>
+        <v>6000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="Q847" t="n">
         <v>20</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J848" t="n">
         <v>700</v>
       </c>
       <c r="K848" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L848" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M848" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q848" t="n">
         <v>20</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="K849" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L849" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M849" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61503,11 +61503,11 @@
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q849" t="n">
         <v>20</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="K850" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L850" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M850" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q850" t="n">
         <v>20</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>180</v>
+        <v>2300</v>
       </c>
       <c r="K851" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L851" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M851" t="n">
-        <v>3000</v>
+        <v>4826</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="Q851" t="n">
         <v>20</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K852" t="n">
         <v>4000</v>
       </c>
       <c r="L852" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M852" t="n">
-        <v>4204</v>
+        <v>4462</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="Q852" t="n">
         <v>20</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>3100</v>
+        <v>700</v>
       </c>
       <c r="K853" t="n">
         <v>4000</v>
       </c>
       <c r="L853" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M853" t="n">
-        <v>4210</v>
+        <v>4000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q853" t="n">
         <v>20</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K854" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L854" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M854" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q854" t="n">
         <v>20</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="K855" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L855" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M855" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q855" t="n">
         <v>20</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K856" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L856" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M856" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q856" t="n">
         <v>20</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62061,16 +62061,16 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>3170</v>
+        <v>2700</v>
       </c>
       <c r="K857" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L857" t="n">
         <v>4500</v>
       </c>
-      <c r="L857" t="n">
-        <v>5000</v>
-      </c>
       <c r="M857" t="n">
-        <v>4705</v>
+        <v>4204</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="Q857" t="n">
         <v>20</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="K858" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L858" t="n">
         <v>4500</v>
       </c>
-      <c r="L858" t="n">
-        <v>5000</v>
-      </c>
       <c r="M858" t="n">
-        <v>4704</v>
+        <v>4210</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="Q858" t="n">
         <v>20</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K859" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L859" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M859" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q859" t="n">
         <v>20</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K860" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L860" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M860" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q860" t="n">
         <v>20</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62352,13 +62352,13 @@
         <v>400</v>
       </c>
       <c r="K861" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L861" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M861" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q861" t="n">
         <v>20</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>1770</v>
+        <v>3170</v>
       </c>
       <c r="K862" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L862" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M862" t="n">
-        <v>8000</v>
+        <v>4705</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>400</v>
+        <v>235</v>
       </c>
       <c r="Q862" t="n">
         <v>20</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="K863" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L863" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M863" t="n">
-        <v>8000</v>
+        <v>4704</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>400</v>
+        <v>235</v>
       </c>
       <c r="Q863" t="n">
         <v>20</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="K864" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L864" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M864" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q864" t="n">
         <v>20</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K865" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L865" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M865" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q865" t="n">
         <v>20</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K866" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L866" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M866" t="n">
-        <v>4170</v>
+        <v>5000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="Q866" t="n">
         <v>20</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>600</v>
+        <v>1770</v>
       </c>
       <c r="K867" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L867" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M867" t="n">
-        <v>3767</v>
+        <v>8000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>188</v>
+        <v>400</v>
       </c>
       <c r="Q867" t="n">
         <v>20</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>2580</v>
+        <v>1100</v>
       </c>
       <c r="K868" t="n">
         <v>8000</v>
       </c>
       <c r="L868" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M868" t="n">
-        <v>8465</v>
+        <v>8000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="Q868" t="n">
         <v>20</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62925,16 +62925,16 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>470</v>
+        <v>650</v>
       </c>
       <c r="K869" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L869" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M869" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q869" t="n">
         <v>20</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K870" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L870" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M870" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63015,11 +63015,11 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="Q870" t="n">
         <v>20</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>350</v>
+        <v>2800</v>
       </c>
       <c r="K871" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L871" t="n">
         <v>4500</v>
       </c>
       <c r="M871" t="n">
-        <v>4500</v>
+        <v>4170</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="Q871" t="n">
         <v>20</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="K872" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L872" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M872" t="n">
-        <v>5000</v>
+        <v>3767</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="Q872" t="n">
         <v>20</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>790</v>
+        <v>2580</v>
       </c>
       <c r="K873" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L873" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M873" t="n">
-        <v>5000</v>
+        <v>8465</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>250</v>
+        <v>423</v>
       </c>
       <c r="Q873" t="n">
         <v>20</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="K874" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L874" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M874" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q874" t="n">
         <v>20</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="K875" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L875" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M875" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63375,11 +63375,11 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q875" t="n">
         <v>20</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>1900</v>
+        <v>350</v>
       </c>
       <c r="K876" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L876" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M876" t="n">
-        <v>7789</v>
+        <v>4500</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>389</v>
+        <v>225</v>
       </c>
       <c r="Q876" t="n">
         <v>20</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>1700</v>
+        <v>880</v>
       </c>
       <c r="K877" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L877" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M877" t="n">
-        <v>7735</v>
+        <v>5000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>387</v>
+        <v>250</v>
       </c>
       <c r="Q877" t="n">
         <v>20</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="K878" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L878" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M878" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q878" t="n">
         <v>20</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63645,16 +63645,16 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="K879" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L879" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M879" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q879" t="n">
         <v>20</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="K880" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L880" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M880" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63735,11 +63735,11 @@
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q880" t="n">
         <v>20</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="K881" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="L881" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M881" t="n">
-        <v>3500</v>
+        <v>7789</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63807,11 +63807,11 @@
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>175</v>
+        <v>389</v>
       </c>
       <c r="Q881" t="n">
         <v>20</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="K882" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L882" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M882" t="n">
-        <v>4604</v>
+        <v>7735</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63879,11 +63879,11 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>230</v>
+        <v>387</v>
       </c>
       <c r="Q882" t="n">
         <v>20</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K883" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L883" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M883" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63951,11 +63951,11 @@
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q883" t="n">
         <v>20</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="K884" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L884" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M884" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64023,11 +64023,11 @@
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="Q884" t="n">
         <v>20</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K885" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L885" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M885" t="n">
-        <v>4694</v>
+        <v>3000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="Q885" t="n">
         <v>20</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K886" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L886" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M886" t="n">
-        <v>4789</v>
+        <v>3500</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="Q886" t="n">
         <v>20</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>200</v>
+        <v>2400</v>
       </c>
       <c r="K887" t="n">
         <v>4000</v>
       </c>
       <c r="L887" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M887" t="n">
-        <v>4000</v>
+        <v>4604</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="Q887" t="n">
         <v>20</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K888" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L888" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M888" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q888" t="n">
         <v>20</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J889" t="n">
         <v>800</v>
       </c>
       <c r="K889" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L889" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M889" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q889" t="n">
         <v>20</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K890" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L890" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M890" t="n">
-        <v>3000</v>
+        <v>4694</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="Q890" t="n">
         <v>20</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64509,7 +64509,7 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="K891" t="n">
         <v>4500</v>
@@ -64518,7 +64518,7 @@
         <v>5000</v>
       </c>
       <c r="M891" t="n">
-        <v>4647</v>
+        <v>4789</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q891" t="n">
         <v>20</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="K892" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L892" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M892" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64599,11 +64599,11 @@
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q892" t="n">
         <v>20</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K893" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L893" t="n">
         <v>4000</v>
       </c>
       <c r="M893" t="n">
-        <v>3818</v>
+        <v>4000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q893" t="n">
         <v>20</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K894" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L894" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M894" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64743,11 +64743,11 @@
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q894" t="n">
         <v>20</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K895" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L895" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M895" t="n">
-        <v>5536</v>
+        <v>3000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>277</v>
+        <v>150</v>
       </c>
       <c r="Q895" t="n">
         <v>20</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="K896" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L896" t="n">
         <v>5000</v>
       </c>
-      <c r="L896" t="n">
-        <v>6000</v>
-      </c>
       <c r="M896" t="n">
-        <v>5333</v>
+        <v>4647</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64887,11 +64887,11 @@
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="Q896" t="n">
         <v>20</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K897" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L897" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M897" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q897" t="n">
         <v>20</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K898" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L898" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M898" t="n">
-        <v>4500</v>
+        <v>3818</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="Q898" t="n">
         <v>20</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K899" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L899" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M899" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q899" t="n">
         <v>20</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K900" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L900" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M900" t="n">
-        <v>4773</v>
+        <v>5536</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="Q900" t="n">
         <v>20</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="K901" t="n">
         <v>5000</v>
       </c>
       <c r="L901" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M901" t="n">
-        <v>5000</v>
+        <v>5333</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Q901" t="n">
         <v>20</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K902" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L902" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M902" t="n">
-        <v>3875</v>
+        <v>4500</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="Q902" t="n">
         <v>20</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65376,13 +65376,13 @@
         <v>400</v>
       </c>
       <c r="K903" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L903" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M903" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q903" t="n">
         <v>20</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="K904" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L904" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M904" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q904" t="n">
         <v>20</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="K905" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L905" t="n">
         <v>5000</v>
       </c>
       <c r="M905" t="n">
-        <v>5000</v>
+        <v>4773</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="Q905" t="n">
         <v>20</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="K906" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L906" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M906" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q906" t="n">
         <v>20</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K907" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L907" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M907" t="n">
-        <v>3000</v>
+        <v>3875</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65679,11 +65679,11 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="Q907" t="n">
         <v>20</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K908" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L908" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M908" t="n">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="Q908" t="n">
         <v>20</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="K909" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L909" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M909" t="n">
-        <v>4688</v>
+        <v>6000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="Q909" t="n">
         <v>20</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K910" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L910" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M910" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q910" t="n">
         <v>20</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K911" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L911" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M911" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q911" t="n">
         <v>20</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>2040</v>
+        <v>200</v>
       </c>
       <c r="K912" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L912" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M912" t="n">
-        <v>8328</v>
+        <v>3000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>416</v>
+        <v>150</v>
       </c>
       <c r="Q912" t="n">
         <v>20</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="K913" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L913" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M913" t="n">
-        <v>7794</v>
+        <v>4700</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="Q913" t="n">
         <v>20</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>470</v>
+        <v>1600</v>
       </c>
       <c r="K914" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L914" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M914" t="n">
-        <v>6000</v>
+        <v>4688</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="Q914" t="n">
         <v>20</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K915" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L915" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M915" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q915" t="n">
         <v>20</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K916" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L916" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M916" t="n">
-        <v>4437</v>
+        <v>4000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="Q916" t="n">
         <v>20</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>700</v>
+        <v>2040</v>
       </c>
       <c r="K917" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L917" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="M917" t="n">
-        <v>3500</v>
+        <v>8328</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>175</v>
+        <v>416</v>
       </c>
       <c r="Q917" t="n">
         <v>20</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="K918" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L918" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M918" t="n">
-        <v>3000</v>
+        <v>7794</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="Q918" t="n">
         <v>20</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="K919" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L919" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M919" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q919" t="n">
         <v>20</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>3350</v>
+        <v>350</v>
       </c>
       <c r="K920" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L920" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M920" t="n">
-        <v>4318</v>
+        <v>6000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="Q920" t="n">
         <v>20</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="K921" t="n">
+        <v>4300</v>
+      </c>
+      <c r="L921" t="n">
         <v>4500</v>
       </c>
-      <c r="L921" t="n">
-        <v>5000</v>
-      </c>
       <c r="M921" t="n">
-        <v>4760</v>
+        <v>4437</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="Q921" t="n">
         <v>20</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K922" t="n">
         <v>3500</v>
       </c>
       <c r="L922" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M922" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="Q922" t="n">
         <v>20</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K923" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L923" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M923" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q923" t="n">
         <v>20</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K924" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L924" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M924" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="Q924" t="n">
         <v>20</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>1300</v>
+        <v>3350</v>
       </c>
       <c r="K925" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L925" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M925" t="n">
-        <v>5000</v>
+        <v>4318</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="Q925" t="n">
         <v>20</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="K926" t="n">
         <v>4500</v>
       </c>
       <c r="L926" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M926" t="n">
-        <v>4500</v>
+        <v>4760</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="Q926" t="n">
         <v>20</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K927" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L927" t="n">
         <v>4000</v>
       </c>
       <c r="M927" t="n">
-        <v>4000</v>
+        <v>3750</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Q927" t="n">
         <v>20</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K928" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L928" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M928" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q928" t="n">
         <v>20</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="K929" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L929" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M929" t="n">
-        <v>3269</v>
+        <v>5500</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="Q929" t="n">
         <v>20</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="K930" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L930" t="n">
         <v>5000</v>
       </c>
       <c r="M930" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q930" t="n">
         <v>20</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,17 +67385,17 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>3800</v>
+        <v>600</v>
       </c>
       <c r="K931" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L931" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M931" t="n">
         <v>4500</v>
@@ -67407,7 +67407,7 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P931" t="n">
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67461,7 +67461,7 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K932" t="n">
         <v>4000</v>
@@ -67479,7 +67479,7 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P932" t="n">
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="K933" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L933" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M933" t="n">
-        <v>3739</v>
+        <v>3500</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67551,11 +67551,11 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q933" t="n">
         <v>20</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67605,7 +67605,7 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>830</v>
+        <v>1300</v>
       </c>
       <c r="K934" t="n">
         <v>3000</v>
@@ -67614,7 +67614,7 @@
         <v>3500</v>
       </c>
       <c r="M934" t="n">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q934" t="n">
         <v>20</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>700</v>
+        <v>2600</v>
       </c>
       <c r="K935" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L935" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M935" t="n">
-        <v>3286</v>
+        <v>4750</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="Q935" t="n">
         <v>20</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67749,7 +67749,7 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>2570</v>
+        <v>3800</v>
       </c>
       <c r="K936" t="n">
         <v>4000</v>
@@ -67758,7 +67758,7 @@
         <v>5000</v>
       </c>
       <c r="M936" t="n">
-        <v>4222</v>
+        <v>4500</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="Q936" t="n">
         <v>20</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>3300</v>
+        <v>800</v>
       </c>
       <c r="K937" t="n">
         <v>4000</v>
       </c>
       <c r="L937" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M937" t="n">
-        <v>4439</v>
+        <v>4000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="Q937" t="n">
         <v>20</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>790</v>
+        <v>2300</v>
       </c>
       <c r="K938" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L938" t="n">
         <v>4000</v>
       </c>
       <c r="M938" t="n">
-        <v>3778</v>
+        <v>3739</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q938" t="n">
         <v>20</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>1250</v>
+        <v>830</v>
       </c>
       <c r="K939" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L939" t="n">
         <v>3500</v>
       </c>
-      <c r="L939" t="n">
-        <v>4000</v>
-      </c>
       <c r="M939" t="n">
-        <v>3800</v>
+        <v>3271</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="Q939" t="n">
         <v>20</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K940" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L940" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M940" t="n">
-        <v>5220</v>
+        <v>3286</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="Q940" t="n">
         <v>20</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>380</v>
+        <v>2570</v>
       </c>
       <c r="K941" t="n">
         <v>4000</v>
       </c>
       <c r="L941" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M941" t="n">
-        <v>4000</v>
+        <v>4222</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q941" t="n">
         <v>20</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>90</v>
+        <v>3300</v>
       </c>
       <c r="K942" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L942" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M942" t="n">
-        <v>3500</v>
+        <v>4439</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="Q942" t="n">
         <v>20</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>150</v>
+        <v>790</v>
       </c>
       <c r="K943" t="n">
         <v>3500</v>
       </c>
       <c r="L943" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M943" t="n">
-        <v>3500</v>
+        <v>3778</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="Q943" t="n">
         <v>20</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>2200</v>
+        <v>1250</v>
       </c>
       <c r="K944" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L944" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M944" t="n">
-        <v>5205</v>
+        <v>3800</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="Q944" t="n">
         <v>20</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68397,7 +68397,7 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K945" t="n">
         <v>5000</v>
@@ -68406,7 +68406,7 @@
         <v>5500</v>
       </c>
       <c r="M945" t="n">
-        <v>5232</v>
+        <v>5220</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q945" t="n">
         <v>20</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68469,7 +68469,7 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K946" t="n">
         <v>4000</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="K947" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L947" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M947" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q947" t="n">
         <v>20</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K948" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L948" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M948" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q948" t="n">
         <v>20</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>430</v>
+        <v>2200</v>
       </c>
       <c r="K949" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L949" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M949" t="n">
-        <v>4500</v>
+        <v>5205</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="Q949" t="n">
         <v>20</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="K950" t="n">
         <v>5000</v>
       </c>
       <c r="L950" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M950" t="n">
-        <v>5000</v>
+        <v>5232</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q950" t="n">
         <v>20</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="K951" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L951" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M951" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q951" t="n">
         <v>20</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="K952" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L952" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M952" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q952" t="n">
         <v>20</v>
@@ -68969,20 +68969,20 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J953" t="n">
         <v>340</v>
       </c>
       <c r="K953" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L953" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M953" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q953" t="n">
         <v>20</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>2800</v>
+        <v>430</v>
       </c>
       <c r="K954" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L954" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M954" t="n">
-        <v>7429</v>
+        <v>4500</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>371</v>
+        <v>225</v>
       </c>
       <c r="Q954" t="n">
         <v>20</v>
@@ -69093,58 +69093,418 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E955" t="n">
+        <v>13</v>
+      </c>
+      <c r="F955" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J955" t="n">
+        <v>700</v>
+      </c>
+      <c r="K955" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L955" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M955" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N955" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O955" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P955" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q955" t="n">
+        <v>20</v>
+      </c>
+      <c r="R955" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>6</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D956" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E956" t="n">
+        <v>13</v>
+      </c>
+      <c r="F956" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J956" t="n">
+        <v>880</v>
+      </c>
+      <c r="K956" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L956" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M956" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N956" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O956" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P956" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q956" t="n">
+        <v>20</v>
+      </c>
+      <c r="R956" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>6</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D957" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E957" t="n">
+        <v>13</v>
+      </c>
+      <c r="F957" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J957" t="n">
+        <v>430</v>
+      </c>
+      <c r="K957" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L957" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M957" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N957" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O957" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P957" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q957" t="n">
+        <v>20</v>
+      </c>
+      <c r="R957" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>6</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D958" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E958" t="n">
+        <v>13</v>
+      </c>
+      <c r="F958" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J958" t="n">
+        <v>340</v>
+      </c>
+      <c r="K958" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L958" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M958" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N958" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O958" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P958" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q958" t="n">
+        <v>20</v>
+      </c>
+      <c r="R958" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>6</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D959" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E955" t="n">
-        <v>13</v>
-      </c>
-      <c r="F955" t="n">
-        <v>100114013</v>
-      </c>
-      <c r="G955" t="inlineStr">
-        <is>
-          <t>Zanahoria</t>
-        </is>
-      </c>
-      <c r="H955" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I955" t="inlineStr">
+      <c r="E959" t="n">
+        <v>13</v>
+      </c>
+      <c r="F959" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J959" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K959" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L959" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M959" t="n">
+        <v>7429</v>
+      </c>
+      <c r="N959" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O959" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P959" t="n">
+        <v>371</v>
+      </c>
+      <c r="Q959" t="n">
+        <v>20</v>
+      </c>
+      <c r="R959" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>6</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D960" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E960" t="n">
+        <v>13</v>
+      </c>
+      <c r="F960" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I960" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J955" t="n">
+      <c r="J960" t="n">
         <v>550</v>
       </c>
-      <c r="K955" t="n">
+      <c r="K960" t="n">
         <v>6000</v>
       </c>
-      <c r="L955" t="n">
+      <c r="L960" t="n">
         <v>6000</v>
       </c>
-      <c r="M955" t="n">
+      <c r="M960" t="n">
         <v>6000</v>
       </c>
-      <c r="N955" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O955" t="inlineStr">
+      <c r="N960" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O960" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P955" t="n">
+      <c r="P960" t="n">
         <v>300</v>
       </c>
-      <c r="Q955" t="n">
-        <v>20</v>
-      </c>
-      <c r="R955" t="inlineStr">
+      <c r="Q960" t="n">
+        <v>20</v>
+      </c>
+      <c r="R960" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R970"/>
+  <dimension ref="A1:R975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>2800</v>
+        <v>260</v>
       </c>
       <c r="K919" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L919" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M919" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q919" t="n">
         <v>20</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>900</v>
+        <v>1550</v>
       </c>
       <c r="K920" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L920" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M920" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q920" t="n">
         <v>20</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>180</v>
+        <v>800</v>
       </c>
       <c r="K921" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L921" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M921" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="Q921" t="n">
         <v>20</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>200</v>
+        <v>880</v>
       </c>
       <c r="K922" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L922" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M922" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q922" t="n">
         <v>20</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K923" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L923" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M923" t="n">
-        <v>4700</v>
+        <v>7000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="Q923" t="n">
         <v>20</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="K924" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L924" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M924" t="n">
-        <v>4688</v>
+        <v>6000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="Q924" t="n">
         <v>20</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K925" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L925" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M925" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q925" t="n">
         <v>20</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K926" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L926" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M926" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q926" t="n">
         <v>20</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>2040</v>
+        <v>200</v>
       </c>
       <c r="K927" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L927" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M927" t="n">
-        <v>8328</v>
+        <v>3000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>416</v>
+        <v>150</v>
       </c>
       <c r="Q927" t="n">
         <v>20</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="K928" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L928" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M928" t="n">
-        <v>7794</v>
+        <v>4700</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="Q928" t="n">
         <v>20</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>470</v>
+        <v>1600</v>
       </c>
       <c r="K929" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L929" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M929" t="n">
-        <v>6000</v>
+        <v>4688</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="Q929" t="n">
         <v>20</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K930" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L930" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M930" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q930" t="n">
         <v>20</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="K931" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="L931" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M931" t="n">
-        <v>4437</v>
+        <v>4000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="Q931" t="n">
         <v>20</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>700</v>
+        <v>2040</v>
       </c>
       <c r="K932" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L932" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="M932" t="n">
-        <v>3500</v>
+        <v>8328</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>175</v>
+        <v>416</v>
       </c>
       <c r="Q932" t="n">
         <v>20</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="K933" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="L933" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M933" t="n">
-        <v>3000</v>
+        <v>7794</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67551,11 +67551,11 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="Q933" t="n">
         <v>20</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="K934" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L934" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M934" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q934" t="n">
         <v>20</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>3350</v>
+        <v>350</v>
       </c>
       <c r="K935" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L935" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M935" t="n">
-        <v>4318</v>
+        <v>6000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="Q935" t="n">
         <v>20</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="K936" t="n">
+        <v>4300</v>
+      </c>
+      <c r="L936" t="n">
         <v>4500</v>
       </c>
-      <c r="L936" t="n">
-        <v>5000</v>
-      </c>
       <c r="M936" t="n">
-        <v>4760</v>
+        <v>4437</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="Q936" t="n">
         <v>20</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K937" t="n">
         <v>3500</v>
       </c>
       <c r="L937" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M937" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="Q937" t="n">
         <v>20</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K938" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L938" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M938" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q938" t="n">
         <v>20</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K939" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L939" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M939" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="Q939" t="n">
         <v>20</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>1300</v>
+        <v>3350</v>
       </c>
       <c r="K940" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L940" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M940" t="n">
-        <v>5000</v>
+        <v>4318</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="Q940" t="n">
         <v>20</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="K941" t="n">
         <v>4500</v>
       </c>
       <c r="L941" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M941" t="n">
-        <v>4500</v>
+        <v>4760</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="Q941" t="n">
         <v>20</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K942" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L942" t="n">
         <v>4000</v>
       </c>
       <c r="M942" t="n">
-        <v>4000</v>
+        <v>3750</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Q942" t="n">
         <v>20</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K943" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L943" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M943" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q943" t="n">
         <v>20</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="K944" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L944" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M944" t="n">
-        <v>3269</v>
+        <v>5500</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="Q944" t="n">
         <v>20</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="K945" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L945" t="n">
         <v>5000</v>
       </c>
       <c r="M945" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q945" t="n">
         <v>20</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,17 +68465,17 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>3800</v>
+        <v>600</v>
       </c>
       <c r="K946" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L946" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M946" t="n">
         <v>4500</v>
@@ -68487,7 +68487,7 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P946" t="n">
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68541,7 +68541,7 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K947" t="n">
         <v>4000</v>
@@ -68559,7 +68559,7 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P947" t="n">
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="K948" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L948" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M948" t="n">
-        <v>3739</v>
+        <v>3500</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q948" t="n">
         <v>20</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68685,7 +68685,7 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>830</v>
+        <v>1300</v>
       </c>
       <c r="K949" t="n">
         <v>3000</v>
@@ -68694,7 +68694,7 @@
         <v>3500</v>
       </c>
       <c r="M949" t="n">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q949" t="n">
         <v>20</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>700</v>
+        <v>2600</v>
       </c>
       <c r="K950" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L950" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M950" t="n">
-        <v>3286</v>
+        <v>4750</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="Q950" t="n">
         <v>20</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68829,7 +68829,7 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>2570</v>
+        <v>3800</v>
       </c>
       <c r="K951" t="n">
         <v>4000</v>
@@ -68838,7 +68838,7 @@
         <v>5000</v>
       </c>
       <c r="M951" t="n">
-        <v>4222</v>
+        <v>4500</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="Q951" t="n">
         <v>20</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68897,20 +68897,20 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>3300</v>
+        <v>800</v>
       </c>
       <c r="K952" t="n">
         <v>4000</v>
       </c>
       <c r="L952" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M952" t="n">
-        <v>4439</v>
+        <v>4000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="Q952" t="n">
         <v>20</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>790</v>
+        <v>2300</v>
       </c>
       <c r="K953" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L953" t="n">
         <v>4000</v>
       </c>
       <c r="M953" t="n">
-        <v>3778</v>
+        <v>3739</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q953" t="n">
         <v>20</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>1250</v>
+        <v>830</v>
       </c>
       <c r="K954" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L954" t="n">
         <v>3500</v>
       </c>
-      <c r="L954" t="n">
-        <v>4000</v>
-      </c>
       <c r="M954" t="n">
-        <v>3800</v>
+        <v>3271</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="Q954" t="n">
         <v>20</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="K955" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L955" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M955" t="n">
-        <v>5220</v>
+        <v>3286</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="Q955" t="n">
         <v>20</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>380</v>
+        <v>2570</v>
       </c>
       <c r="K956" t="n">
         <v>4000</v>
       </c>
       <c r="L956" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M956" t="n">
-        <v>4000</v>
+        <v>4222</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q956" t="n">
         <v>20</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>90</v>
+        <v>3300</v>
       </c>
       <c r="K957" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L957" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M957" t="n">
-        <v>3500</v>
+        <v>4439</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="Q957" t="n">
         <v>20</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>150</v>
+        <v>790</v>
       </c>
       <c r="K958" t="n">
         <v>3500</v>
       </c>
       <c r="L958" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M958" t="n">
-        <v>3500</v>
+        <v>3778</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="Q958" t="n">
         <v>20</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69401,20 +69401,20 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>2200</v>
+        <v>1250</v>
       </c>
       <c r="K959" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L959" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M959" t="n">
-        <v>5205</v>
+        <v>3800</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="Q959" t="n">
         <v>20</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69477,7 +69477,7 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K960" t="n">
         <v>5000</v>
@@ -69486,7 +69486,7 @@
         <v>5500</v>
       </c>
       <c r="M960" t="n">
-        <v>5232</v>
+        <v>5220</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q960" t="n">
         <v>20</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69549,7 +69549,7 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K961" t="n">
         <v>4000</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="K962" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L962" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M962" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q962" t="n">
         <v>20</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K963" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L963" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M963" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q963" t="n">
         <v>20</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>430</v>
+        <v>2200</v>
       </c>
       <c r="K964" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L964" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M964" t="n">
-        <v>4500</v>
+        <v>5205</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="Q964" t="n">
         <v>20</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="K965" t="n">
         <v>5000</v>
       </c>
       <c r="L965" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M965" t="n">
-        <v>5000</v>
+        <v>5232</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q965" t="n">
         <v>20</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>880</v>
+        <v>400</v>
       </c>
       <c r="K966" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L966" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M966" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q966" t="n">
         <v>20</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="K967" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L967" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M967" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q967" t="n">
         <v>20</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J968" t="n">
         <v>340</v>
       </c>
       <c r="K968" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L968" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M968" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q968" t="n">
         <v>20</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>2800</v>
+        <v>430</v>
       </c>
       <c r="K969" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L969" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M969" t="n">
-        <v>7429</v>
+        <v>4500</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>371</v>
+        <v>225</v>
       </c>
       <c r="Q969" t="n">
         <v>20</v>
@@ -70173,58 +70173,418 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E970" t="n">
+        <v>13</v>
+      </c>
+      <c r="F970" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I970" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J970" t="n">
+        <v>700</v>
+      </c>
+      <c r="K970" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L970" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M970" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N970" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O970" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P970" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q970" t="n">
+        <v>20</v>
+      </c>
+      <c r="R970" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>6</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D971" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E971" t="n">
+        <v>13</v>
+      </c>
+      <c r="F971" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I971" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J971" t="n">
+        <v>880</v>
+      </c>
+      <c r="K971" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L971" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M971" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N971" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O971" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P971" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q971" t="n">
+        <v>20</v>
+      </c>
+      <c r="R971" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>6</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D972" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E972" t="n">
+        <v>13</v>
+      </c>
+      <c r="F972" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J972" t="n">
+        <v>430</v>
+      </c>
+      <c r="K972" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L972" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M972" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N972" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O972" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P972" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q972" t="n">
+        <v>20</v>
+      </c>
+      <c r="R972" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>6</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D973" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E973" t="n">
+        <v>13</v>
+      </c>
+      <c r="F973" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J973" t="n">
+        <v>340</v>
+      </c>
+      <c r="K973" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L973" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M973" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N973" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O973" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P973" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q973" t="n">
+        <v>20</v>
+      </c>
+      <c r="R973" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>6</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D974" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E970" t="n">
-        <v>13</v>
-      </c>
-      <c r="F970" t="n">
-        <v>100114013</v>
-      </c>
-      <c r="G970" t="inlineStr">
-        <is>
-          <t>Zanahoria</t>
-        </is>
-      </c>
-      <c r="H970" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I970" t="inlineStr">
+      <c r="E974" t="n">
+        <v>13</v>
+      </c>
+      <c r="F974" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I974" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J974" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K974" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L974" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M974" t="n">
+        <v>7429</v>
+      </c>
+      <c r="N974" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O974" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P974" t="n">
+        <v>371</v>
+      </c>
+      <c r="Q974" t="n">
+        <v>20</v>
+      </c>
+      <c r="R974" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>6</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D975" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E975" t="n">
+        <v>13</v>
+      </c>
+      <c r="F975" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I975" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J970" t="n">
+      <c r="J975" t="n">
         <v>550</v>
       </c>
-      <c r="K970" t="n">
+      <c r="K975" t="n">
         <v>6000</v>
       </c>
-      <c r="L970" t="n">
+      <c r="L975" t="n">
         <v>6000</v>
       </c>
-      <c r="M970" t="n">
+      <c r="M975" t="n">
         <v>6000</v>
       </c>
-      <c r="N970" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O970" t="inlineStr">
+      <c r="N975" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O975" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P970" t="n">
+      <c r="P975" t="n">
         <v>300</v>
       </c>
-      <c r="Q970" t="n">
-        <v>20</v>
-      </c>
-      <c r="R970" t="inlineStr">
+      <c r="Q975" t="n">
+        <v>20</v>
+      </c>
+      <c r="R975" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R990"/>
+  <dimension ref="A1:R992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="K837" t="n">
         <v>6000</v>
       </c>
       <c r="L837" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M837" t="n">
-        <v>6000</v>
+        <v>6381</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="Q837" t="n">
         <v>20</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>2300</v>
+        <v>570</v>
       </c>
       <c r="K838" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L838" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M838" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q838" t="n">
         <v>20</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="K839" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L839" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M839" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q839" t="n">
         <v>20</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="K840" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L840" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M840" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="Q840" t="n">
         <v>20</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="K841" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L841" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M841" t="n">
-        <v>7429</v>
+        <v>5000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="Q841" t="n">
         <v>20</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K842" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L842" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M842" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="Q842" t="n">
         <v>20</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="K843" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L843" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M843" t="n">
-        <v>3500</v>
+        <v>7429</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>175</v>
+        <v>371</v>
       </c>
       <c r="Q843" t="n">
         <v>20</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>2100</v>
+        <v>550</v>
       </c>
       <c r="K844" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L844" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M844" t="n">
-        <v>4810</v>
+        <v>6000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="Q844" t="n">
         <v>20</v>
@@ -61193,20 +61193,20 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="K845" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L845" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M845" t="n">
-        <v>4740</v>
+        <v>3500</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="Q845" t="n">
         <v>20</v>
@@ -61265,20 +61265,20 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K846" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L846" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M846" t="n">
-        <v>4000</v>
+        <v>4810</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="Q846" t="n">
         <v>20</v>
@@ -61337,20 +61337,20 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K847" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L847" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M847" t="n">
-        <v>4000</v>
+        <v>4740</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="Q847" t="n">
         <v>20</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="K848" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L848" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M848" t="n">
-        <v>5810</v>
+        <v>4000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="Q848" t="n">
         <v>20</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61481,20 +61481,20 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>2900</v>
+        <v>700</v>
       </c>
       <c r="K849" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L849" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M849" t="n">
-        <v>5724</v>
+        <v>4000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="Q849" t="n">
         <v>20</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>250</v>
+        <v>2100</v>
       </c>
       <c r="K850" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L850" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M850" t="n">
-        <v>4500</v>
+        <v>5810</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="Q850" t="n">
         <v>20</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>500</v>
+        <v>2900</v>
       </c>
       <c r="K851" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L851" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M851" t="n">
-        <v>4500</v>
+        <v>5724</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>225</v>
+        <v>286</v>
       </c>
       <c r="Q851" t="n">
         <v>20</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K852" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L852" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M852" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="Q852" t="n">
         <v>20</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K853" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L853" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M853" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="Q853" t="n">
         <v>20</v>
@@ -61841,20 +61841,20 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>610</v>
+        <v>430</v>
       </c>
       <c r="K854" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L854" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M854" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q854" t="n">
         <v>20</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>660</v>
+        <v>440</v>
       </c>
       <c r="K855" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L855" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M855" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q855" t="n">
         <v>20</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K856" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L856" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M856" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q856" t="n">
         <v>20</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>350</v>
+        <v>660</v>
       </c>
       <c r="K857" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L857" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M857" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q857" t="n">
         <v>20</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>1650</v>
+        <v>340</v>
       </c>
       <c r="K858" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L858" t="n">
         <v>5000</v>
       </c>
       <c r="M858" t="n">
-        <v>4770</v>
+        <v>5000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q858" t="n">
         <v>20</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>1990</v>
+        <v>350</v>
       </c>
       <c r="K859" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L859" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M859" t="n">
-        <v>4173</v>
+        <v>5000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="Q859" t="n">
         <v>20</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>530</v>
+        <v>1650</v>
       </c>
       <c r="K860" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L860" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M860" t="n">
-        <v>4000</v>
+        <v>4770</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q860" t="n">
         <v>20</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>270</v>
+        <v>1990</v>
       </c>
       <c r="K861" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L861" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M861" t="n">
-        <v>3500</v>
+        <v>4173</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="Q861" t="n">
         <v>20</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="K862" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L862" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M862" t="n">
-        <v>3138</v>
+        <v>4000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="Q862" t="n">
         <v>20</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62489,20 +62489,20 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>1540</v>
+        <v>270</v>
       </c>
       <c r="K863" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L863" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M863" t="n">
-        <v>4682</v>
+        <v>3500</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="Q863" t="n">
         <v>20</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>960</v>
+        <v>500</v>
       </c>
       <c r="K864" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L864" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="M864" t="n">
-        <v>3921</v>
+        <v>3138</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="Q864" t="n">
         <v>20</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>90</v>
+        <v>1540</v>
       </c>
       <c r="K865" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L865" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M865" t="n">
-        <v>3000</v>
+        <v>4682</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="Q865" t="n">
         <v>20</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>120</v>
+        <v>960</v>
       </c>
       <c r="K866" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L866" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M866" t="n">
-        <v>3000</v>
+        <v>3921</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="Q866" t="n">
         <v>20</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>3100</v>
+        <v>90</v>
       </c>
       <c r="K867" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L867" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M867" t="n">
-        <v>5210</v>
+        <v>3000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="Q867" t="n">
         <v>20</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>3300</v>
+        <v>120</v>
       </c>
       <c r="K868" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L868" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M868" t="n">
-        <v>5227</v>
+        <v>3000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="Q868" t="n">
         <v>20</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>300</v>
+        <v>3100</v>
       </c>
       <c r="K869" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L869" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M869" t="n">
-        <v>4000</v>
+        <v>5210</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="Q869" t="n">
         <v>20</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>350</v>
+        <v>3300</v>
       </c>
       <c r="K870" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L870" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M870" t="n">
-        <v>4000</v>
+        <v>5227</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="Q870" t="n">
         <v>20</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K871" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L871" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M871" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q871" t="n">
         <v>20</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>3150</v>
+        <v>350</v>
       </c>
       <c r="K872" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L872" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M872" t="n">
-        <v>4748</v>
+        <v>4000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="Q872" t="n">
         <v>20</v>
@@ -63209,20 +63209,20 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K873" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L873" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M873" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q873" t="n">
         <v>20</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>1700</v>
+        <v>3150</v>
       </c>
       <c r="K874" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L874" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M874" t="n">
-        <v>3794</v>
+        <v>4748</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="Q874" t="n">
         <v>20</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K875" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L875" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M875" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q875" t="n">
         <v>20</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K876" t="n">
         <v>3500</v>
       </c>
       <c r="L876" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M876" t="n">
-        <v>3500</v>
+        <v>3794</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Q876" t="n">
         <v>20</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K877" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L877" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M877" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q877" t="n">
         <v>20</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>3100</v>
+        <v>500</v>
       </c>
       <c r="K878" t="n">
-        <v>4300</v>
+        <v>3500</v>
       </c>
       <c r="L878" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M878" t="n">
-        <v>4671</v>
+        <v>3500</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="Q878" t="n">
         <v>20</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="K879" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L879" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M879" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q879" t="n">
         <v>20</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>1300</v>
+        <v>3100</v>
       </c>
       <c r="K880" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="L880" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M880" t="n">
-        <v>4000</v>
+        <v>4671</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="Q880" t="n">
         <v>20</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K881" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L881" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M881" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q881" t="n">
         <v>20</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63857,20 +63857,20 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="K882" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L882" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M882" t="n">
-        <v>6304</v>
+        <v>4000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="Q882" t="n">
         <v>20</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>3300</v>
+        <v>1200</v>
       </c>
       <c r="K883" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L883" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M883" t="n">
-        <v>5727</v>
+        <v>4000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63951,11 +63951,11 @@
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="Q883" t="n">
         <v>20</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>200</v>
+        <v>2800</v>
       </c>
       <c r="K884" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L884" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M884" t="n">
-        <v>5000</v>
+        <v>6304</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="Q884" t="n">
         <v>20</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>300</v>
+        <v>3300</v>
       </c>
       <c r="K885" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L885" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M885" t="n">
-        <v>5000</v>
+        <v>5727</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="Q885" t="n">
         <v>20</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>790</v>
+        <v>200</v>
       </c>
       <c r="K886" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L886" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M886" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q886" t="n">
         <v>20</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>970</v>
+        <v>300</v>
       </c>
       <c r="K887" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L887" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M887" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q887" t="n">
         <v>20</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>340</v>
+        <v>790</v>
       </c>
       <c r="K888" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L888" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M888" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q888" t="n">
         <v>20</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>430</v>
+        <v>970</v>
       </c>
       <c r="K889" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L889" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M889" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q889" t="n">
         <v>20</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K890" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L890" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M890" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q890" t="n">
         <v>20</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>1700</v>
+        <v>430</v>
       </c>
       <c r="K891" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L891" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M891" t="n">
-        <v>4059</v>
+        <v>6000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="Q891" t="n">
         <v>20</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="K892" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L892" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M892" t="n">
-        <v>4239</v>
+        <v>3000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="Q892" t="n">
         <v>20</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K893" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L893" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M893" t="n">
-        <v>4632</v>
+        <v>4059</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="Q893" t="n">
         <v>20</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="K894" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L894" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M894" t="n">
-        <v>3500</v>
+        <v>4239</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="Q894" t="n">
         <v>20</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K895" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L895" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M895" t="n">
-        <v>3750</v>
+        <v>4632</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="Q895" t="n">
         <v>20</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K896" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L896" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M896" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="Q896" t="n">
         <v>20</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K897" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L897" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M897" t="n">
-        <v>8000</v>
+        <v>3750</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>400</v>
+        <v>188</v>
       </c>
       <c r="Q897" t="n">
         <v>20</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="K898" t="n">
         <v>8000</v>
       </c>
       <c r="L898" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M898" t="n">
-        <v>8333</v>
+        <v>8000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="Q898" t="n">
         <v>20</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>440</v>
+        <v>1400</v>
       </c>
       <c r="K899" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L899" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M899" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q899" t="n">
         <v>20</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="K900" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L900" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M900" t="n">
-        <v>6000</v>
+        <v>8333</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>300</v>
+        <v>417</v>
       </c>
       <c r="Q900" t="n">
         <v>20</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="K901" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L901" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M901" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q901" t="n">
         <v>20</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>410</v>
+        <v>900</v>
       </c>
       <c r="K902" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L902" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M902" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q902" t="n">
         <v>20</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>590</v>
+        <v>430</v>
       </c>
       <c r="K903" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L903" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M903" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q903" t="n">
         <v>20</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="K904" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L904" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M904" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q904" t="n">
         <v>20</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>310</v>
+        <v>590</v>
       </c>
       <c r="K905" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L905" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M905" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q905" t="n">
         <v>20</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>350</v>
+        <v>610</v>
       </c>
       <c r="K906" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L906" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M906" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q906" t="n">
         <v>20</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="K907" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L907" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M907" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q907" t="n">
         <v>20</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>960</v>
+        <v>350</v>
       </c>
       <c r="K908" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L908" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M908" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="Q908" t="n">
         <v>20</v>
@@ -65801,11 +65801,11 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>1430</v>
+        <v>360</v>
       </c>
       <c r="K909" t="n">
         <v>7000</v>
@@ -65823,7 +65823,7 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P909" t="n">
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>550</v>
+        <v>960</v>
       </c>
       <c r="K910" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L910" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M910" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q910" t="n">
         <v>20</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>850</v>
+        <v>1430</v>
       </c>
       <c r="K911" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L911" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M911" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q911" t="n">
         <v>20</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66017,11 +66017,11 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>2500</v>
+        <v>550</v>
       </c>
       <c r="K912" t="n">
         <v>6000</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>1600</v>
+        <v>850</v>
       </c>
       <c r="K913" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L913" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M913" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q913" t="n">
         <v>20</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="K914" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L914" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M914" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q914" t="n">
         <v>20</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K915" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L915" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M915" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q915" t="n">
         <v>20</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="K916" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L916" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M916" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q916" t="n">
         <v>20</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="K917" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L917" t="n">
         <v>5000</v>
       </c>
       <c r="M917" t="n">
-        <v>4456</v>
+        <v>5000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="Q917" t="n">
         <v>20</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="K918" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L918" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M918" t="n">
-        <v>4740</v>
+        <v>3500</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="Q918" t="n">
         <v>20</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>2600</v>
+        <v>4500</v>
       </c>
       <c r="K919" t="n">
         <v>4000</v>
       </c>
       <c r="L919" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M919" t="n">
-        <v>4212</v>
+        <v>4456</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="Q919" t="n">
         <v>20</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="K920" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L920" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M920" t="n">
-        <v>3750</v>
+        <v>4740</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="Q920" t="n">
         <v>20</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="K921" t="n">
         <v>4000</v>
       </c>
       <c r="L921" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M921" t="n">
-        <v>4000</v>
+        <v>4212</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q921" t="n">
         <v>20</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K922" t="n">
         <v>3500</v>
       </c>
       <c r="L922" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M922" t="n">
-        <v>3500</v>
+        <v>3750</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="Q922" t="n">
         <v>20</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="K923" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L923" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M923" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q923" t="n">
         <v>20</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K924" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L924" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M924" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="Q924" t="n">
         <v>20</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="K925" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L925" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M925" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q925" t="n">
         <v>20</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K926" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L926" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M926" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q926" t="n">
         <v>20</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K927" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L927" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M927" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="Q927" t="n">
         <v>20</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="K928" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L928" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M928" t="n">
-        <v>4289</v>
+        <v>5000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="Q928" t="n">
         <v>20</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="K929" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L929" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M929" t="n">
-        <v>3000</v>
+        <v>4200</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="Q929" t="n">
         <v>20</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="K930" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L930" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M930" t="n">
-        <v>3500</v>
+        <v>4289</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="Q930" t="n">
         <v>20</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K931" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L931" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M931" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q931" t="n">
         <v>20</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="K932" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L932" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M932" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q932" t="n">
         <v>20</v>
@@ -67529,11 +67529,11 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="K933" t="n">
         <v>5000</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="K934" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L934" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M934" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q934" t="n">
         <v>20</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="K935" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L935" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M935" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q935" t="n">
         <v>20</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="K936" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="L936" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="M936" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="Q936" t="n">
         <v>20</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="K937" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L937" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M937" t="n">
-        <v>4712</v>
+        <v>4000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="Q937" t="n">
         <v>20</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="K938" t="n">
-        <v>4500</v>
+        <v>300</v>
       </c>
       <c r="L938" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="M938" t="n">
-        <v>4700</v>
+        <v>300</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="Q938" t="n">
         <v>20</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>300</v>
+        <v>2600</v>
       </c>
       <c r="K939" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L939" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M939" t="n">
-        <v>4000</v>
+        <v>4712</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q939" t="n">
         <v>20</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K940" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L940" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M940" t="n">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q940" t="n">
         <v>20</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K941" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L941" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M941" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q941" t="n">
         <v>20</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>1470</v>
+        <v>200</v>
       </c>
       <c r="K942" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L942" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M942" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="Q942" t="n">
         <v>20</v>
@@ -68249,11 +68249,11 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>800</v>
+        <v>330</v>
       </c>
       <c r="K943" t="n">
         <v>8000</v>
@@ -68271,7 +68271,7 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P943" t="n">
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>560</v>
+        <v>1470</v>
       </c>
       <c r="K944" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L944" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M944" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q944" t="n">
         <v>20</v>
@@ -68393,33 +68393,33 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J945" t="n">
+        <v>800</v>
+      </c>
+      <c r="K945" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L945" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M945" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N945" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O945" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P945" t="n">
         <v>400</v>
-      </c>
-      <c r="K945" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L945" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M945" t="n">
-        <v>7000</v>
-      </c>
-      <c r="N945" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O945" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P945" t="n">
-        <v>350</v>
       </c>
       <c r="Q945" t="n">
         <v>20</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K946" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L946" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M946" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q946" t="n">
         <v>20</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K947" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L947" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M947" t="n">
-        <v>4773</v>
+        <v>7000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>239</v>
+        <v>350</v>
       </c>
       <c r="Q947" t="n">
         <v>20</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K948" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L948" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M948" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q948" t="n">
         <v>20</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K949" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L949" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M949" t="n">
-        <v>3875</v>
+        <v>4773</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="Q949" t="n">
         <v>20</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K950" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L950" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M950" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q950" t="n">
         <v>20</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K951" t="n">
         <v>3500</v>
       </c>
       <c r="L951" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M951" t="n">
-        <v>3500</v>
+        <v>3875</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q951" t="n">
         <v>20</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68897,20 +68897,20 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>2450</v>
+        <v>400</v>
       </c>
       <c r="K952" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L952" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M952" t="n">
-        <v>5224</v>
+        <v>4000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="Q952" t="n">
         <v>20</v>
@@ -68969,20 +68969,20 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K953" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L953" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M953" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q953" t="n">
         <v>20</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>380</v>
+        <v>2450</v>
       </c>
       <c r="K954" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L954" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M954" t="n">
-        <v>4000</v>
+        <v>5224</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="Q954" t="n">
         <v>20</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K955" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L955" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M955" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q955" t="n">
         <v>20</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K956" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L956" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M956" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q956" t="n">
         <v>20</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K957" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L957" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M957" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q957" t="n">
         <v>20</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>880</v>
+        <v>340</v>
       </c>
       <c r="K958" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L958" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M958" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q958" t="n">
         <v>20</v>
@@ -69401,20 +69401,20 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>790</v>
+        <v>350</v>
       </c>
       <c r="K959" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L959" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M959" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q959" t="n">
         <v>20</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>430</v>
+        <v>880</v>
       </c>
       <c r="K960" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L960" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M960" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q960" t="n">
         <v>20</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>440</v>
+        <v>790</v>
       </c>
       <c r="K961" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L961" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M961" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q961" t="n">
         <v>20</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>2400</v>
+        <v>430</v>
       </c>
       <c r="K962" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L962" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M962" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q962" t="n">
         <v>20</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>1600</v>
+        <v>440</v>
       </c>
       <c r="K963" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L963" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M963" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q963" t="n">
         <v>20</v>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>1100</v>
+        <v>2400</v>
       </c>
       <c r="K964" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L964" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M964" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="Q964" t="n">
         <v>20</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K965" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L965" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M965" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="Q965" t="n">
         <v>20</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K966" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L966" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M966" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="Q966" t="n">
         <v>20</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="K967" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L967" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M967" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="Q967" t="n">
         <v>20</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="K968" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L968" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M968" t="n">
-        <v>4519</v>
+        <v>3500</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="Q968" t="n">
         <v>20</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>1900</v>
+        <v>550</v>
       </c>
       <c r="K969" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L969" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M969" t="n">
-        <v>4816</v>
+        <v>3500</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="Q969" t="n">
         <v>20</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="K970" t="n">
         <v>4000</v>
       </c>
       <c r="L970" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M970" t="n">
-        <v>4000</v>
+        <v>4519</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="Q970" t="n">
         <v>20</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K971" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L971" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M971" t="n">
-        <v>3500</v>
+        <v>4816</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="Q971" t="n">
         <v>20</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K972" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L972" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M972" t="n">
-        <v>3269</v>
+        <v>4000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="Q972" t="n">
         <v>20</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="K973" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L973" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M973" t="n">
-        <v>4750</v>
+        <v>3500</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="Q973" t="n">
         <v>20</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>3800</v>
+        <v>1300</v>
       </c>
       <c r="K974" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L974" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M974" t="n">
-        <v>4500</v>
+        <v>3269</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="Q974" t="n">
         <v>20</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="K975" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L975" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M975" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q975" t="n">
         <v>20</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="K976" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L976" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M976" t="n">
-        <v>3739</v>
+        <v>4500</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="Q976" t="n">
         <v>20</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="K977" t="n">
         <v>4000</v>
       </c>
       <c r="L977" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M977" t="n">
-        <v>4170</v>
+        <v>4000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q977" t="n">
         <v>20</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="K978" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L978" t="n">
         <v>4000</v>
       </c>
       <c r="M978" t="n">
-        <v>3767</v>
+        <v>3739</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q978" t="n">
         <v>20</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="K979" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L979" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M979" t="n">
-        <v>3500</v>
+        <v>4170</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="Q979" t="n">
         <v>20</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K980" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L980" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M980" t="n">
-        <v>4842</v>
+        <v>3767</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="Q980" t="n">
         <v>20</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="K981" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L981" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M981" t="n">
-        <v>4816</v>
+        <v>3500</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="Q981" t="n">
         <v>20</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>700</v>
+        <v>1900</v>
       </c>
       <c r="K982" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L982" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M982" t="n">
-        <v>4000</v>
+        <v>4842</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="Q982" t="n">
         <v>20</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="K983" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L983" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M983" t="n">
-        <v>6229</v>
+        <v>4816</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="Q983" t="n">
         <v>20</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71205,29 +71205,29 @@
         </is>
       </c>
       <c r="J984" t="n">
+        <v>700</v>
+      </c>
+      <c r="K984" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L984" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M984" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N984" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O984" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P984" t="n">
         <v>200</v>
-      </c>
-      <c r="K984" t="n">
-        <v>5000</v>
-      </c>
-      <c r="L984" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M984" t="n">
-        <v>5000</v>
-      </c>
-      <c r="N984" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O984" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P984" t="n">
-        <v>250</v>
       </c>
       <c r="Q984" t="n">
         <v>20</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>340</v>
+        <v>2400</v>
       </c>
       <c r="K985" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L985" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M985" t="n">
-        <v>5500</v>
+        <v>6229</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="Q985" t="n">
         <v>20</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K986" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L986" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M986" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q986" t="n">
         <v>20</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>700</v>
+        <v>340</v>
       </c>
       <c r="K987" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L987" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M987" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="Q987" t="n">
         <v>20</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>970</v>
+        <v>340</v>
       </c>
       <c r="K988" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L988" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M988" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="Q988" t="n">
         <v>20</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>430</v>
+        <v>700</v>
       </c>
       <c r="K989" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L989" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M989" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q989" t="n">
         <v>20</v>
@@ -71633,38 +71633,182 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J990" t="n">
+        <v>970</v>
+      </c>
+      <c r="K990" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L990" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M990" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N990" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O990" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P990" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>20</v>
+      </c>
+      <c r="R990" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>6</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D991" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E991" t="n">
+        <v>13</v>
+      </c>
+      <c r="F991" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I991" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J990" t="n">
+      <c r="J991" t="n">
+        <v>430</v>
+      </c>
+      <c r="K991" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L991" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M991" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N991" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O991" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P991" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>20</v>
+      </c>
+      <c r="R991" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>6</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D992" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E992" t="n">
+        <v>13</v>
+      </c>
+      <c r="F992" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I992" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J992" t="n">
         <v>410</v>
       </c>
-      <c r="K990" t="n">
+      <c r="K992" t="n">
         <v>6000</v>
       </c>
-      <c r="L990" t="n">
+      <c r="L992" t="n">
         <v>6000</v>
       </c>
-      <c r="M990" t="n">
+      <c r="M992" t="n">
         <v>6000</v>
       </c>
-      <c r="N990" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O990" t="inlineStr">
+      <c r="N992" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O992" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P990" t="n">
+      <c r="P992" t="n">
         <v>300</v>
       </c>
-      <c r="Q990" t="n">
-        <v>20</v>
-      </c>
-      <c r="R990" t="inlineStr">
+      <c r="Q992" t="n">
+        <v>20</v>
+      </c>
+      <c r="R992" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1050"/>
+  <dimension ref="A1:R1053"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61917,16 +61917,16 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K855" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L855" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M855" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q855" t="n">
         <v>20</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="K856" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L856" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M856" t="n">
-        <v>3000</v>
+        <v>5732</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="Q856" t="n">
         <v>20</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="K857" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L857" t="n">
         <v>5000</v>
       </c>
       <c r="M857" t="n">
-        <v>4550</v>
+        <v>5000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62079,11 +62079,11 @@
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="Q857" t="n">
         <v>20</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>3100</v>
+        <v>300</v>
       </c>
       <c r="K858" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L858" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M858" t="n">
-        <v>4710</v>
+        <v>3000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="Q858" t="n">
         <v>20</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K859" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L859" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M859" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q859" t="n">
         <v>20</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="K860" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L860" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M860" t="n">
-        <v>3000</v>
+        <v>4550</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="Q860" t="n">
         <v>20</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>5300</v>
+        <v>3100</v>
       </c>
       <c r="K861" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L861" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M861" t="n">
-        <v>4223</v>
+        <v>4710</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="Q861" t="n">
         <v>20</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>3200</v>
+        <v>500</v>
       </c>
       <c r="K862" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L862" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M862" t="n">
-        <v>4688</v>
+        <v>3500</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="Q862" t="n">
         <v>20</v>
@@ -62489,20 +62489,20 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="K863" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L863" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M863" t="n">
-        <v>3760</v>
+        <v>3000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="Q863" t="n">
         <v>20</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>800</v>
+        <v>5300</v>
       </c>
       <c r="K864" t="n">
         <v>4000</v>
       </c>
       <c r="L864" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M864" t="n">
-        <v>4000</v>
+        <v>4223</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q864" t="n">
         <v>20</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62637,7 +62637,7 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="K865" t="n">
         <v>4500</v>
@@ -62646,7 +62646,7 @@
         <v>5000</v>
       </c>
       <c r="M865" t="n">
-        <v>4680</v>
+        <v>4688</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,7 +62655,7 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P865" t="n">
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="K866" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L866" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M866" t="n">
-        <v>4714</v>
+        <v>3760</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="Q866" t="n">
         <v>20</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62799,7 +62799,7 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P867" t="n">
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="K868" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L868" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M868" t="n">
-        <v>3676</v>
+        <v>4680</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="Q868" t="n">
         <v>20</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62925,7 +62925,7 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>3150</v>
+        <v>2100</v>
       </c>
       <c r="K869" t="n">
         <v>4500</v>
@@ -62934,7 +62934,7 @@
         <v>5000</v>
       </c>
       <c r="M869" t="n">
-        <v>4756</v>
+        <v>4714</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q869" t="n">
         <v>20</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="K870" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L870" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M870" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63015,11 +63015,11 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q870" t="n">
         <v>20</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63069,7 +63069,7 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K871" t="n">
         <v>3500</v>
@@ -63078,7 +63078,7 @@
         <v>4000</v>
       </c>
       <c r="M871" t="n">
-        <v>3833</v>
+        <v>3676</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Q871" t="n">
         <v>20</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>1200</v>
+        <v>3150</v>
       </c>
       <c r="K872" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L872" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M872" t="n">
-        <v>4000</v>
+        <v>4756</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q872" t="n">
         <v>20</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="K873" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L873" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M873" t="n">
-        <v>4210</v>
+        <v>5000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="Q873" t="n">
         <v>20</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="K874" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L874" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M874" t="n">
-        <v>4731</v>
+        <v>3833</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="Q874" t="n">
         <v>20</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63357,7 +63357,7 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K875" t="n">
         <v>4000</v>
@@ -63375,7 +63375,7 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P875" t="n">
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>340</v>
+        <v>3100</v>
       </c>
       <c r="K876" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L876" t="n">
         <v>4500</v>
       </c>
       <c r="M876" t="n">
-        <v>4500</v>
+        <v>4210</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="Q876" t="n">
         <v>20</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="K877" t="n">
         <v>4500</v>
       </c>
       <c r="L877" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M877" t="n">
-        <v>4500</v>
+        <v>4731</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="Q877" t="n">
         <v>20</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="K878" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L878" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M878" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q878" t="n">
         <v>20</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>790</v>
+        <v>340</v>
       </c>
       <c r="K879" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L879" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M879" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q879" t="n">
         <v>20</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K880" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L880" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M880" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63735,11 +63735,11 @@
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q880" t="n">
         <v>20</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>340</v>
+        <v>970</v>
       </c>
       <c r="K881" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L881" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M881" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63807,11 +63807,11 @@
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q881" t="n">
         <v>20</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63857,11 +63857,11 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>400</v>
+        <v>790</v>
       </c>
       <c r="K882" t="n">
         <v>5000</v>
@@ -63879,7 +63879,7 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P882" t="n">
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>1560</v>
+        <v>430</v>
       </c>
       <c r="K883" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L883" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M883" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q883" t="n">
         <v>20</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>1730</v>
+        <v>340</v>
       </c>
       <c r="K884" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L884" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M884" t="n">
-        <v>7783</v>
+        <v>4000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>389</v>
+        <v>200</v>
       </c>
       <c r="Q884" t="n">
         <v>20</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K885" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L885" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M885" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q885" t="n">
         <v>20</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>450</v>
+        <v>1560</v>
       </c>
       <c r="K886" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L886" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M886" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64167,11 +64167,11 @@
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q886" t="n">
         <v>20</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>1960</v>
+        <v>1730</v>
       </c>
       <c r="K887" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L887" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M887" t="n">
-        <v>4827</v>
+        <v>7783</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>241</v>
+        <v>389</v>
       </c>
       <c r="Q887" t="n">
         <v>20</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>2480</v>
+        <v>600</v>
       </c>
       <c r="K888" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L888" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M888" t="n">
-        <v>4698</v>
+        <v>7000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="Q888" t="n">
         <v>20</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="K889" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L889" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M889" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64383,11 +64383,11 @@
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q889" t="n">
         <v>20</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>560</v>
+        <v>1960</v>
       </c>
       <c r="K890" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L890" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M890" t="n">
-        <v>4000</v>
+        <v>4827</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="Q890" t="n">
         <v>20</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44529</v>
+        <v>44446</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>2600</v>
+        <v>2480</v>
       </c>
       <c r="K891" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L891" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M891" t="n">
-        <v>6212</v>
+        <v>4698</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="Q891" t="n">
         <v>20</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44529</v>
+        <v>44446</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>600</v>
+        <v>370</v>
       </c>
       <c r="K892" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L892" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M892" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64599,11 +64599,11 @@
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="Q892" t="n">
         <v>20</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44405</v>
+        <v>44446</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K893" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L893" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M893" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q893" t="n">
         <v>20</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64725,16 +64725,16 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>2350</v>
+        <v>2600</v>
       </c>
       <c r="K894" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L894" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M894" t="n">
-        <v>4000</v>
+        <v>6212</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64743,11 +64743,11 @@
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="Q894" t="n">
         <v>20</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44405</v>
+        <v>44529</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>870</v>
+        <v>600</v>
       </c>
       <c r="K895" t="n">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="L895" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M895" t="n">
-        <v>3415</v>
+        <v>5500</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="Q895" t="n">
         <v>20</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64869,7 +64869,7 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K896" t="n">
         <v>3000</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>2900</v>
+        <v>2350</v>
       </c>
       <c r="K897" t="n">
         <v>4000</v>
       </c>
       <c r="L897" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M897" t="n">
-        <v>4259</v>
+        <v>4000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="Q897" t="n">
         <v>20</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>700</v>
+        <v>870</v>
       </c>
       <c r="K898" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="L898" t="n">
         <v>3500</v>
       </c>
       <c r="M898" t="n">
-        <v>3500</v>
+        <v>3415</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q898" t="n">
         <v>20</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="K899" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L899" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M899" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Q899" t="n">
         <v>20</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>1600</v>
+        <v>2900</v>
       </c>
       <c r="K900" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L900" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M900" t="n">
-        <v>6000</v>
+        <v>4259</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="Q900" t="n">
         <v>20</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K901" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L901" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M901" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q901" t="n">
         <v>20</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="K902" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L902" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M902" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q902" t="n">
         <v>20</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65373,7 +65373,7 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="K903" t="n">
         <v>6000</v>
@@ -65391,7 +65391,7 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P903" t="n">
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="K904" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L904" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M904" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q904" t="n">
         <v>20</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65517,7 +65517,7 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K905" t="n">
         <v>5000</v>
@@ -65535,7 +65535,7 @@
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P905" t="n">
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="K906" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L906" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M906" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q906" t="n">
         <v>20</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>350</v>
+        <v>1700</v>
       </c>
       <c r="K907" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L907" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M907" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65679,11 +65679,11 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="Q907" t="n">
         <v>20</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K908" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L908" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M908" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q908" t="n">
         <v>20</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="K909" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L909" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M909" t="n">
-        <v>4325</v>
+        <v>5000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="Q909" t="n">
         <v>20</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>1350</v>
+        <v>350</v>
       </c>
       <c r="K910" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L910" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M910" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q910" t="n">
         <v>20</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="K911" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="L911" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M911" t="n">
-        <v>3938</v>
+        <v>3500</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="Q911" t="n">
         <v>20</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="K912" t="n">
         <v>4000</v>
       </c>
       <c r="L912" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M912" t="n">
-        <v>4000</v>
+        <v>4325</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="Q912" t="n">
         <v>20</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>2300</v>
+        <v>1350</v>
       </c>
       <c r="K913" t="n">
         <v>4500</v>
       </c>
       <c r="L913" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M913" t="n">
-        <v>4826</v>
+        <v>4500</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="Q913" t="n">
         <v>20</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>2600</v>
+        <v>640</v>
       </c>
       <c r="K914" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L914" t="n">
         <v>4000</v>
       </c>
-      <c r="L914" t="n">
-        <v>5000</v>
-      </c>
       <c r="M914" t="n">
-        <v>4462</v>
+        <v>3938</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="Q914" t="n">
         <v>20</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66237,7 +66237,7 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K915" t="n">
         <v>4000</v>
@@ -66255,7 +66255,7 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P915" t="n">
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="K916" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L916" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M916" t="n">
-        <v>3000</v>
+        <v>4826</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="Q916" t="n">
         <v>20</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="K917" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L917" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M917" t="n">
-        <v>8000</v>
+        <v>4462</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>400</v>
+        <v>223</v>
       </c>
       <c r="Q917" t="n">
         <v>20</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K918" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L918" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M918" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q918" t="n">
         <v>20</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K919" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L919" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M919" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="Q919" t="n">
         <v>20</v>
@@ -66593,33 +66593,33 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J920" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K920" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L920" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M920" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N920" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O920" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P920" t="n">
         <v>400</v>
-      </c>
-      <c r="K920" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L920" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M920" t="n">
-        <v>7000</v>
-      </c>
-      <c r="N920" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O920" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P920" t="n">
-        <v>350</v>
       </c>
       <c r="Q920" t="n">
         <v>20</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>810</v>
+        <v>1200</v>
       </c>
       <c r="K921" t="n">
         <v>8000</v>
       </c>
       <c r="L921" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M921" t="n">
-        <v>8679</v>
+        <v>8000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="Q921" t="n">
         <v>20</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="K922" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L922" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M922" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q922" t="n">
         <v>20</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K923" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L923" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M923" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q923" t="n">
         <v>20</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="K924" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L924" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M924" t="n">
-        <v>4000</v>
+        <v>8679</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>200</v>
+        <v>434</v>
       </c>
       <c r="Q924" t="n">
         <v>20</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>1300</v>
+        <v>280</v>
       </c>
       <c r="K925" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L925" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M925" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q925" t="n">
         <v>20</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>1450</v>
+        <v>250</v>
       </c>
       <c r="K926" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L926" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M926" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q926" t="n">
         <v>20</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="K927" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L927" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M927" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q927" t="n">
         <v>20</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>770</v>
+        <v>1300</v>
       </c>
       <c r="K928" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L928" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M928" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q928" t="n">
         <v>20</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>340</v>
+        <v>1450</v>
       </c>
       <c r="K929" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L929" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M929" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q929" t="n">
         <v>20</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,11 +67313,11 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K930" t="n">
         <v>4500</v>
@@ -67335,7 +67335,7 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P930" t="n">
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K931" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L931" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M931" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q931" t="n">
         <v>20</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>880</v>
+        <v>340</v>
       </c>
       <c r="K932" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L932" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M932" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q932" t="n">
         <v>20</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="K933" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L933" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M933" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67551,11 +67551,11 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q933" t="n">
         <v>20</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>450</v>
+        <v>790</v>
       </c>
       <c r="K934" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L934" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M934" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q934" t="n">
         <v>20</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>770</v>
+        <v>880</v>
       </c>
       <c r="K935" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="L935" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M935" t="n">
-        <v>2292</v>
+        <v>5000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="Q935" t="n">
         <v>20</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>1800</v>
+        <v>430</v>
       </c>
       <c r="K936" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L936" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M936" t="n">
-        <v>4861</v>
+        <v>4000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="Q936" t="n">
         <v>20</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>1300</v>
+        <v>450</v>
       </c>
       <c r="K937" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L937" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M937" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q937" t="n">
         <v>20</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>860</v>
+        <v>770</v>
       </c>
       <c r="K938" t="n">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="L938" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M938" t="n">
-        <v>4000</v>
+        <v>2292</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="Q938" t="n">
         <v>20</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K939" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L939" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M939" t="n">
-        <v>4000</v>
+        <v>4861</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="Q939" t="n">
         <v>20</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="K940" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L940" t="n">
         <v>5000</v>
       </c>
       <c r="M940" t="n">
-        <v>4824</v>
+        <v>5000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q940" t="n">
         <v>20</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68105,20 +68105,20 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>3500</v>
+        <v>860</v>
       </c>
       <c r="K941" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L941" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M941" t="n">
-        <v>4729</v>
+        <v>4000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="Q941" t="n">
         <v>20</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68181,7 +68181,7 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K942" t="n">
         <v>4000</v>
@@ -68199,7 +68199,7 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P942" t="n">
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K943" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L943" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M943" t="n">
-        <v>4000</v>
+        <v>4824</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="Q943" t="n">
         <v>20</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="K944" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L944" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M944" t="n">
-        <v>3500</v>
+        <v>4729</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="Q944" t="n">
         <v>20</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>2450</v>
+        <v>500</v>
       </c>
       <c r="K945" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L945" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M945" t="n">
-        <v>5224</v>
+        <v>4000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="Q945" t="n">
         <v>20</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K946" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L946" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M946" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q946" t="n">
         <v>20</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="K947" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L947" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M947" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q947" t="n">
         <v>20</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>400</v>
+        <v>2450</v>
       </c>
       <c r="K948" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L948" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M948" t="n">
-        <v>4000</v>
+        <v>5224</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="Q948" t="n">
         <v>20</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="K949" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L949" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M949" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q949" t="n">
         <v>20</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>1600</v>
+        <v>380</v>
       </c>
       <c r="K950" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L950" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M950" t="n">
-        <v>5750</v>
+        <v>4000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="Q950" t="n">
         <v>20</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>630</v>
+        <v>400</v>
       </c>
       <c r="K951" t="n">
         <v>4000</v>
       </c>
       <c r="L951" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M951" t="n">
-        <v>4262</v>
+        <v>4000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="Q951" t="n">
         <v>20</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K952" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="L952" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="M952" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="Q952" t="n">
         <v>20</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="K953" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L953" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M953" t="n">
-        <v>4712</v>
+        <v>5750</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="Q953" t="n">
         <v>20</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>1500</v>
+        <v>630</v>
       </c>
       <c r="K954" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L954" t="n">
         <v>4500</v>
       </c>
-      <c r="L954" t="n">
-        <v>5000</v>
-      </c>
       <c r="M954" t="n">
-        <v>4700</v>
+        <v>4262</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="Q954" t="n">
         <v>20</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J955" t="n">
+        <v>250</v>
+      </c>
+      <c r="K955" t="n">
         <v>300</v>
       </c>
-      <c r="K955" t="n">
-        <v>4000</v>
-      </c>
       <c r="L955" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="M955" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="Q955" t="n">
         <v>20</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>200</v>
+        <v>2600</v>
       </c>
       <c r="K956" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L956" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M956" t="n">
-        <v>4000</v>
+        <v>4712</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q956" t="n">
         <v>20</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K957" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L957" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M957" t="n">
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="Q957" t="n">
         <v>20</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K958" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L958" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M958" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q958" t="n">
         <v>20</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69401,20 +69401,20 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>3700</v>
+        <v>200</v>
       </c>
       <c r="K959" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L959" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M959" t="n">
-        <v>4676</v>
+        <v>4000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="Q959" t="n">
         <v>20</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>3100</v>
+        <v>400</v>
       </c>
       <c r="K960" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L960" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M960" t="n">
-        <v>4710</v>
+        <v>3000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="Q960" t="n">
         <v>20</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K961" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L961" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M961" t="n">
-        <v>3773</v>
+        <v>3000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69567,11 +69567,11 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="Q961" t="n">
         <v>20</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>2100</v>
+        <v>3700</v>
       </c>
       <c r="K962" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L962" t="n">
         <v>5000</v>
       </c>
-      <c r="L962" t="n">
-        <v>5500</v>
-      </c>
       <c r="M962" t="n">
-        <v>5310</v>
+        <v>4676</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="Q962" t="n">
         <v>20</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69693,7 +69693,7 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>2790</v>
+        <v>3100</v>
       </c>
       <c r="K963" t="n">
         <v>4500</v>
@@ -69702,7 +69702,7 @@
         <v>5000</v>
       </c>
       <c r="M963" t="n">
-        <v>4693</v>
+        <v>4710</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q963" t="n">
         <v>20</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>560</v>
+        <v>1100</v>
       </c>
       <c r="K964" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L964" t="n">
         <v>4000</v>
       </c>
       <c r="M964" t="n">
-        <v>4000</v>
+        <v>3773</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q964" t="n">
         <v>20</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>680</v>
+        <v>2100</v>
       </c>
       <c r="K965" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L965" t="n">
-        <v>3800</v>
+        <v>5500</v>
       </c>
       <c r="M965" t="n">
-        <v>3654</v>
+        <v>5310</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="Q965" t="n">
         <v>20</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>2800</v>
+        <v>2790</v>
       </c>
       <c r="K966" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L966" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M966" t="n">
-        <v>6000</v>
+        <v>4693</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="Q966" t="n">
         <v>20</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="K967" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L967" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M967" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q967" t="n">
         <v>20</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44195</v>
+        <v>44452</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>2600</v>
+        <v>680</v>
       </c>
       <c r="K968" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="L968" t="n">
-        <v>7500</v>
+        <v>3800</v>
       </c>
       <c r="M968" t="n">
-        <v>7500</v>
+        <v>3654</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="Q968" t="n">
         <v>20</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="K969" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L969" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M969" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q969" t="n">
         <v>20</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K970" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L970" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M970" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="Q970" t="n">
         <v>20</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="K971" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L971" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M971" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="Q971" t="n">
         <v>20</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K972" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L972" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M972" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q972" t="n">
         <v>20</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>1770</v>
+        <v>1200</v>
       </c>
       <c r="K973" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L973" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M973" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="Q973" t="n">
         <v>20</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K974" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L974" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M974" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q974" t="n">
         <v>20</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K975" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L975" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M975" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q975" t="n">
         <v>20</v>
@@ -70625,33 +70625,33 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J976" t="n">
+        <v>1770</v>
+      </c>
+      <c r="K976" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L976" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M976" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N976" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O976" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P976" t="n">
         <v>400</v>
-      </c>
-      <c r="K976" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L976" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M976" t="n">
-        <v>7000</v>
-      </c>
-      <c r="N976" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O976" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P976" t="n">
-        <v>350</v>
       </c>
       <c r="Q976" t="n">
         <v>20</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="K977" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L977" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M977" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="Q977" t="n">
         <v>20</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>2700</v>
+        <v>650</v>
       </c>
       <c r="K978" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L978" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M978" t="n">
-        <v>4481</v>
+        <v>7000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>224</v>
+        <v>350</v>
       </c>
       <c r="Q978" t="n">
         <v>20</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="K979" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L979" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M979" t="n">
-        <v>4690</v>
+        <v>7000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="Q979" t="n">
         <v>20</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="K980" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L980" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M980" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="Q980" t="n">
         <v>20</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="K981" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L981" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M981" t="n">
-        <v>3886</v>
+        <v>4481</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="Q981" t="n">
         <v>20</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="K982" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L982" t="n">
         <v>5000</v>
       </c>
-      <c r="L982" t="n">
-        <v>5500</v>
-      </c>
       <c r="M982" t="n">
-        <v>5267</v>
+        <v>4690</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="Q982" t="n">
         <v>20</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>2300</v>
+        <v>750</v>
       </c>
       <c r="K983" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L983" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M983" t="n">
-        <v>5283</v>
+        <v>3800</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="Q983" t="n">
         <v>20</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K984" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="L984" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M984" t="n">
-        <v>5000</v>
+        <v>3886</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="Q984" t="n">
         <v>20</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K985" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L985" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M985" t="n">
-        <v>4500</v>
+        <v>5267</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="Q985" t="n">
         <v>20</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>90</v>
+        <v>2300</v>
       </c>
       <c r="K986" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L986" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M986" t="n">
-        <v>3500</v>
+        <v>5283</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="Q986" t="n">
         <v>20</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K987" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L987" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M987" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q987" t="n">
         <v>20</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>2200</v>
+        <v>250</v>
       </c>
       <c r="K988" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L988" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M988" t="n">
-        <v>5205</v>
+        <v>4500</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="Q988" t="n">
         <v>20</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>2800</v>
+        <v>90</v>
       </c>
       <c r="K989" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L989" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="M989" t="n">
-        <v>5232</v>
+        <v>3500</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="Q989" t="n">
         <v>20</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K990" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L990" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M990" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q990" t="n">
         <v>20</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>350</v>
+        <v>2200</v>
       </c>
       <c r="K991" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L991" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M991" t="n">
-        <v>4500</v>
+        <v>5205</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="Q991" t="n">
         <v>20</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>300</v>
+        <v>2800</v>
       </c>
       <c r="K992" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L992" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M992" t="n">
-        <v>8000</v>
+        <v>5232</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>400</v>
+        <v>262</v>
       </c>
       <c r="Q992" t="n">
         <v>20</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>1450</v>
+        <v>400</v>
       </c>
       <c r="K993" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L993" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M993" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q993" t="n">
         <v>20</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="K994" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L994" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M994" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="Q994" t="n">
         <v>20</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K995" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L995" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M995" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q995" t="n">
         <v>20</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>600</v>
+        <v>1450</v>
       </c>
       <c r="K996" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L996" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M996" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q996" t="n">
         <v>20</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="K997" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L997" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M997" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q997" t="n">
         <v>20</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K998" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L998" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M998" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q998" t="n">
         <v>20</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K999" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L999" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M999" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q999" t="n">
         <v>20</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="K1000" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1000" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1000" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72375,11 +72375,11 @@
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q1000" t="n">
         <v>20</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>2150</v>
+        <v>1300</v>
       </c>
       <c r="K1001" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1001" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1001" t="n">
-        <v>4814</v>
+        <v>6000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="Q1001" t="n">
         <v>20</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72504,13 +72504,13 @@
         <v>700</v>
       </c>
       <c r="K1002" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1002" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1002" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q1002" t="n">
         <v>20</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44461</v>
+        <v>44239</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="K1003" t="n">
         <v>5000</v>
       </c>
       <c r="L1003" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1003" t="n">
-        <v>5155</v>
+        <v>5000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q1003" t="n">
         <v>20</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44461</v>
+        <v>44344</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>680</v>
+        <v>2150</v>
       </c>
       <c r="K1004" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1004" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1004" t="n">
-        <v>4000</v>
+        <v>4814</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="Q1004" t="n">
         <v>20</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44463</v>
+        <v>44344</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="K1005" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1005" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1005" t="n">
-        <v>7418</v>
+        <v>4000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>371</v>
+        <v>200</v>
       </c>
       <c r="Q1005" t="n">
         <v>20</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>460</v>
+        <v>2100</v>
       </c>
       <c r="K1006" t="n">
         <v>5000</v>
       </c>
       <c r="L1006" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1006" t="n">
-        <v>5435</v>
+        <v>5155</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="Q1006" t="n">
         <v>20</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="K1007" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L1007" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1007" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1007" t="n">
         <v>20</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K1008" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L1008" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M1008" t="n">
-        <v>3000</v>
+        <v>7418</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>150</v>
+        <v>371</v>
       </c>
       <c r="Q1008" t="n">
         <v>20</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>2600</v>
+        <v>460</v>
       </c>
       <c r="K1009" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1009" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1009" t="n">
-        <v>4731</v>
+        <v>5435</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="Q1009" t="n">
         <v>20</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="K1010" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L1010" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1010" t="n">
-        <v>4842</v>
+        <v>3000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73095,11 +73095,11 @@
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="Q1010" t="n">
         <v>20</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K1011" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L1011" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1011" t="n">
-        <v>3769</v>
+        <v>3000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="Q1011" t="n">
         <v>20</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="K1012" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L1012" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1012" t="n">
-        <v>3750</v>
+        <v>4731</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="Q1012" t="n">
         <v>20</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="K1013" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L1013" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M1013" t="n">
-        <v>3500</v>
+        <v>4842</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73311,11 +73311,11 @@
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="Q1013" t="n">
         <v>20</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="K1014" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1014" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1014" t="n">
-        <v>4825</v>
+        <v>3769</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="Q1014" t="n">
         <v>20</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="K1015" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1015" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1015" t="n">
-        <v>4833</v>
+        <v>3750</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="Q1015" t="n">
         <v>20</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>1150</v>
+        <v>300</v>
       </c>
       <c r="K1016" t="n">
         <v>3500</v>
       </c>
       <c r="L1016" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1016" t="n">
-        <v>3783</v>
+        <v>3500</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="Q1016" t="n">
         <v>20</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K1017" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1017" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1017" t="n">
-        <v>4000</v>
+        <v>4825</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="Q1017" t="n">
         <v>20</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K1018" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L1018" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M1018" t="n">
-        <v>3000</v>
+        <v>4833</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="Q1018" t="n">
         <v>20</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>2100</v>
+        <v>1150</v>
       </c>
       <c r="K1019" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1019" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1019" t="n">
-        <v>4833</v>
+        <v>3783</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="Q1019" t="n">
         <v>20</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K1020" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1020" t="n">
         <v>4000</v>
       </c>
       <c r="M1020" t="n">
-        <v>3786</v>
+        <v>4000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73815,11 +73815,11 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q1020" t="n">
         <v>20</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="K1021" t="n">
-        <v>4700</v>
+        <v>3000</v>
       </c>
       <c r="L1021" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1021" t="n">
-        <v>4886</v>
+        <v>3000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="Q1021" t="n">
         <v>20</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73941,7 +73941,7 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>2060</v>
+        <v>2100</v>
       </c>
       <c r="K1022" t="n">
         <v>4500</v>
@@ -73950,7 +73950,7 @@
         <v>5000</v>
       </c>
       <c r="M1022" t="n">
-        <v>4816</v>
+        <v>4833</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q1022" t="n">
         <v>20</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K1023" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1023" t="n">
         <v>4000</v>
       </c>
       <c r="M1023" t="n">
-        <v>4000</v>
+        <v>3786</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q1023" t="n">
         <v>20</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>380</v>
+        <v>2100</v>
       </c>
       <c r="K1024" t="n">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="L1024" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1024" t="n">
-        <v>4000</v>
+        <v>4886</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74103,11 +74103,11 @@
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="Q1024" t="n">
         <v>20</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>2400</v>
+        <v>2060</v>
       </c>
       <c r="K1025" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L1025" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1025" t="n">
-        <v>7000</v>
+        <v>4816</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74175,11 +74175,11 @@
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>350</v>
+        <v>241</v>
       </c>
       <c r="Q1025" t="n">
         <v>20</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K1026" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1026" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1026" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74247,11 +74247,11 @@
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q1026" t="n">
         <v>20</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>1100</v>
+        <v>380</v>
       </c>
       <c r="K1027" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1027" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1027" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74319,11 +74319,11 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="Q1027" t="n">
         <v>20</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="K1028" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L1028" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1028" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="Q1028" t="n">
         <v>20</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="K1029" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L1029" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M1029" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="Q1029" t="n">
         <v>20</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74513,20 +74513,20 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>3700</v>
+        <v>1100</v>
       </c>
       <c r="K1030" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1030" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1030" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="Q1030" t="n">
         <v>20</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="K1031" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1031" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1031" t="n">
-        <v>4833</v>
+        <v>5500</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="Q1031" t="n">
         <v>20</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K1032" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1032" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1032" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q1032" t="n">
         <v>20</v>
@@ -74729,20 +74729,20 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>600</v>
+        <v>3700</v>
       </c>
       <c r="K1033" t="n">
         <v>4000</v>
       </c>
       <c r="L1033" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1033" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74751,11 +74751,11 @@
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q1033" t="n">
         <v>20</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>330</v>
+        <v>1800</v>
       </c>
       <c r="K1034" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L1034" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1034" t="n">
-        <v>7000</v>
+        <v>4833</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74823,11 +74823,11 @@
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="Q1034" t="n">
         <v>20</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K1035" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1035" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1035" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q1035" t="n">
         <v>20</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74945,20 +74945,20 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>1780</v>
+        <v>600</v>
       </c>
       <c r="K1036" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1036" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1036" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>375</v>
+        <v>200</v>
       </c>
       <c r="Q1036" t="n">
         <v>20</v>
@@ -75017,20 +75017,20 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>470</v>
+        <v>330</v>
       </c>
       <c r="K1037" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1037" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1037" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q1037" t="n">
         <v>20</v>
@@ -75089,20 +75089,20 @@
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>570</v>
+        <v>1500</v>
       </c>
       <c r="K1038" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L1038" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1038" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75111,11 +75111,11 @@
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q1038" t="n">
         <v>20</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75161,20 +75161,20 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>290</v>
+        <v>1780</v>
       </c>
       <c r="K1039" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1039" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1039" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75183,11 +75183,11 @@
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="Q1039" t="n">
         <v>20</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>1450</v>
+        <v>470</v>
       </c>
       <c r="K1040" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1040" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1040" t="n">
-        <v>5207</v>
+        <v>6000</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q1040" t="n">
         <v>20</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75305,11 +75305,11 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>950</v>
+        <v>570</v>
       </c>
       <c r="K1041" t="n">
         <v>5000</v>
@@ -75377,20 +75377,20 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="K1042" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1042" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1042" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75399,11 +75399,11 @@
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q1042" t="n">
         <v>20</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>320</v>
+        <v>1450</v>
       </c>
       <c r="K1043" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1043" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1043" t="n">
-        <v>4000</v>
+        <v>5207</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="Q1043" t="n">
         <v>20</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>730</v>
+        <v>950</v>
       </c>
       <c r="K1044" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1044" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1044" t="n">
-        <v>3774</v>
+        <v>5000</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="Q1044" t="n">
         <v>20</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K1045" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1045" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1045" t="n">
-        <v>5086</v>
+        <v>5500</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="Q1045" t="n">
         <v>20</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="K1046" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1046" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M1046" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75687,11 +75687,11 @@
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q1046" t="n">
         <v>20</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>2100</v>
+        <v>730</v>
       </c>
       <c r="K1047" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1047" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1047" t="n">
-        <v>4810</v>
+        <v>3774</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75759,11 +75759,11 @@
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="Q1047" t="n">
         <v>20</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75809,20 +75809,20 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>2500</v>
+        <v>810</v>
       </c>
       <c r="K1048" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1048" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1048" t="n">
-        <v>4740</v>
+        <v>5086</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75831,11 +75831,11 @@
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="Q1048" t="n">
         <v>20</v>
@@ -75881,20 +75881,20 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K1049" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1049" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1049" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75903,11 +75903,11 @@
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q1049" t="n">
         <v>20</v>
@@ -75953,38 +75953,254 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1050" t="n">
+        <v>2100</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>4810</v>
+      </c>
+      <c r="N1050" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1050" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1050" t="n">
+        <v>240</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1050" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1051" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1051" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1051" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1051" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1051" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>4740</v>
+      </c>
+      <c r="N1051" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1051" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P1051" t="n">
+        <v>237</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1051" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1052" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1052" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1052" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1050" t="n">
+      <c r="J1052" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N1052" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1052" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1052" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1052" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1053" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1053" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1053" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1053" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1053" t="n">
         <v>700</v>
       </c>
-      <c r="K1050" t="n">
+      <c r="K1053" t="n">
         <v>4000</v>
       </c>
-      <c r="L1050" t="n">
+      <c r="L1053" t="n">
         <v>4000</v>
       </c>
-      <c r="M1050" t="n">
+      <c r="M1053" t="n">
         <v>4000</v>
       </c>
-      <c r="N1050" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O1050" t="inlineStr">
+      <c r="N1053" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1053" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P1050" t="n">
+      <c r="P1053" t="n">
         <v>200</v>
       </c>
-      <c r="Q1050" t="n">
-        <v>20</v>
-      </c>
-      <c r="R1050" t="inlineStr">
+      <c r="Q1053" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1053" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1073"/>
+  <dimension ref="A1:R1078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="K864" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L864" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M864" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q864" t="n">
         <v>20</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="K865" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L865" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M865" t="n">
-        <v>4174</v>
+        <v>5219</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="Q865" t="n">
         <v>20</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K866" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L866" t="n">
-        <v>3800</v>
+        <v>5500</v>
       </c>
       <c r="M866" t="n">
-        <v>3620</v>
+        <v>5154</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="Q866" t="n">
         <v>20</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="K867" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L867" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M867" t="n">
-        <v>5500</v>
+        <v>3735</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="Q867" t="n">
         <v>20</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>3300</v>
+        <v>380</v>
       </c>
       <c r="K868" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L868" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M868" t="n">
-        <v>6712</v>
+        <v>3000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="Q868" t="n">
         <v>20</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="K869" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L869" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M869" t="n">
-        <v>6204</v>
+        <v>3000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="Q869" t="n">
         <v>20</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="K870" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L870" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M870" t="n">
-        <v>5000</v>
+        <v>4174</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="Q870" t="n">
         <v>20</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44519</v>
+        <v>44386</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K871" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="L871" t="n">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="M871" t="n">
-        <v>5500</v>
+        <v>3620</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="Q871" t="n">
         <v>20</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K872" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L872" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M872" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="Q872" t="n">
         <v>20</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="K873" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L873" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M873" t="n">
-        <v>4696</v>
+        <v>6712</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>235</v>
+        <v>336</v>
       </c>
       <c r="Q873" t="n">
         <v>20</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44420</v>
+        <v>44519</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="K874" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L874" t="n">
-        <v>3700</v>
+        <v>6500</v>
       </c>
       <c r="M874" t="n">
-        <v>3589</v>
+        <v>6204</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="Q874" t="n">
         <v>20</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K875" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L875" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M875" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63375,11 +63375,11 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q875" t="n">
         <v>20</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K876" t="n">
         <v>5500</v>
       </c>
       <c r="L876" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M876" t="n">
-        <v>5732</v>
+        <v>5500</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="Q876" t="n">
         <v>20</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44543</v>
+        <v>44420</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K877" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L877" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M877" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="Q877" t="n">
         <v>20</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>300</v>
+        <v>2800</v>
       </c>
       <c r="K878" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L878" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M878" t="n">
-        <v>3000</v>
+        <v>4696</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="Q878" t="n">
         <v>20</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44321</v>
+        <v>44420</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K879" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L879" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="M879" t="n">
-        <v>3000</v>
+        <v>3589</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="Q879" t="n">
         <v>20</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>3000</v>
+        <v>160</v>
       </c>
       <c r="K880" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L880" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M880" t="n">
-        <v>4550</v>
+        <v>7000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63735,11 +63735,11 @@
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>228</v>
+        <v>350</v>
       </c>
       <c r="Q880" t="n">
         <v>20</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63789,16 +63789,16 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="K881" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L881" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M881" t="n">
-        <v>4710</v>
+        <v>5732</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63807,11 +63807,11 @@
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="Q881" t="n">
         <v>20</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K882" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L882" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M882" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63879,11 +63879,11 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q882" t="n">
         <v>20</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63933,7 +63933,7 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K883" t="n">
         <v>3000</v>
@@ -63951,7 +63951,7 @@
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P883" t="n">
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>5300</v>
+        <v>600</v>
       </c>
       <c r="K884" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L884" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M884" t="n">
-        <v>4223</v>
+        <v>3000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64023,11 +64023,11 @@
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="Q884" t="n">
         <v>20</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K885" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L885" t="n">
         <v>5000</v>
       </c>
       <c r="M885" t="n">
-        <v>4688</v>
+        <v>4550</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q885" t="n">
         <v>20</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="K886" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L886" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M886" t="n">
-        <v>3760</v>
+        <v>4710</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64167,11 +64167,11 @@
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="Q886" t="n">
         <v>20</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K887" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L887" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M887" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q887" t="n">
         <v>20</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="K888" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L888" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M888" t="n">
-        <v>4680</v>
+        <v>3000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="Q888" t="n">
         <v>20</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>2100</v>
+        <v>5300</v>
       </c>
       <c r="K889" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L889" t="n">
         <v>4500</v>
       </c>
-      <c r="L889" t="n">
-        <v>5000</v>
-      </c>
       <c r="M889" t="n">
-        <v>4714</v>
+        <v>4223</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64383,11 +64383,11 @@
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="Q889" t="n">
         <v>20</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="K890" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L890" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M890" t="n">
-        <v>4000</v>
+        <v>4688</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="Q890" t="n">
         <v>20</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64509,7 +64509,7 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="K891" t="n">
         <v>3500</v>
@@ -64518,7 +64518,7 @@
         <v>4000</v>
       </c>
       <c r="M891" t="n">
-        <v>3676</v>
+        <v>3760</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q891" t="n">
         <v>20</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>3150</v>
+        <v>800</v>
       </c>
       <c r="K892" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L892" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M892" t="n">
-        <v>4756</v>
+        <v>4000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64599,11 +64599,11 @@
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="Q892" t="n">
         <v>20</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="K893" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L893" t="n">
         <v>5000</v>
       </c>
       <c r="M893" t="n">
-        <v>5000</v>
+        <v>4680</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="Q893" t="n">
         <v>20</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="K894" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L894" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M894" t="n">
-        <v>3833</v>
+        <v>4714</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64743,11 +64743,11 @@
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="Q894" t="n">
         <v>20</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64797,7 +64797,7 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K895" t="n">
         <v>4000</v>
@@ -64815,7 +64815,7 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P895" t="n">
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>3100</v>
+        <v>1700</v>
       </c>
       <c r="K896" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L896" t="n">
         <v>4000</v>
       </c>
-      <c r="L896" t="n">
-        <v>4500</v>
-      </c>
       <c r="M896" t="n">
-        <v>4210</v>
+        <v>3676</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64887,11 +64887,11 @@
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="Q896" t="n">
         <v>20</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64941,7 +64941,7 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>1300</v>
+        <v>3150</v>
       </c>
       <c r="K897" t="n">
         <v>4500</v>
@@ -64950,7 +64950,7 @@
         <v>5000</v>
       </c>
       <c r="M897" t="n">
-        <v>4731</v>
+        <v>4756</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q897" t="n">
         <v>20</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="K898" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L898" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M898" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q898" t="n">
         <v>20</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>340</v>
+        <v>1800</v>
       </c>
       <c r="K899" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L899" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M899" t="n">
-        <v>4500</v>
+        <v>3833</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="Q899" t="n">
         <v>20</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="K900" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L900" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M900" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q900" t="n">
         <v>20</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>970</v>
+        <v>3100</v>
       </c>
       <c r="K901" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L901" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M901" t="n">
-        <v>5000</v>
+        <v>4210</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="Q901" t="n">
         <v>20</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>790</v>
+        <v>1300</v>
       </c>
       <c r="K902" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L902" t="n">
         <v>5000</v>
       </c>
       <c r="M902" t="n">
-        <v>5000</v>
+        <v>4731</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="Q902" t="n">
         <v>20</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65373,7 +65373,7 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="K903" t="n">
         <v>4000</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J904" t="n">
         <v>340</v>
       </c>
       <c r="K904" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L904" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M904" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q904" t="n">
         <v>20</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K905" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L905" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M905" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65535,11 +65535,11 @@
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q905" t="n">
         <v>20</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>1560</v>
+        <v>970</v>
       </c>
       <c r="K906" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L906" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M906" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="Q906" t="n">
         <v>20</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>1730</v>
+        <v>790</v>
       </c>
       <c r="K907" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L907" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M907" t="n">
-        <v>7783</v>
+        <v>5000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="Q907" t="n">
         <v>20</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65733,16 +65733,16 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="K908" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L908" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M908" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q908" t="n">
         <v>20</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K909" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L909" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M909" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q909" t="n">
         <v>20</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>1960</v>
+        <v>400</v>
       </c>
       <c r="K910" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L910" t="n">
         <v>5000</v>
       </c>
       <c r="M910" t="n">
-        <v>4827</v>
+        <v>5000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q910" t="n">
         <v>20</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>2480</v>
+        <v>1560</v>
       </c>
       <c r="K911" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L911" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M911" t="n">
-        <v>4698</v>
+        <v>8000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>235</v>
+        <v>400</v>
       </c>
       <c r="Q911" t="n">
         <v>20</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>370</v>
+        <v>1730</v>
       </c>
       <c r="K912" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="L912" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M912" t="n">
-        <v>4000</v>
+        <v>7783</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="Q912" t="n">
         <v>20</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="K913" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L913" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M913" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q913" t="n">
         <v>20</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44529</v>
+        <v>44474</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>2600</v>
+        <v>450</v>
       </c>
       <c r="K914" t="n">
         <v>6000</v>
       </c>
       <c r="L914" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M914" t="n">
-        <v>6212</v>
+        <v>6000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Q914" t="n">
         <v>20</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44529</v>
+        <v>44446</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>600</v>
+        <v>1960</v>
       </c>
       <c r="K915" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L915" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M915" t="n">
-        <v>5500</v>
+        <v>4827</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="Q915" t="n">
         <v>20</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44405</v>
+        <v>44446</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>300</v>
+        <v>2480</v>
       </c>
       <c r="K916" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L916" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M916" t="n">
-        <v>3000</v>
+        <v>4698</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="Q916" t="n">
         <v>20</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44405</v>
+        <v>44446</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,11 +66377,11 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>2350</v>
+        <v>370</v>
       </c>
       <c r="K917" t="n">
         <v>4000</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44405</v>
+        <v>44446</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>870</v>
+        <v>560</v>
       </c>
       <c r="K918" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="L918" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M918" t="n">
-        <v>3415</v>
+        <v>4000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="Q918" t="n">
         <v>20</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="K919" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L919" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="M919" t="n">
-        <v>3000</v>
+        <v>6212</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="Q919" t="n">
         <v>20</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>2900</v>
+        <v>600</v>
       </c>
       <c r="K920" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L920" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M920" t="n">
-        <v>4259</v>
+        <v>5500</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="Q920" t="n">
         <v>20</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K921" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L921" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M921" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q921" t="n">
         <v>20</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>2500</v>
+        <v>2350</v>
       </c>
       <c r="K922" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L922" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M922" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q922" t="n">
         <v>20</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44238</v>
+        <v>44405</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>1600</v>
+        <v>870</v>
       </c>
       <c r="K923" t="n">
-        <v>6000</v>
+        <v>3300</v>
       </c>
       <c r="L923" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M923" t="n">
-        <v>6000</v>
+        <v>3415</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="Q923" t="n">
         <v>20</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K924" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L924" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M924" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q924" t="n">
         <v>20</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>500</v>
+        <v>2900</v>
       </c>
       <c r="K925" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L925" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M925" t="n">
-        <v>5000</v>
+        <v>4259</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="Q925" t="n">
         <v>20</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44257</v>
+        <v>44413</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="K926" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L926" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M926" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="Q926" t="n">
         <v>20</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67101,7 +67101,7 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="K927" t="n">
         <v>6000</v>
@@ -67119,7 +67119,7 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P927" t="n">
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K928" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L928" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M928" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q928" t="n">
         <v>20</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67245,7 +67245,7 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K929" t="n">
         <v>5000</v>
@@ -67263,7 +67263,7 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P929" t="n">
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44411</v>
+        <v>44238</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K930" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L930" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M930" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q930" t="n">
         <v>20</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,33 +67385,33 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J931" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K931" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L931" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M931" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N931" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O931" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P931" t="n">
         <v>300</v>
-      </c>
-      <c r="K931" t="n">
-        <v>3500</v>
-      </c>
-      <c r="L931" t="n">
-        <v>3500</v>
-      </c>
-      <c r="M931" t="n">
-        <v>3500</v>
-      </c>
-      <c r="N931" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O931" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="P931" t="n">
-        <v>175</v>
       </c>
       <c r="Q931" t="n">
         <v>20</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="K932" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L932" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M932" t="n">
-        <v>4325</v>
+        <v>6000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="Q932" t="n">
         <v>20</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>1350</v>
+        <v>1100</v>
       </c>
       <c r="K933" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L933" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M933" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67551,11 +67551,11 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q933" t="n">
         <v>20</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="K934" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="L934" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M934" t="n">
-        <v>3938</v>
+        <v>5000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="Q934" t="n">
         <v>20</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="K935" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L935" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M935" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q935" t="n">
         <v>20</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="K936" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L936" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M936" t="n">
-        <v>4826</v>
+        <v>3500</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="Q936" t="n">
         <v>20</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K937" t="n">
         <v>4000</v>
       </c>
       <c r="L937" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M937" t="n">
-        <v>4462</v>
+        <v>4325</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Q937" t="n">
         <v>20</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>700</v>
+        <v>1350</v>
       </c>
       <c r="K938" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L938" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M938" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q938" t="n">
         <v>20</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>1300</v>
+        <v>640</v>
       </c>
       <c r="K939" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L939" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M939" t="n">
-        <v>3000</v>
+        <v>3938</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="Q939" t="n">
         <v>20</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44196</v>
+        <v>44411</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="K940" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L940" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M940" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q940" t="n">
         <v>20</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K941" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L941" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M941" t="n">
-        <v>8000</v>
+        <v>4826</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>400</v>
+        <v>241</v>
       </c>
       <c r="Q941" t="n">
         <v>20</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="K942" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L942" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M942" t="n">
-        <v>7000</v>
+        <v>4462</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>350</v>
+        <v>223</v>
       </c>
       <c r="Q942" t="n">
         <v>20</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K943" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L943" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M943" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q943" t="n">
         <v>20</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>810</v>
+        <v>1300</v>
       </c>
       <c r="K944" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L944" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M944" t="n">
-        <v>8679</v>
+        <v>3000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>434</v>
+        <v>150</v>
       </c>
       <c r="Q944" t="n">
         <v>20</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>280</v>
+        <v>2400</v>
       </c>
       <c r="K945" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L945" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M945" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q945" t="n">
         <v>20</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="K946" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L946" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M946" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q946" t="n">
         <v>20</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44459</v>
+        <v>44196</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="K947" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L947" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M947" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q947" t="n">
         <v>20</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44459</v>
+        <v>44196</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K948" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L948" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M948" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q948" t="n">
         <v>20</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>1450</v>
+        <v>810</v>
       </c>
       <c r="K949" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L949" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M949" t="n">
-        <v>5000</v>
+        <v>8679</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>250</v>
+        <v>434</v>
       </c>
       <c r="Q949" t="n">
         <v>20</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="K950" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L950" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M950" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="Q950" t="n">
         <v>20</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>770</v>
+        <v>250</v>
       </c>
       <c r="K951" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L951" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M951" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q951" t="n">
         <v>20</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K952" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L952" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M952" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q952" t="n">
         <v>20</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68969,20 +68969,20 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="K953" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L953" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M953" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q953" t="n">
         <v>20</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69045,7 +69045,7 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>790</v>
+        <v>1450</v>
       </c>
       <c r="K954" t="n">
         <v>5000</v>
@@ -69063,7 +69063,7 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P954" t="n">
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>880</v>
+        <v>600</v>
       </c>
       <c r="K955" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L955" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M955" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q955" t="n">
         <v>20</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69189,7 +69189,7 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>430</v>
+        <v>770</v>
       </c>
       <c r="K956" t="n">
         <v>4000</v>
@@ -69207,7 +69207,7 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P956" t="n">
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K957" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L957" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M957" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q957" t="n">
         <v>20</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>770</v>
+        <v>350</v>
       </c>
       <c r="K958" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="L958" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M958" t="n">
-        <v>2292</v>
+        <v>4500</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="Q958" t="n">
         <v>20</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>1800</v>
+        <v>790</v>
       </c>
       <c r="K959" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L959" t="n">
         <v>5000</v>
       </c>
       <c r="M959" t="n">
-        <v>4861</v>
+        <v>5000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q959" t="n">
         <v>20</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69477,7 +69477,7 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>1300</v>
+        <v>880</v>
       </c>
       <c r="K960" t="n">
         <v>5000</v>
@@ -69495,7 +69495,7 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P960" t="n">
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69549,7 +69549,7 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>860</v>
+        <v>430</v>
       </c>
       <c r="K961" t="n">
         <v>4000</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69621,7 +69621,7 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="K962" t="n">
         <v>4000</v>
@@ -69639,7 +69639,7 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P962" t="n">
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>1700</v>
+        <v>770</v>
       </c>
       <c r="K963" t="n">
-        <v>4500</v>
+        <v>400</v>
       </c>
       <c r="L963" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M963" t="n">
-        <v>4824</v>
+        <v>2292</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="Q963" t="n">
         <v>20</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69765,7 +69765,7 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="K964" t="n">
         <v>4500</v>
@@ -69774,7 +69774,7 @@
         <v>5000</v>
       </c>
       <c r="M964" t="n">
-        <v>4729</v>
+        <v>4861</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q964" t="n">
         <v>20</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="K965" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L965" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M965" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q965" t="n">
         <v>20</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69909,7 +69909,7 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="K966" t="n">
         <v>4000</v>
@@ -69927,7 +69927,7 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P966" t="n">
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44432</v>
+        <v>44258</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K967" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L967" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M967" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q967" t="n">
         <v>20</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70053,16 +70053,16 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>2450</v>
+        <v>1700</v>
       </c>
       <c r="K968" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L968" t="n">
         <v>5000</v>
       </c>
-      <c r="L968" t="n">
-        <v>5500</v>
-      </c>
       <c r="M968" t="n">
-        <v>5224</v>
+        <v>4824</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="Q968" t="n">
         <v>20</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="K969" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L969" t="n">
         <v>5000</v>
       </c>
       <c r="M969" t="n">
-        <v>5000</v>
+        <v>4729</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Q969" t="n">
         <v>20</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70197,7 +70197,7 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K970" t="n">
         <v>4000</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70269,7 +70269,7 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K971" t="n">
         <v>4000</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70341,7 +70341,7 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K972" t="n">
         <v>3500</v>
@@ -70359,7 +70359,7 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P972" t="n">
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>1600</v>
+        <v>2450</v>
       </c>
       <c r="K973" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L973" t="n">
         <v>5500</v>
       </c>
-      <c r="L973" t="n">
-        <v>6000</v>
-      </c>
       <c r="M973" t="n">
-        <v>5750</v>
+        <v>5224</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="Q973" t="n">
         <v>20</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="K974" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L974" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M974" t="n">
-        <v>4262</v>
+        <v>5000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="Q974" t="n">
         <v>20</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="K975" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="L975" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="M975" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="Q975" t="n">
         <v>20</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="K976" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L976" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M976" t="n">
-        <v>4712</v>
+        <v>4000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="Q976" t="n">
         <v>20</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>1500</v>
+        <v>270</v>
       </c>
       <c r="K977" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L977" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M977" t="n">
-        <v>4700</v>
+        <v>3500</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="Q977" t="n">
         <v>20</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K978" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L978" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M978" t="n">
-        <v>4000</v>
+        <v>5750</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="Q978" t="n">
         <v>20</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>200</v>
+        <v>630</v>
       </c>
       <c r="K979" t="n">
         <v>4000</v>
       </c>
       <c r="L979" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M979" t="n">
-        <v>4000</v>
+        <v>4262</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="Q979" t="n">
         <v>20</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K980" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="L980" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="M980" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="Q980" t="n">
         <v>20</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="K981" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L981" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M981" t="n">
-        <v>3000</v>
+        <v>4712</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="Q981" t="n">
         <v>20</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71061,7 +71061,7 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>3700</v>
+        <v>1500</v>
       </c>
       <c r="K982" t="n">
         <v>4500</v>
@@ -71070,7 +71070,7 @@
         <v>5000</v>
       </c>
       <c r="M982" t="n">
-        <v>4676</v>
+        <v>4700</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q982" t="n">
         <v>20</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>3100</v>
+        <v>300</v>
       </c>
       <c r="K983" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L983" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M983" t="n">
-        <v>4710</v>
+        <v>4000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="Q983" t="n">
         <v>20</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="K984" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L984" t="n">
         <v>4000</v>
       </c>
       <c r="M984" t="n">
-        <v>3773</v>
+        <v>4000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q984" t="n">
         <v>20</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="K985" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L985" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M985" t="n">
-        <v>5310</v>
+        <v>3000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="Q985" t="n">
         <v>20</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>2790</v>
+        <v>600</v>
       </c>
       <c r="K986" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L986" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M986" t="n">
-        <v>4693</v>
+        <v>3000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="Q986" t="n">
         <v>20</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>560</v>
+        <v>3700</v>
       </c>
       <c r="K987" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L987" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M987" t="n">
-        <v>4000</v>
+        <v>4676</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="Q987" t="n">
         <v>20</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>680</v>
+        <v>3100</v>
       </c>
       <c r="K988" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L988" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="M988" t="n">
-        <v>3654</v>
+        <v>4710</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="Q988" t="n">
         <v>20</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="K989" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L989" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M989" t="n">
-        <v>6000</v>
+        <v>3773</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="Q989" t="n">
         <v>20</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="K990" t="n">
         <v>5000</v>
       </c>
       <c r="L990" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M990" t="n">
-        <v>5000</v>
+        <v>5310</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="Q990" t="n">
         <v>20</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44195</v>
+        <v>44452</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>2600</v>
+        <v>2790</v>
       </c>
       <c r="K991" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L991" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M991" t="n">
-        <v>7500</v>
+        <v>4693</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>375</v>
+        <v>235</v>
       </c>
       <c r="Q991" t="n">
         <v>20</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44195</v>
+        <v>44452</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>1600</v>
+        <v>560</v>
       </c>
       <c r="K992" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L992" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M992" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q992" t="n">
         <v>20</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44195</v>
+        <v>44452</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>1200</v>
+        <v>680</v>
       </c>
       <c r="K993" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L993" t="n">
-        <v>6500</v>
+        <v>3800</v>
       </c>
       <c r="M993" t="n">
-        <v>6500</v>
+        <v>3654</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="Q993" t="n">
         <v>20</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,11 +71921,11 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="K994" t="n">
         <v>6000</v>
@@ -71943,7 +71943,7 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P994" t="n">
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,11 +71993,11 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K995" t="n">
         <v>5000</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>1770</v>
+        <v>2600</v>
       </c>
       <c r="K996" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="L996" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="M996" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="Q996" t="n">
         <v>20</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="K997" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L997" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M997" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="Q997" t="n">
         <v>20</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72213,16 +72213,16 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="K998" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L998" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M998" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="Q998" t="n">
         <v>20</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K999" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L999" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M999" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q999" t="n">
         <v>20</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72357,29 +72357,29 @@
         </is>
       </c>
       <c r="J1000" t="n">
+        <v>400</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1000" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1000" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1000" t="n">
         <v>250</v>
-      </c>
-      <c r="K1000" t="n">
-        <v>3000</v>
-      </c>
-      <c r="L1000" t="n">
-        <v>3000</v>
-      </c>
-      <c r="M1000" t="n">
-        <v>3000</v>
-      </c>
-      <c r="N1000" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O1000" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="P1000" t="n">
-        <v>150</v>
       </c>
       <c r="Q1000" t="n">
         <v>20</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>2700</v>
+        <v>1770</v>
       </c>
       <c r="K1001" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L1001" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1001" t="n">
-        <v>4481</v>
+        <v>8000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>224</v>
+        <v>400</v>
       </c>
       <c r="Q1001" t="n">
         <v>20</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="K1002" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L1002" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1002" t="n">
-        <v>4690</v>
+        <v>8000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72519,11 +72519,11 @@
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="Q1002" t="n">
         <v>20</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="K1003" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L1003" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1003" t="n">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="Q1003" t="n">
         <v>20</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K1004" t="n">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="L1004" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1004" t="n">
-        <v>3886</v>
+        <v>7000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>194</v>
+        <v>350</v>
       </c>
       <c r="Q1004" t="n">
         <v>20</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="K1005" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L1005" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M1005" t="n">
-        <v>5267</v>
+        <v>3000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>263</v>
+        <v>150</v>
       </c>
       <c r="Q1005" t="n">
         <v>20</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="K1006" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1006" t="n">
         <v>5000</v>
       </c>
-      <c r="L1006" t="n">
-        <v>5500</v>
-      </c>
       <c r="M1006" t="n">
-        <v>5283</v>
+        <v>4481</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="Q1006" t="n">
         <v>20</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>200</v>
+        <v>2100</v>
       </c>
       <c r="K1007" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1007" t="n">
         <v>5000</v>
       </c>
       <c r="M1007" t="n">
-        <v>5000</v>
+        <v>4690</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="Q1007" t="n">
         <v>20</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44536</v>
+        <v>44398</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="K1008" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1008" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M1008" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="Q1008" t="n">
         <v>20</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44302</v>
+        <v>44398</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>90</v>
+        <v>700</v>
       </c>
       <c r="K1009" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L1009" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M1009" t="n">
-        <v>3500</v>
+        <v>3886</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q1009" t="n">
         <v>20</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="K1010" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1010" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M1010" t="n">
-        <v>3500</v>
+        <v>5267</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73095,11 +73095,11 @@
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="Q1010" t="n">
         <v>20</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73149,7 +73149,7 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K1011" t="n">
         <v>5000</v>
@@ -73158,7 +73158,7 @@
         <v>5500</v>
       </c>
       <c r="M1011" t="n">
-        <v>5205</v>
+        <v>5283</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q1011" t="n">
         <v>20</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>2800</v>
+        <v>200</v>
       </c>
       <c r="K1012" t="n">
         <v>5000</v>
       </c>
       <c r="L1012" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1012" t="n">
-        <v>5232</v>
+        <v>5000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Q1012" t="n">
         <v>20</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K1013" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1013" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M1013" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73311,11 +73311,11 @@
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q1013" t="n">
         <v>20</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="K1014" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1014" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M1014" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73383,11 +73383,11 @@
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q1014" t="n">
         <v>20</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K1015" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L1015" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M1015" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73455,11 +73455,11 @@
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="Q1015" t="n">
         <v>20</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>1450</v>
+        <v>2200</v>
       </c>
       <c r="K1016" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1016" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M1016" t="n">
-        <v>8000</v>
+        <v>5205</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="Q1016" t="n">
         <v>20</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="K1017" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1017" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M1017" t="n">
-        <v>8000</v>
+        <v>5232</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>400</v>
+        <v>262</v>
       </c>
       <c r="Q1017" t="n">
         <v>20</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1018" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1018" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1018" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q1018" t="n">
         <v>20</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44511</v>
+        <v>44302</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K1019" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1019" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1019" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73743,11 +73743,11 @@
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="Q1019" t="n">
         <v>20</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="K1020" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1020" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1020" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q1020" t="n">
         <v>20</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>1300</v>
+        <v>1450</v>
       </c>
       <c r="K1021" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1021" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1021" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q1021" t="n">
         <v>20</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73937,20 +73937,20 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="K1022" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L1022" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1022" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q1022" t="n">
         <v>20</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K1023" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1023" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1023" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74031,11 +74031,11 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q1023" t="n">
         <v>20</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44344</v>
+        <v>44511</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>2150</v>
+        <v>600</v>
       </c>
       <c r="K1024" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1024" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1024" t="n">
-        <v>4814</v>
+        <v>6000</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74103,11 +74103,11 @@
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="Q1024" t="n">
         <v>20</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="K1025" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1025" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1025" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q1025" t="n">
         <v>20</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44461</v>
+        <v>44239</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74229,16 +74229,16 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="K1026" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1026" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1026" t="n">
-        <v>5155</v>
+        <v>6000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="Q1026" t="n">
         <v>20</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44461</v>
+        <v>44239</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="K1027" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1027" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1027" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74319,11 +74319,11 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q1027" t="n">
         <v>20</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44463</v>
+        <v>44239</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K1028" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1028" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1028" t="n">
-        <v>7418</v>
+        <v>5000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="Q1028" t="n">
         <v>20</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44463</v>
+        <v>44344</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>460</v>
+        <v>2150</v>
       </c>
       <c r="K1029" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1029" t="n">
         <v>5000</v>
       </c>
-      <c r="L1029" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1029" t="n">
-        <v>5435</v>
+        <v>4814</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="Q1029" t="n">
         <v>20</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74513,20 +74513,20 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K1030" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L1030" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1030" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q1030" t="n">
         <v>20</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="K1031" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L1031" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M1031" t="n">
-        <v>3000</v>
+        <v>5155</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="Q1031" t="n">
         <v>20</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>2600</v>
+        <v>680</v>
       </c>
       <c r="K1032" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1032" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1032" t="n">
-        <v>4731</v>
+        <v>4000</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74679,11 +74679,11 @@
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="Q1032" t="n">
         <v>20</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74733,16 +74733,16 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>1900</v>
+        <v>550</v>
       </c>
       <c r="K1033" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L1033" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1033" t="n">
-        <v>4842</v>
+        <v>7418</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74751,11 +74751,11 @@
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>242</v>
+        <v>371</v>
       </c>
       <c r="Q1033" t="n">
         <v>20</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44357</v>
+        <v>44463</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74805,16 +74805,16 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>1300</v>
+        <v>460</v>
       </c>
       <c r="K1034" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1034" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1034" t="n">
-        <v>3769</v>
+        <v>5435</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74823,11 +74823,11 @@
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="Q1034" t="n">
         <v>20</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="K1035" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L1035" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1035" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74895,11 +74895,11 @@
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="Q1035" t="n">
         <v>20</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1036" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L1036" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M1036" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q1036" t="n">
         <v>20</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75021,7 +75021,7 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="K1037" t="n">
         <v>4500</v>
@@ -75030,7 +75030,7 @@
         <v>5000</v>
       </c>
       <c r="M1037" t="n">
-        <v>4825</v>
+        <v>4731</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q1037" t="n">
         <v>20</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75093,7 +75093,7 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K1038" t="n">
         <v>4500</v>
@@ -75102,7 +75102,7 @@
         <v>5000</v>
       </c>
       <c r="M1038" t="n">
-        <v>4833</v>
+        <v>4842</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75165,7 +75165,7 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>1150</v>
+        <v>1300</v>
       </c>
       <c r="K1039" t="n">
         <v>3500</v>
@@ -75174,7 +75174,7 @@
         <v>4000</v>
       </c>
       <c r="M1039" t="n">
-        <v>3783</v>
+        <v>3769</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q1039" t="n">
         <v>20</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K1040" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1040" t="n">
         <v>4000</v>
       </c>
       <c r="M1040" t="n">
-        <v>4000</v>
+        <v>3750</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Q1040" t="n">
         <v>20</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75309,16 +75309,16 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K1041" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L1041" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M1041" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q1041" t="n">
         <v>20</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75381,7 +75381,7 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K1042" t="n">
         <v>4500</v>
@@ -75390,7 +75390,7 @@
         <v>5000</v>
       </c>
       <c r="M1042" t="n">
-        <v>4833</v>
+        <v>4825</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q1042" t="n">
         <v>20</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44365</v>
+        <v>44371</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="K1043" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L1043" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1043" t="n">
-        <v>3786</v>
+        <v>4833</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75471,11 +75471,11 @@
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="Q1043" t="n">
         <v>20</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>2100</v>
+        <v>1150</v>
       </c>
       <c r="K1044" t="n">
-        <v>4700</v>
+        <v>3500</v>
       </c>
       <c r="L1044" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1044" t="n">
-        <v>4886</v>
+        <v>3783</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="Q1044" t="n">
         <v>20</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44454</v>
+        <v>44371</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>2060</v>
+        <v>500</v>
       </c>
       <c r="K1045" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1045" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1045" t="n">
-        <v>4816</v>
+        <v>4000</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75615,11 +75615,11 @@
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="Q1045" t="n">
         <v>20</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1046" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1046" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1046" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q1046" t="n">
         <v>20</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>380</v>
+        <v>2100</v>
       </c>
       <c r="K1047" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1047" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1047" t="n">
-        <v>4000</v>
+        <v>4833</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75759,11 +75759,11 @@
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="Q1047" t="n">
         <v>20</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75809,20 +75809,20 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K1048" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L1048" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1048" t="n">
-        <v>7000</v>
+        <v>3786</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>350</v>
+        <v>189</v>
       </c>
       <c r="Q1048" t="n">
         <v>20</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="K1049" t="n">
-        <v>7000</v>
+        <v>4700</v>
       </c>
       <c r="L1049" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1049" t="n">
-        <v>7000</v>
+        <v>4886</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75903,11 +75903,11 @@
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>350</v>
+        <v>244</v>
       </c>
       <c r="Q1049" t="n">
         <v>20</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75953,20 +75953,20 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>1100</v>
+        <v>2060</v>
       </c>
       <c r="K1050" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1050" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1050" t="n">
-        <v>5500</v>
+        <v>4816</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75975,11 +75975,11 @@
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="Q1050" t="n">
         <v>20</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1051" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1051" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1051" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76047,11 +76047,11 @@
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="Q1051" t="n">
         <v>20</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44313</v>
+        <v>44454</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76097,20 +76097,20 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="K1052" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1052" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M1052" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76119,11 +76119,11 @@
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q1052" t="n">
         <v>20</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>3700</v>
+        <v>2400</v>
       </c>
       <c r="K1053" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1053" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1053" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="Q1053" t="n">
         <v>20</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K1054" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L1054" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1054" t="n">
-        <v>4833</v>
+        <v>7000</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76263,11 +76263,11 @@
       </c>
       <c r="O1054" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="Q1054" t="n">
         <v>20</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K1055" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1055" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1055" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="Q1055" t="n">
         <v>20</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K1056" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1056" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1056" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76407,11 +76407,11 @@
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="Q1056" t="n">
         <v>20</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>330</v>
+        <v>700</v>
       </c>
       <c r="K1057" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L1057" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M1057" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="Q1057" t="n">
         <v>20</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76533,16 +76533,16 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>1500</v>
+        <v>3700</v>
       </c>
       <c r="K1058" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1058" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1058" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="Q1058" t="n">
         <v>20</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="K1059" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L1059" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1059" t="n">
-        <v>7500</v>
+        <v>4833</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76623,11 +76623,11 @@
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>375</v>
+        <v>242</v>
       </c>
       <c r="Q1059" t="n">
         <v>20</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76677,16 +76677,16 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="K1060" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1060" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1060" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q1060" t="n">
         <v>20</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44518</v>
+        <v>44313</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="K1061" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1061" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1061" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76767,11 +76767,11 @@
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q1061" t="n">
         <v>20</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="K1062" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1062" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1062" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q1062" t="n">
         <v>20</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76893,16 +76893,16 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="K1063" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L1063" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M1063" t="n">
-        <v>5207</v>
+        <v>8000</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="Q1063" t="n">
         <v>20</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76965,16 +76965,16 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>950</v>
+        <v>1780</v>
       </c>
       <c r="K1064" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1064" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1064" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="Q1064" t="n">
         <v>20</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77033,20 +77033,20 @@
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="K1065" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1065" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1065" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77055,11 +77055,11 @@
       </c>
       <c r="O1065" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q1065" t="n">
         <v>20</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77109,16 +77109,16 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>320</v>
+        <v>570</v>
       </c>
       <c r="K1066" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1066" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1066" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77127,11 +77127,11 @@
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q1066" t="n">
         <v>20</v>
@@ -77177,20 +77177,20 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>730</v>
+        <v>290</v>
       </c>
       <c r="K1067" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L1067" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1067" t="n">
-        <v>3774</v>
+        <v>6000</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77199,11 +77199,11 @@
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="Q1067" t="n">
         <v>20</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>810</v>
+        <v>1450</v>
       </c>
       <c r="K1068" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1068" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1068" t="n">
-        <v>5086</v>
+        <v>5207</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77271,11 +77271,11 @@
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q1068" t="n">
         <v>20</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="K1069" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1069" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M1069" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77343,11 +77343,11 @@
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q1069" t="n">
         <v>20</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>2100</v>
+        <v>580</v>
       </c>
       <c r="K1070" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1070" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1070" t="n">
-        <v>4810</v>
+        <v>5500</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77415,11 +77415,11 @@
       </c>
       <c r="O1070" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="Q1070" t="n">
         <v>20</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77465,20 +77465,20 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>2500</v>
+        <v>320</v>
       </c>
       <c r="K1071" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1071" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1071" t="n">
-        <v>4740</v>
+        <v>4000</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77487,11 +77487,11 @@
       </c>
       <c r="O1071" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="Q1071" t="n">
         <v>20</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>500</v>
+        <v>730</v>
       </c>
       <c r="K1072" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1072" t="n">
         <v>4000</v>
       </c>
       <c r="M1072" t="n">
-        <v>4000</v>
+        <v>3774</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77559,11 +77559,11 @@
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q1072" t="n">
         <v>20</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77613,34 +77613,394 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>700</v>
+        <v>810</v>
       </c>
       <c r="K1073" t="n">
         <v>4000</v>
       </c>
       <c r="L1073" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>5086</v>
+      </c>
+      <c r="N1073" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1073" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1073" t="n">
+        <v>254</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1073" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1074" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1074" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1074" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="J1074" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N1074" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1074" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P1074" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1074" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1075" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1075" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1075" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1075" t="n">
+        <v>2100</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>4810</v>
+      </c>
+      <c r="N1075" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1075" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1075" t="n">
+        <v>240</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1075" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1076" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1076" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1076" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1076" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>4740</v>
+      </c>
+      <c r="N1076" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1076" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P1076" t="n">
+        <v>237</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1076" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1077" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1077" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1077" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1077" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1077" t="n">
         <v>4000</v>
       </c>
-      <c r="M1073" t="n">
+      <c r="L1077" t="n">
         <v>4000</v>
       </c>
-      <c r="N1073" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O1073" t="inlineStr">
+      <c r="M1077" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N1077" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1077" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1077" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1077" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1078" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1078" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1078" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1078" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1078" t="n">
+        <v>700</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N1078" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1078" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P1073" t="n">
+      <c r="P1078" t="n">
         <v>200</v>
       </c>
-      <c r="Q1073" t="n">
-        <v>20</v>
-      </c>
-      <c r="R1073" t="inlineStr">
+      <c r="Q1078" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1078" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>660</v>
+        <v>120</v>
       </c>
       <c r="K1061" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1061" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M1061" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76767,11 +76767,11 @@
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q1061" t="n">
         <v>20</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="K1062" t="n">
         <v>8000</v>
       </c>
       <c r="L1062" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M1062" t="n">
-        <v>8000</v>
+        <v>8211</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76839,11 +76839,11 @@
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="Q1062" t="n">
         <v>20</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>1600</v>
+        <v>250</v>
       </c>
       <c r="K1063" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L1063" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M1063" t="n">
-        <v>6438</v>
+        <v>7500</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>322</v>
+        <v>375</v>
       </c>
       <c r="Q1063" t="n">
         <v>20</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>780</v>
+        <v>660</v>
       </c>
       <c r="K1064" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1064" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1064" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q1064" t="n">
         <v>20</v>
@@ -77033,33 +77033,33 @@
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1065" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N1065" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1065" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1065" t="n">
         <v>400</v>
-      </c>
-      <c r="K1065" t="n">
-        <v>5000</v>
-      </c>
-      <c r="L1065" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M1065" t="n">
-        <v>5000</v>
-      </c>
-      <c r="N1065" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O1065" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P1065" t="n">
-        <v>250</v>
       </c>
       <c r="Q1065" t="n">
         <v>20</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77109,16 +77109,16 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>2270</v>
+        <v>1600</v>
       </c>
       <c r="K1066" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1066" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1066" t="n">
-        <v>5214</v>
+        <v>6438</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77127,11 +77127,11 @@
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="Q1066" t="n">
         <v>20</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>560</v>
+        <v>780</v>
       </c>
       <c r="K1067" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1067" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1067" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q1067" t="n">
         <v>20</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="K1068" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1068" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1068" t="n">
-        <v>7429</v>
+        <v>5000</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="Q1068" t="n">
         <v>20</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>550</v>
+        <v>2270</v>
       </c>
       <c r="K1069" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1069" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1069" t="n">
-        <v>6000</v>
+        <v>5214</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77343,11 +77343,11 @@
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="Q1069" t="n">
         <v>20</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="K1070" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1070" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M1070" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q1070" t="n">
         <v>20</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77465,20 +77465,20 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>450</v>
+        <v>2800</v>
       </c>
       <c r="K1071" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L1071" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="M1071" t="n">
-        <v>3500</v>
+        <v>7429</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77487,11 +77487,11 @@
       </c>
       <c r="O1071" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>175</v>
+        <v>371</v>
       </c>
       <c r="Q1071" t="n">
         <v>20</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>3200</v>
+        <v>550</v>
       </c>
       <c r="K1072" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1072" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1072" t="n">
-        <v>4719</v>
+        <v>6000</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77559,11 +77559,11 @@
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="Q1072" t="n">
         <v>20</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="K1073" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1073" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M1073" t="n">
-        <v>4756</v>
+        <v>3500</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77631,11 +77631,11 @@
       </c>
       <c r="O1073" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="Q1073" t="n">
         <v>20</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="K1074" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1074" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1074" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77703,11 +77703,11 @@
       </c>
       <c r="O1074" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q1074" t="n">
         <v>20</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="K1075" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L1075" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1075" t="n">
-        <v>3800</v>
+        <v>4719</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77775,11 +77775,11 @@
       </c>
       <c r="O1075" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="Q1075" t="n">
         <v>20</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77829,7 +77829,7 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="K1076" t="n">
         <v>4500</v>
@@ -77838,7 +77838,7 @@
         <v>5000</v>
       </c>
       <c r="M1076" t="n">
-        <v>4700</v>
+        <v>4756</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77847,11 +77847,11 @@
       </c>
       <c r="O1076" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q1076" t="n">
         <v>20</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77897,20 +77897,20 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>3220</v>
+        <v>750</v>
       </c>
       <c r="K1077" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1077" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1077" t="n">
-        <v>4775</v>
+        <v>4000</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77919,11 +77919,11 @@
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="Q1077" t="n">
         <v>20</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="K1078" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1078" t="n">
         <v>4000</v>
       </c>
       <c r="M1078" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77991,11 +77991,11 @@
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q1078" t="n">
         <v>20</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>380</v>
+        <v>2000</v>
       </c>
       <c r="K1079" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1079" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1079" t="n">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78063,11 +78063,11 @@
       </c>
       <c r="O1079" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q1079" t="n">
         <v>20</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78117,16 +78117,16 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>2000</v>
+        <v>3220</v>
       </c>
       <c r="K1080" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1080" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1080" t="n">
-        <v>5725</v>
+        <v>4775</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78135,11 +78135,11 @@
       </c>
       <c r="O1080" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="Q1080" t="n">
         <v>20</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78185,20 +78185,20 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="K1081" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1081" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1081" t="n">
-        <v>5219</v>
+        <v>4000</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78207,11 +78207,11 @@
       </c>
       <c r="O1081" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="Q1081" t="n">
         <v>20</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78279,7 +78279,7 @@
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1082" t="n">
@@ -78329,20 +78329,20 @@
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K1083" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1083" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1083" t="n">
-        <v>4000</v>
+        <v>5725</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78351,11 +78351,11 @@
       </c>
       <c r="O1083" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="Q1083" t="n">
         <v>20</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78401,20 +78401,20 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="K1084" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1084" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="M1084" t="n">
-        <v>3500</v>
+        <v>5219</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78423,11 +78423,11 @@
       </c>
       <c r="O1084" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="Q1084" t="n">
         <v>20</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>3000</v>
+        <v>380</v>
       </c>
       <c r="K1085" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1085" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1085" t="n">
-        <v>4777</v>
+        <v>4000</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="Q1085" t="n">
         <v>20</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78545,20 +78545,20 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>2300</v>
+        <v>500</v>
       </c>
       <c r="K1086" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1086" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1086" t="n">
-        <v>4848</v>
+        <v>4000</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78567,11 +78567,11 @@
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="Q1086" t="n">
         <v>20</v>
@@ -78617,20 +78617,20 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K1087" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1087" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1087" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q1087" t="n">
         <v>20</v>
@@ -78689,20 +78689,20 @@
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="K1088" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1088" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1088" t="n">
-        <v>4000</v>
+        <v>4777</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78711,11 +78711,11 @@
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="Q1088" t="n">
         <v>20</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="K1089" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L1089" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1089" t="n">
-        <v>7789</v>
+        <v>4848</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78783,11 +78783,11 @@
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>389</v>
+        <v>242</v>
       </c>
       <c r="Q1089" t="n">
         <v>20</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K1090" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L1090" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1090" t="n">
-        <v>7735</v>
+        <v>4000</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78855,11 +78855,11 @@
       </c>
       <c r="O1090" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>387</v>
+        <v>200</v>
       </c>
       <c r="Q1090" t="n">
         <v>20</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78909,16 +78909,16 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K1091" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1091" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1091" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78927,11 +78927,11 @@
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q1091" t="n">
         <v>20</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>150</v>
+        <v>1900</v>
       </c>
       <c r="K1092" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L1092" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1092" t="n">
-        <v>7000</v>
+        <v>7789</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -78999,11 +78999,11 @@
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Q1092" t="n">
         <v>20</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79049,20 +79049,20 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>120</v>
+        <v>1700</v>
       </c>
       <c r="K1093" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L1093" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1093" t="n">
-        <v>7000</v>
+        <v>7735</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="Q1093" t="n">
         <v>20</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79121,20 +79121,20 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="K1094" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1094" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1094" t="n">
-        <v>6232</v>
+        <v>7000</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79143,11 +79143,11 @@
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="Q1094" t="n">
         <v>20</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K1095" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L1095" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1095" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="Q1095" t="n">
         <v>20</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K1096" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L1096" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M1096" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79287,11 +79287,11 @@
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q1096" t="n">
         <v>20</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="K1097" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1097" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M1097" t="n">
-        <v>4324</v>
+        <v>6232</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79359,11 +79359,11 @@
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="Q1097" t="n">
         <v>20</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79409,20 +79409,20 @@
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="K1098" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1098" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1098" t="n">
-        <v>4271</v>
+        <v>5500</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79431,11 +79431,11 @@
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="Q1098" t="n">
         <v>20</v>
@@ -79481,20 +79481,20 @@
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K1099" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L1099" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M1099" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79503,11 +79503,11 @@
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q1099" t="n">
         <v>20</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="K1100" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1100" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M1100" t="n">
-        <v>3500</v>
+        <v>4324</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79575,11 +79575,11 @@
       </c>
       <c r="O1100" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="Q1100" t="n">
         <v>20</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="K1101" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1101" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M1101" t="n">
-        <v>3500</v>
+        <v>4271</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="Q1101" t="n">
         <v>20</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79697,20 +79697,20 @@
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="K1102" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1102" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M1102" t="n">
-        <v>4752</v>
+        <v>3500</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="Q1102" t="n">
         <v>20</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79769,20 +79769,20 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="K1103" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1103" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M1103" t="n">
-        <v>4775</v>
+        <v>3500</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="Q1103" t="n">
         <v>20</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K1104" t="n">
         <v>3500</v>
       </c>
       <c r="L1104" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1104" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79863,11 +79863,11 @@
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="Q1104" t="n">
         <v>20</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="K1105" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1105" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1105" t="n">
-        <v>4000</v>
+        <v>4752</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79935,11 +79935,11 @@
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q1105" t="n">
         <v>20</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K1106" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1106" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1106" t="n">
-        <v>6000</v>
+        <v>4775</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80007,11 +80007,11 @@
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="Q1106" t="n">
         <v>20</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80061,16 +80061,16 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="K1107" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1107" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M1107" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="Q1107" t="n">
         <v>20</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44525</v>
+        <v>44279</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80129,20 +80129,20 @@
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>330</v>
+        <v>800</v>
       </c>
       <c r="K1108" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1108" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1108" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80151,11 +80151,11 @@
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q1108" t="n">
         <v>20</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80205,7 +80205,7 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K1109" t="n">
         <v>6000</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="K1110" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1110" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1110" t="n">
-        <v>5731</v>
+        <v>4500</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80295,11 +80295,11 @@
       </c>
       <c r="O1110" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="Q1110" t="n">
         <v>20</v>
@@ -80345,20 +80345,20 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>680</v>
+        <v>330</v>
       </c>
       <c r="K1111" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1111" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1111" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q1111" t="n">
         <v>20</v>
@@ -80417,20 +80417,20 @@
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="K1112" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1112" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1112" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80439,11 +80439,11 @@
       </c>
       <c r="O1112" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q1112" t="n">
         <v>20</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80489,20 +80489,20 @@
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="K1113" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L1113" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M1113" t="n">
-        <v>3000</v>
+        <v>5731</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80511,11 +80511,11 @@
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="Q1113" t="n">
         <v>20</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -80561,20 +80561,20 @@
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>1700</v>
+        <v>680</v>
       </c>
       <c r="K1114" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L1114" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M1114" t="n">
-        <v>4059</v>
+        <v>4000</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80583,11 +80583,11 @@
       </c>
       <c r="O1114" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q1114" t="n">
         <v>20</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -80633,20 +80633,20 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>2300</v>
+        <v>900</v>
       </c>
       <c r="K1115" t="n">
         <v>4000</v>
       </c>
       <c r="L1115" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M1115" t="n">
-        <v>4239</v>
+        <v>4000</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80655,11 +80655,11 @@
       </c>
       <c r="O1115" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="Q1115" t="n">
         <v>20</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="K1116" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1116" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1116" t="n">
-        <v>4632</v>
+        <v>3000</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80727,11 +80727,11 @@
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="Q1116" t="n">
         <v>20</v>
@@ -80777,20 +80777,20 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="K1117" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L1117" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M1117" t="n">
-        <v>3500</v>
+        <v>4059</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80799,11 +80799,11 @@
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="Q1117" t="n">
         <v>20</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K1118" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1118" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M1118" t="n">
-        <v>3750</v>
+        <v>4239</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80871,11 +80871,11 @@
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="Q1118" t="n">
         <v>20</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80921,20 +80921,20 @@
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="K1119" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L1119" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M1119" t="n">
-        <v>3000</v>
+        <v>4632</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80943,11 +80943,11 @@
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="Q1119" t="n">
         <v>20</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80993,11 +80993,11 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="K1120" t="n">
         <v>3500</v>
@@ -81015,7 +81015,7 @@
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1120" t="n">
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="K1121" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1121" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1121" t="n">
-        <v>4786</v>
+        <v>3750</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81087,11 +81087,11 @@
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="Q1121" t="n">
         <v>20</v>
@@ -81137,20 +81137,20 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="K1122" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L1122" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1122" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81159,11 +81159,11 @@
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Q1122" t="n">
         <v>20</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="K1123" t="n">
         <v>3500</v>
       </c>
       <c r="L1123" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1123" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81231,11 +81231,11 @@
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="Q1123" t="n">
         <v>20</v>
@@ -81281,20 +81281,20 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="K1124" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1124" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1124" t="n">
-        <v>4000</v>
+        <v>4786</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81303,11 +81303,11 @@
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="Q1124" t="n">
         <v>20</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81357,16 +81357,16 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="K1125" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1125" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1125" t="n">
-        <v>6571</v>
+        <v>5000</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81375,11 +81375,11 @@
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="Q1125" t="n">
         <v>20</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81425,20 +81425,20 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="K1126" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L1126" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1126" t="n">
-        <v>5440</v>
+        <v>3800</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81447,11 +81447,11 @@
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="Q1126" t="n">
         <v>20</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81501,7 +81501,7 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K1127" t="n">
         <v>4000</v>
@@ -81519,7 +81519,7 @@
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1127" t="n">
@@ -81569,20 +81569,20 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="K1128" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1128" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1128" t="n">
-        <v>4000</v>
+        <v>6571</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81591,11 +81591,11 @@
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="Q1128" t="n">
         <v>20</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>440</v>
+        <v>2500</v>
       </c>
       <c r="K1129" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1129" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1129" t="n">
-        <v>4000</v>
+        <v>5440</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="Q1129" t="n">
         <v>20</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -81713,20 +81713,20 @@
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>2650</v>
+        <v>400</v>
       </c>
       <c r="K1130" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1130" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M1130" t="n">
-        <v>8340</v>
+        <v>4000</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>417</v>
+        <v>200</v>
       </c>
       <c r="Q1130" t="n">
         <v>20</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -81785,20 +81785,20 @@
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K1131" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1131" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1131" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q1131" t="n">
         <v>20</v>
@@ -81857,20 +81857,20 @@
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>630</v>
+        <v>440</v>
       </c>
       <c r="K1132" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1132" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1132" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81879,11 +81879,11 @@
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q1132" t="n">
         <v>20</v>
@@ -81929,20 +81929,20 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>450</v>
+        <v>2650</v>
       </c>
       <c r="K1133" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1133" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1133" t="n">
-        <v>6000</v>
+        <v>8340</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81951,11 +81951,11 @@
       </c>
       <c r="O1133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>300</v>
+        <v>417</v>
       </c>
       <c r="Q1133" t="n">
         <v>20</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -82005,16 +82005,16 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>2670</v>
+        <v>1300</v>
       </c>
       <c r="K1134" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L1134" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M1134" t="n">
-        <v>4225</v>
+        <v>8000</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82023,11 +82023,11 @@
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>211</v>
+        <v>400</v>
       </c>
       <c r="Q1134" t="n">
         <v>20</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -82077,16 +82077,16 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>800</v>
+        <v>630</v>
       </c>
       <c r="K1135" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L1135" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M1135" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="Q1135" t="n">
         <v>20</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44512</v>
+        <v>44462</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82145,20 +82145,20 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K1136" t="n">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="L1136" t="n">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="M1136" t="n">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82167,11 +82167,11 @@
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="Q1136" t="n">
         <v>20</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82221,16 +82221,16 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>1400</v>
+        <v>2670</v>
       </c>
       <c r="K1137" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1137" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M1137" t="n">
-        <v>8000</v>
+        <v>4225</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82243,7 +82243,7 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="Q1137" t="n">
         <v>20</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K1138" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L1138" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="M1138" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82311,11 +82311,11 @@
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="Q1138" t="n">
         <v>20</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K1139" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="L1139" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="M1139" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="Q1139" t="n">
         <v>20</v>
@@ -82433,33 +82433,33 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1140" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N1140" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1140" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1140" t="n">
         <v>400</v>
-      </c>
-      <c r="K1140" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L1140" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M1140" t="n">
-        <v>7000</v>
-      </c>
-      <c r="N1140" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O1140" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P1140" t="n">
-        <v>350</v>
       </c>
       <c r="Q1140" t="n">
         <v>20</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="K1141" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L1141" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1141" t="n">
-        <v>4714</v>
+        <v>8000</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82527,11 +82527,11 @@
       </c>
       <c r="O1141" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>236</v>
+        <v>400</v>
       </c>
       <c r="Q1141" t="n">
         <v>20</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82577,20 +82577,20 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="K1142" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1142" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1142" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82599,11 +82599,11 @@
       </c>
       <c r="O1142" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q1142" t="n">
         <v>20</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82653,16 +82653,16 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1143" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1143" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1143" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82671,11 +82671,11 @@
       </c>
       <c r="O1143" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q1143" t="n">
         <v>20</v>
@@ -82721,20 +82721,20 @@
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="K1144" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1144" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1144" t="n">
-        <v>4000</v>
+        <v>4714</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82743,11 +82743,11 @@
       </c>
       <c r="O1144" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q1144" t="n">
         <v>20</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -82793,20 +82793,20 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K1145" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1145" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1145" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82815,11 +82815,11 @@
       </c>
       <c r="O1145" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="Q1145" t="n">
         <v>20</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -82865,20 +82865,20 @@
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K1146" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1146" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1146" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q1146" t="n">
         <v>20</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -82937,20 +82937,20 @@
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K1147" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1147" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1147" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82959,11 +82959,11 @@
       </c>
       <c r="O1147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q1147" t="n">
         <v>20</v>
@@ -83009,20 +83009,20 @@
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K1148" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1148" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1148" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q1148" t="n">
         <v>20</v>
@@ -83081,38 +83081,254 @@
       </c>
       <c r="I1149" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1149" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N1149" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1149" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1149" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1149" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1150" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1150" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1150" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1150" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1150" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N1150" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1150" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1150" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1150" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1151" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1151" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1151" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1151" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1149" t="n">
+      <c r="J1151" t="n">
         <v>600</v>
       </c>
-      <c r="K1149" t="n">
+      <c r="K1151" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1151" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1151" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1151" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1151" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1152" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1152" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1152" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1152" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1152" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1152" t="n">
         <v>6000</v>
       </c>
-      <c r="L1149" t="n">
+      <c r="L1152" t="n">
         <v>6000</v>
       </c>
-      <c r="M1149" t="n">
+      <c r="M1152" t="n">
         <v>6000</v>
       </c>
-      <c r="N1149" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O1149" t="inlineStr">
+      <c r="N1152" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1152" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1149" t="n">
+      <c r="P1152" t="n">
         <v>300</v>
       </c>
-      <c r="Q1149" t="n">
-        <v>20</v>
-      </c>
-      <c r="R1149" t="inlineStr">
+      <c r="Q1152" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1152" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1169"/>
+  <dimension ref="A1:R1174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>1650</v>
+        <v>380</v>
       </c>
       <c r="K1101" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L1101" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1101" t="n">
-        <v>7576</v>
+        <v>10000</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="Q1101" t="n">
         <v>20</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79701,16 +79701,16 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>2170</v>
+        <v>1250</v>
       </c>
       <c r="K1102" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1102" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="M1102" t="n">
-        <v>7177</v>
+        <v>9000</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79719,11 +79719,11 @@
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>359</v>
+        <v>450</v>
       </c>
       <c r="Q1102" t="n">
         <v>20</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79769,20 +79769,20 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>400</v>
+        <v>1570</v>
       </c>
       <c r="K1103" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1103" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1103" t="n">
-        <v>6000</v>
+        <v>8490</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79791,11 +79791,11 @@
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>300</v>
+        <v>424</v>
       </c>
       <c r="Q1103" t="n">
         <v>20</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -79845,16 +79845,16 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="K1104" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1104" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1104" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79863,11 +79863,11 @@
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q1104" t="n">
         <v>20</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>600</v>
+        <v>440</v>
       </c>
       <c r="K1105" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L1105" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="M1105" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79935,11 +79935,11 @@
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="Q1105" t="n">
         <v>20</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>2100</v>
+        <v>1650</v>
       </c>
       <c r="K1106" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L1106" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1106" t="n">
-        <v>4810</v>
+        <v>7576</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="Q1106" t="n">
         <v>20</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80061,16 +80061,16 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>2500</v>
+        <v>2170</v>
       </c>
       <c r="K1107" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L1107" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M1107" t="n">
-        <v>4740</v>
+        <v>7177</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80079,11 +80079,11 @@
       </c>
       <c r="O1107" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="Q1107" t="n">
         <v>20</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1108" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1108" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1108" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q1108" t="n">
         <v>20</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="K1109" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1109" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1109" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80223,11 +80223,11 @@
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q1109" t="n">
         <v>20</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80280,13 +80280,13 @@
         <v>600</v>
       </c>
       <c r="K1110" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L1110" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M1110" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q1110" t="n">
         <v>20</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>5300</v>
+        <v>2100</v>
       </c>
       <c r="K1111" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1111" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1111" t="n">
-        <v>4223</v>
+        <v>4810</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="Q1111" t="n">
         <v>20</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80421,7 +80421,7 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="K1112" t="n">
         <v>4500</v>
@@ -80430,7 +80430,7 @@
         <v>5000</v>
       </c>
       <c r="M1112" t="n">
-        <v>4688</v>
+        <v>4740</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q1112" t="n">
         <v>20</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="K1113" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1113" t="n">
         <v>4000</v>
       </c>
       <c r="M1113" t="n">
-        <v>3760</v>
+        <v>4000</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="Q1113" t="n">
         <v>20</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -80565,7 +80565,7 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K1114" t="n">
         <v>4000</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -80637,16 +80637,16 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K1115" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L1115" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M1115" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80655,11 +80655,11 @@
       </c>
       <c r="O1115" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="Q1115" t="n">
         <v>20</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>420</v>
+        <v>5300</v>
       </c>
       <c r="K1116" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1116" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="M1116" t="n">
-        <v>5500</v>
+        <v>4223</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80727,11 +80727,11 @@
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="Q1116" t="n">
         <v>20</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -80781,16 +80781,16 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>610</v>
+        <v>3200</v>
       </c>
       <c r="K1117" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1117" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1117" t="n">
-        <v>6000</v>
+        <v>4688</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80799,11 +80799,11 @@
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="Q1117" t="n">
         <v>20</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>650</v>
+        <v>2500</v>
       </c>
       <c r="K1118" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L1118" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1118" t="n">
-        <v>6000</v>
+        <v>3760</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80871,11 +80871,11 @@
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="Q1118" t="n">
         <v>20</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80925,16 +80925,16 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K1119" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1119" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1119" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80943,11 +80943,11 @@
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q1119" t="n">
         <v>20</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="K1120" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1120" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1120" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81015,11 +81015,11 @@
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q1120" t="n">
         <v>20</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>2600</v>
+        <v>420</v>
       </c>
       <c r="K1121" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1121" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1121" t="n">
-        <v>6212</v>
+        <v>5500</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81087,11 +81087,11 @@
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="Q1121" t="n">
         <v>20</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81137,20 +81137,20 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="K1122" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1122" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1122" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81159,11 +81159,11 @@
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q1122" t="n">
         <v>20</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44323</v>
+        <v>44162</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81213,16 +81213,16 @@
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>3600</v>
+        <v>650</v>
       </c>
       <c r="K1123" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1123" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1123" t="n">
-        <v>4667</v>
+        <v>6000</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81231,11 +81231,11 @@
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="Q1123" t="n">
         <v>20</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44323</v>
+        <v>44162</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81285,16 +81285,16 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K1124" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1124" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1124" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q1124" t="n">
         <v>20</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44306</v>
+        <v>44162</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81353,20 +81353,20 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K1125" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L1125" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M1125" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81375,11 +81375,11 @@
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q1125" t="n">
         <v>20</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44306</v>
+        <v>44529</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81429,16 +81429,16 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="K1126" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1126" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1126" t="n">
-        <v>4485</v>
+        <v>6212</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81447,11 +81447,11 @@
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>224</v>
+        <v>311</v>
       </c>
       <c r="Q1126" t="n">
         <v>20</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44306</v>
+        <v>44529</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K1127" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1127" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1127" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81519,11 +81519,11 @@
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q1127" t="n">
         <v>20</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -81569,20 +81569,20 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>1300</v>
+        <v>3600</v>
       </c>
       <c r="K1128" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L1128" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1128" t="n">
-        <v>3731</v>
+        <v>4667</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="Q1128" t="n">
         <v>20</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81645,7 +81645,7 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K1129" t="n">
         <v>4000</v>
@@ -81663,7 +81663,7 @@
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1129" t="n">
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -81717,16 +81717,16 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K1130" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L1130" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M1130" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="Q1130" t="n">
         <v>20</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -81785,20 +81785,20 @@
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>250</v>
+        <v>3300</v>
       </c>
       <c r="K1131" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1131" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1131" t="n">
-        <v>4500</v>
+        <v>4485</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81807,11 +81807,11 @@
       </c>
       <c r="O1131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q1131" t="n">
         <v>20</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -81879,7 +81879,7 @@
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1132" t="n">
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -81929,20 +81929,20 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>970</v>
+        <v>1300</v>
       </c>
       <c r="K1133" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L1133" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1133" t="n">
-        <v>5000</v>
+        <v>3731</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81951,11 +81951,11 @@
       </c>
       <c r="O1133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="Q1133" t="n">
         <v>20</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -82005,7 +82005,7 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K1134" t="n">
         <v>4000</v>
@@ -82023,7 +82023,7 @@
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1134" t="n">
@@ -82073,20 +82073,20 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1135" t="n">
         <v>340</v>
       </c>
       <c r="K1135" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1135" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M1135" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82095,11 +82095,11 @@
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Q1135" t="n">
         <v>20</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82145,20 +82145,20 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>4200</v>
+        <v>250</v>
       </c>
       <c r="K1136" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1136" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1136" t="n">
-        <v>5429</v>
+        <v>4500</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82167,11 +82167,11 @@
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="Q1136" t="n">
         <v>20</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82221,16 +82221,16 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>4300</v>
+        <v>800</v>
       </c>
       <c r="K1137" t="n">
         <v>5000</v>
       </c>
       <c r="L1137" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1137" t="n">
-        <v>5395</v>
+        <v>5000</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82239,11 +82239,11 @@
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Q1137" t="n">
         <v>20</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="K1138" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1138" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1138" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82311,11 +82311,11 @@
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q1138" t="n">
         <v>20</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82365,16 +82365,16 @@
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="K1139" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1139" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M1139" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82383,11 +82383,11 @@
       </c>
       <c r="O1139" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q1139" t="n">
         <v>20</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44428</v>
+        <v>44189</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -82433,20 +82433,20 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="K1140" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1140" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M1140" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82455,11 +82455,11 @@
       </c>
       <c r="O1140" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Q1140" t="n">
         <v>20</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>1600</v>
+        <v>4200</v>
       </c>
       <c r="K1141" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1141" t="n">
         <v>6000</v>
       </c>
       <c r="M1141" t="n">
-        <v>5750</v>
+        <v>5429</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Q1141" t="n">
         <v>20</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82577,20 +82577,20 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>630</v>
+        <v>4300</v>
       </c>
       <c r="K1142" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1142" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1142" t="n">
-        <v>4262</v>
+        <v>5395</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82599,11 +82599,11 @@
       </c>
       <c r="O1142" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="Q1142" t="n">
         <v>20</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82649,20 +82649,20 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K1143" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L1143" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M1143" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="Q1143" t="n">
         <v>20</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -82721,20 +82721,20 @@
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1144" t="n">
         <v>600</v>
       </c>
       <c r="K1144" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L1144" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M1144" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="Q1144" t="n">
         <v>20</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -82793,20 +82793,20 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>3000</v>
+        <v>270</v>
       </c>
       <c r="K1145" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1145" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="M1145" t="n">
-        <v>4550</v>
+        <v>3500</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82819,7 +82819,7 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="Q1145" t="n">
         <v>20</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -82869,16 +82869,16 @@
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>3100</v>
+        <v>1600</v>
       </c>
       <c r="K1146" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1146" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1146" t="n">
-        <v>4710</v>
+        <v>5750</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82887,11 +82887,11 @@
       </c>
       <c r="O1146" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="Q1146" t="n">
         <v>20</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -82941,16 +82941,16 @@
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="K1147" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1147" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M1147" t="n">
-        <v>3500</v>
+        <v>4262</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Q1147" t="n">
         <v>20</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -83013,16 +83013,16 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K1148" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L1148" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M1148" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="Q1148" t="n">
         <v>20</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -83085,29 +83085,29 @@
         </is>
       </c>
       <c r="J1149" t="n">
+        <v>600</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N1149" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1149" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P1149" t="n">
         <v>150</v>
-      </c>
-      <c r="K1149" t="n">
-        <v>3500</v>
-      </c>
-      <c r="L1149" t="n">
-        <v>3500</v>
-      </c>
-      <c r="M1149" t="n">
-        <v>3500</v>
-      </c>
-      <c r="N1149" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O1149" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
-      </c>
-      <c r="P1149" t="n">
-        <v>175</v>
       </c>
       <c r="Q1149" t="n">
         <v>20</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -83157,16 +83157,16 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K1150" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1150" t="n">
         <v>5000</v>
       </c>
-      <c r="L1150" t="n">
-        <v>5500</v>
-      </c>
       <c r="M1150" t="n">
-        <v>5205</v>
+        <v>4550</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="Q1150" t="n">
         <v>20</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -83229,16 +83229,16 @@
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="K1151" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1151" t="n">
         <v>5000</v>
       </c>
-      <c r="L1151" t="n">
-        <v>5500</v>
-      </c>
       <c r="M1151" t="n">
-        <v>5232</v>
+        <v>4710</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83251,7 +83251,7 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="Q1151" t="n">
         <v>20</v>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -83301,16 +83301,16 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1152" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1152" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1152" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Q1152" t="n">
         <v>20</v>
@@ -83369,20 +83369,20 @@
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="K1153" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1153" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="M1153" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83391,11 +83391,11 @@
       </c>
       <c r="O1153" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="Q1153" t="n">
         <v>20</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -83441,20 +83441,20 @@
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>880</v>
+        <v>150</v>
       </c>
       <c r="K1154" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L1154" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M1154" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83463,11 +83463,11 @@
       </c>
       <c r="O1154" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="Q1154" t="n">
         <v>20</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -83517,16 +83517,16 @@
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>970</v>
+        <v>2200</v>
       </c>
       <c r="K1155" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1155" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1155" t="n">
-        <v>6000</v>
+        <v>5205</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83535,11 +83535,11 @@
       </c>
       <c r="O1155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q1155" t="n">
         <v>20</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -83585,20 +83585,20 @@
       </c>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>340</v>
+        <v>2800</v>
       </c>
       <c r="K1156" t="n">
         <v>5000</v>
       </c>
       <c r="L1156" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1156" t="n">
-        <v>5000</v>
+        <v>5232</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83607,11 +83607,11 @@
       </c>
       <c r="O1156" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Q1156" t="n">
         <v>20</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -83661,16 +83661,16 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K1157" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1157" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1157" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83679,11 +83679,11 @@
       </c>
       <c r="O1157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q1157" t="n">
         <v>20</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44274</v>
+        <v>44302</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -83729,20 +83729,20 @@
       </c>
       <c r="I1158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>2600</v>
+        <v>350</v>
       </c>
       <c r="K1158" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1158" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1158" t="n">
-        <v>4615</v>
+        <v>4500</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83751,11 +83751,11 @@
       </c>
       <c r="O1158" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q1158" t="n">
         <v>20</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -83805,16 +83805,16 @@
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>2200</v>
+        <v>880</v>
       </c>
       <c r="K1159" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1159" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1159" t="n">
-        <v>4705</v>
+        <v>6000</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83823,11 +83823,11 @@
       </c>
       <c r="O1159" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="Q1159" t="n">
         <v>20</v>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -83873,20 +83873,20 @@
       </c>
       <c r="I1160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>1300</v>
+        <v>970</v>
       </c>
       <c r="K1160" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L1160" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1160" t="n">
-        <v>3769</v>
+        <v>6000</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83895,11 +83895,11 @@
       </c>
       <c r="O1160" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="Q1160" t="n">
         <v>20</v>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -83949,16 +83949,16 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K1161" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1161" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1161" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83967,11 +83967,11 @@
       </c>
       <c r="O1161" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q1161" t="n">
         <v>20</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -84017,20 +84017,20 @@
       </c>
       <c r="I1162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>2050</v>
+        <v>430</v>
       </c>
       <c r="K1162" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1162" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1162" t="n">
-        <v>6376</v>
+        <v>5000</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="Q1162" t="n">
         <v>20</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -84089,20 +84089,20 @@
       </c>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>470</v>
+        <v>2600</v>
       </c>
       <c r="K1163" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1163" t="n">
         <v>5000</v>
       </c>
       <c r="M1163" t="n">
-        <v>5000</v>
+        <v>4615</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84111,11 +84111,11 @@
       </c>
       <c r="O1163" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="Q1163" t="n">
         <v>20</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44392</v>
+        <v>44274</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -84161,20 +84161,20 @@
       </c>
       <c r="I1164" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>110</v>
+        <v>2200</v>
       </c>
       <c r="K1164" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L1164" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M1164" t="n">
-        <v>3000</v>
+        <v>4705</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84183,11 +84183,11 @@
       </c>
       <c r="O1164" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="Q1164" t="n">
         <v>20</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44392</v>
+        <v>44274</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -84233,20 +84233,20 @@
       </c>
       <c r="I1165" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>180</v>
+        <v>1300</v>
       </c>
       <c r="K1165" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L1165" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1165" t="n">
-        <v>3000</v>
+        <v>3769</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84255,11 +84255,11 @@
       </c>
       <c r="O1165" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="Q1165" t="n">
         <v>20</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44392</v>
+        <v>44274</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -84305,20 +84305,20 @@
       </c>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="K1166" t="n">
         <v>4000</v>
       </c>
       <c r="L1166" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M1166" t="n">
-        <v>4204</v>
+        <v>4000</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84327,11 +84327,11 @@
       </c>
       <c r="O1166" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q1166" t="n">
         <v>20</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -84381,16 +84381,16 @@
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>3100</v>
+        <v>2050</v>
       </c>
       <c r="K1167" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1167" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M1167" t="n">
-        <v>4210</v>
+        <v>6376</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84399,11 +84399,11 @@
       </c>
       <c r="O1167" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="Q1167" t="n">
         <v>20</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -84453,16 +84453,16 @@
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="K1168" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1168" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M1168" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84471,11 +84471,11 @@
       </c>
       <c r="O1168" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q1168" t="n">
         <v>20</v>
@@ -84521,38 +84521,398 @@
       </c>
       <c r="I1169" t="inlineStr">
         <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="J1169" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N1169" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1169" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1169" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1169" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1170" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1170" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1170" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1170" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="J1170" t="n">
+        <v>180</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N1170" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1170" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P1170" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1170" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1171" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1171" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1171" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1171" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1171" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>4204</v>
+      </c>
+      <c r="N1171" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1171" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1171" t="n">
+        <v>210</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1171" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1172" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1172" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1172" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1172" t="n">
+        <v>3100</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>4210</v>
+      </c>
+      <c r="N1172" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1172" t="inlineStr">
+        <is>
+          <t>Región de La Araucanía</t>
+        </is>
+      </c>
+      <c r="P1172" t="n">
+        <v>210</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1172" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1173" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1173" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1173" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1173" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1169" t="n">
+      <c r="J1173" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N1173" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1173" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1173" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1173" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1174" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>100114013</v>
+      </c>
+      <c r="G1174" t="inlineStr">
+        <is>
+          <t>Zanahoria</t>
+        </is>
+      </c>
+      <c r="H1174" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1174" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1174" t="n">
         <v>400</v>
       </c>
-      <c r="K1169" t="n">
+      <c r="K1174" t="n">
         <v>3500</v>
       </c>
-      <c r="L1169" t="n">
+      <c r="L1174" t="n">
         <v>3500</v>
       </c>
-      <c r="M1169" t="n">
+      <c r="M1174" t="n">
         <v>3500</v>
       </c>
-      <c r="N1169" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O1169" t="inlineStr">
+      <c r="N1174" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1174" t="inlineStr">
         <is>
           <t>Región de La Araucanía</t>
         </is>
       </c>
-      <c r="P1169" t="n">
+      <c r="P1174" t="n">
         <v>175</v>
       </c>
-      <c r="Q1169" t="n">
-        <v>20</v>
-      </c>
-      <c r="R1169" t="inlineStr">
+      <c r="Q1174" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1174" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Zanahoria.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1205"/>
+  <dimension ref="A1:R1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -85533,16 +85533,16 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K1183" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L1183" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M1183" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85551,11 +85551,11 @@
       </c>
       <c r="O1183" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q1183" t="n">
         <v>20</v>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -85605,16 +85605,16 @@
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K1184" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1184" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="M1184" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
@@ -85623,11 +85623,11 @@
       </c>
       <c r="O1184" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Q1184" t="n">
         <v>20</v>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -85677,16 +85677,16 @@
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="K1185" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1185" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1185" t="n">
-        <v>4810</v>
+        <v>6196</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85695,11 +85695,11 @@
       </c>
       <c r="O1185" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="Q1185" t="n">
         <v>20</v>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -85749,16 +85749,16 @@
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="K1186" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1186" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1186" t="n">
-        <v>5000</v>
+        <v>6232</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
@@ -85767,11 +85767,11 @@
       </c>
       <c r="O1186" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="Q1186" t="n">
         <v>20</v>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -85821,16 +85821,16 @@
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K1187" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L1187" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1187" t="n">
-        <v>3812</v>
+        <v>5500</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
@@ -85839,11 +85839,11 @@
       </c>
       <c r="O1187" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="Q1187" t="n">
         <v>20</v>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -85893,16 +85893,16 @@
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K1188" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1188" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1188" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
@@ -85911,11 +85911,11 @@
       </c>
       <c r="O1188" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q1188" t="n">
         <v>20</v>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -85965,29 +85965,29 @@
         </is>
       </c>
       <c r="J1189" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N1189" t="inlineStr">
+        <is>
+          <t>$/saco 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1189" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="P1189" t="n">
         <v>150</v>
-      </c>
-      <c r="K1189" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L1189" t="n">
-        <v>6000</v>
-      </c>
-      <c r="M1189" t="n">
-        <v>6000</v>
-      </c>
-      <c r="N1189" t="inlineStr">
-        <is>
-          <t>$/saco 20 kilos</t>
-        </is>
-      </c>
-      <c r="O1189" t="inlineStr">
-        <is>
-          <t>Chillán</t>
-        </is>
-      </c>
-      <c r="P1189" t="n">
-        <v>300</v>
       </c>
       <c r="Q1189" t="n">
         <v>20</v>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1190" t="n">
         <v>13</v>
@@ -86037,16 +86037,16 @@
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="K1190" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L1190" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M1190" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
@@ -86055,11 +86055,11 @@
       </c>
       <c r="O1190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="Q1190" t="n">
         <v>20</v>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1191" t="n">
         <v>13</v>
@@ -86109,16 +86109,16 @@
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K1191" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1191" t="n">
         <v>5000</v>
       </c>
-      <c r="L1191" t="n">
-        <v>5500</v>
-      </c>
       <c r="M1191" t="n">
-        <v>5295</v>
+        <v>4810</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86131,7 +86131,7 @@
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="Q1191" t="n">
         <v>20</v>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1192" t="n">
         <v>13</v>
@@ -86181,16 +86181,16 @@
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K1192" t="n">
         <v>5000</v>
       </c>
       <c r="L1192" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1192" t="n">
-        <v>5286</v>
+        <v>5000</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86199,11 +86199,11 @@
       </c>
       <c r="O1192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q1192" t="n">
         <v>20</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1193" t="n">
         <v>13</v>
@@ -86253,16 +86253,16 @@
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K1193" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L1193" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1193" t="n">
-        <v>5000</v>
+        <v>3812</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86275,7 +86275,7 @@
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="Q1193" t="n">
         <v>20</v>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E1194" t="n">
         <v>13</v>
@@ -86321,20 +86321,20 @@
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>130</v>
+        <v>650</v>
       </c>
       <c r="K1194" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1194" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1194" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
@@ -86343,11 +86343,11 @@
       </c>
       <c r="O1194" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="Q1194" t="n">
         <v>20</v>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1195" t="n">
         <v>13</v>
@@ -86397,16 +86397,16 @@
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K1195" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1195" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1195" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86415,11 +86415,11 @@
       </c>
       <c r="O1195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q1195" t="n">
         <v>20</v>
@@ -86445,7 +86445,7 @@
         <